--- a/BlankJournal/Data/ПЕРЕЧЕНЬ ТБП 23 09 15.xlsx
+++ b/BlankJournal/Data/ПЕРЕЧЕНЬ ТБП 23 09 15.xlsx
@@ -7467,7 +7467,7 @@
   <dimension ref="A1:E487"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7510,8 +7510,8 @@
         <v>996</v>
       </c>
       <c r="E2" s="1" t="str">
-        <f>CONCATENATE("INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '",A2,"',",B2,",'",C2,"','",D2,"'")</f>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '1-01',1,'Ввод в работу ГГ-1','Объект 1'</v>
+        <f t="shared" ref="E2:E65" si="0">CONCATENATE("INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '",A2,"',",B2,",'",C2,"','",D2,"'")</f>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '1-01',1,'Ввод в работу ГГ-1','Объект 1'</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -7528,8 +7528,8 @@
         <v>997</v>
       </c>
       <c r="E3" s="1" t="str">
-        <f t="shared" ref="E3:E66" si="0">CONCATENATE("INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '",A3,"',",B3,",'",C3,"','",D3,"'")</f>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '1-02',1,'Ввод в работу ГГ-2','Объект 2'</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '1-02',1,'Ввод в работу ГГ-2','Объект 2'</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -7547,7 +7547,7 @@
       </c>
       <c r="E4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '1-03',1,'Ввод в работу ГГ-3','Объект 3'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '1-03',1,'Ввод в работу ГГ-3','Объект 3'</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -7565,7 +7565,7 @@
       </c>
       <c r="E5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '1-04',1,'Ввод в работу ГГ-4','Объект 4'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '1-04',1,'Ввод в работу ГГ-4','Объект 4'</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -7583,7 +7583,7 @@
       </c>
       <c r="E6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '1-05',1,'Ввод в работу ГГ-5','Объект 5'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '1-05',1,'Ввод в работу ГГ-5','Объект 5'</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -7601,7 +7601,7 @@
       </c>
       <c r="E7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '1-06',1,'Ввод в работу ГГ-6','Объект 6'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '1-06',1,'Ввод в работу ГГ-6','Объект 6'</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -7619,7 +7619,7 @@
       </c>
       <c r="E8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '1-07',1,'Ввод в работу ГГ-7','Объект 7'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '1-07',1,'Ввод в работу ГГ-7','Объект 7'</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -7637,7 +7637,7 @@
       </c>
       <c r="E9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '1-08',1,'Ввод в работу ГГ-8','Объект 8'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '1-08',1,'Ввод в работу ГГ-8','Объект 8'</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -7655,7 +7655,7 @@
       </c>
       <c r="E10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '1-09',1,'Ввод в работу ГГ-9','Объект 9'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '1-09',1,'Ввод в работу ГГ-9','Объект 9'</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -7673,7 +7673,7 @@
       </c>
       <c r="E11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '1-10',1,'Ввод в работу ГГ-10','Объект 10'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '1-10',1,'Ввод в работу ГГ-10','Объект 10'</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -7691,7 +7691,7 @@
       </c>
       <c r="E12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '1-11',1,'Вывод в ремонт ГГ-1','Объект 11'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '1-11',1,'Вывод в ремонт ГГ-1','Объект 11'</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -7709,7 +7709,7 @@
       </c>
       <c r="E13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '1-12',1,'Вывод в ремонт ГГ-2','Объект 12'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '1-12',1,'Вывод в ремонт ГГ-2','Объект 12'</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -7727,7 +7727,7 @@
       </c>
       <c r="E14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '1-13',1,'Вывод в ремонт ГГ-3','Объект 13'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '1-13',1,'Вывод в ремонт ГГ-3','Объект 13'</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -7745,7 +7745,7 @@
       </c>
       <c r="E15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '1-14',1,'Вывод в ремонт ГГ-4','Объект 14'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '1-14',1,'Вывод в ремонт ГГ-4','Объект 14'</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -7763,7 +7763,7 @@
       </c>
       <c r="E16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '1-15',1,'Вывод в ремонт ГГ-5','Объект 15'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '1-15',1,'Вывод в ремонт ГГ-5','Объект 15'</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -7781,7 +7781,7 @@
       </c>
       <c r="E17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '1-16',1,'Вывод в ремонт ГГ-6','Объект 16'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '1-16',1,'Вывод в ремонт ГГ-6','Объект 16'</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -7799,7 +7799,7 @@
       </c>
       <c r="E18" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '1-17',1,'Вывод в ремонт ГГ-7','Объект 17'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '1-17',1,'Вывод в ремонт ГГ-7','Объект 17'</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -7817,7 +7817,7 @@
       </c>
       <c r="E19" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '1-18',1,'Вывод в ремонт ГГ-8','Объект 18'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '1-18',1,'Вывод в ремонт ГГ-8','Объект 18'</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -7835,7 +7835,7 @@
       </c>
       <c r="E20" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '1-19',1,'Вывод в ремонт ГГ-9','Объект 19'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '1-19',1,'Вывод в ремонт ГГ-9','Объект 19'</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -7853,7 +7853,7 @@
       </c>
       <c r="E21" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '1-20',1,'Вывод в ремонт ГГ-10','Объект 20'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '1-20',1,'Вывод в ремонт ГГ-10','Объект 20'</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -7871,7 +7871,7 @@
       </c>
       <c r="E22" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '2-01',2,'Вывод в ремонт 1СШ-110 кВ с переводом всех присоединений на 2СШ-110 кв.','Объект 21'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-01',2,'Вывод в ремонт 1СШ-110 кВ с переводом всех присоединений на 2СШ-110 кв.','Объект 21'</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -7889,7 +7889,7 @@
       </c>
       <c r="E23" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '2-02',2,'Ввод в работу 1СШ-110 кв. Вариант 1. Опробование от ВЛ-110 кВ Каучук.','Объект 22'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-02',2,'Ввод в работу 1СШ-110 кв. Вариант 1. Опробование от ВЛ-110 кВ Каучук.','Объект 22'</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -7907,7 +7907,7 @@
       </c>
       <c r="E24" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '2-03',2,'Ввод в работу 1СШ-110 кв. Вариант 2. Опробование от ШСВ-110 кВ. ','Объект 23'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-03',2,'Ввод в работу 1СШ-110 кв. Вариант 2. Опробование от ШСВ-110 кВ. ','Объект 23'</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -7925,7 +7925,7 @@
       </c>
       <c r="E25" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '2-04',2,'Вывод в ремонт 2СШ-110 кВ с переводом всех присоединений на 1СШ-110 кВ.','Объект 24'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-04',2,'Вывод в ремонт 2СШ-110 кВ с переводом всех присоединений на 1СШ-110 кВ.','Объект 24'</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -7943,7 +7943,7 @@
       </c>
       <c r="E26" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '2-05',2,'Ввод в работу 2СШ-110 кВ. Вариант 1. Опробование от ВЛ-110 кВ ЧаТЭЦ.','Объект 25'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-05',2,'Ввод в работу 2СШ-110 кВ. Вариант 1. Опробование от ВЛ-110 кВ ЧаТЭЦ.','Объект 25'</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -7961,7 +7961,7 @@
       </c>
       <c r="E27" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '2-06',2,'Ввод в работу 2СШ-110 кВ. Вариант 2. Опробование от ШСВ-110 кВ.','Объект 26'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-06',2,'Ввод в работу 2СШ-110 кВ. Вариант 2. Опробование от ШСВ-110 кВ.','Объект 26'</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -7979,7 +7979,7 @@
       </c>
       <c r="E28" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '2-07',2,'Вывод в ремонт ОСШ-110 кВ.','Объект 27'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-07',2,'Вывод в ремонт ОСШ-110 кВ.','Объект 27'</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -7997,7 +7997,7 @@
       </c>
       <c r="E29" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '2-08',2,'Ввод в резерв ОСШ-110 кВ.','Объект 28'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-08',2,'Ввод в резерв ОСШ-110 кВ.','Объект 28'</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -8015,7 +8015,7 @@
       </c>
       <c r="E30" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '2-09',2,'Вывод в ремонт ТН 1СШ-110 кВ на время более 2 часов.','Объект 29'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-09',2,'Вывод в ремонт ТН 1СШ-110 кВ на время более 2 часов.','Объект 29'</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -8033,7 +8033,7 @@
       </c>
       <c r="E31" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '2-10',2,'Ввод в работу ТН 1СШ-110 кВ (ТН 1СШ-110 кВ был в ремонте более 2 часов).','Объект 30'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-10',2,'Ввод в работу ТН 1СШ-110 кВ (ТН 1СШ-110 кВ был в ремонте более 2 часов).','Объект 30'</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -8051,7 +8051,7 @@
       </c>
       <c r="E32" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '2-11',2,'Вывод в ремонт ТН 1СШ-110 кВ на время до 2 часов.','Объект 31'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-11',2,'Вывод в ремонт ТН 1СШ-110 кВ на время до 2 часов.','Объект 31'</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -8069,7 +8069,7 @@
       </c>
       <c r="E33" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '2-12',2,'Ввод в работу ТН 1СШ-110 кВ (ТН 1СШ-110 кВ был в ремонте менее 2 часов).','Объект 32'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-12',2,'Ввод в работу ТН 1СШ-110 кВ (ТН 1СШ-110 кВ был в ремонте менее 2 часов).','Объект 32'</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -8087,7 +8087,7 @@
       </c>
       <c r="E34" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '2-13',2,'Вывод в ремонт ТН 2СШ-110 кВ на время более 2 часов.','Объект 33'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-13',2,'Вывод в ремонт ТН 2СШ-110 кВ на время более 2 часов.','Объект 33'</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -8105,7 +8105,7 @@
       </c>
       <c r="E35" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '2-14',2,'Ввод в работу ТН 2СШ-110 кВ (ТН 2СШ-110 кВ был в ремонте более 2 часов).','Объект 34'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-14',2,'Ввод в работу ТН 2СШ-110 кВ (ТН 2СШ-110 кВ был в ремонте более 2 часов).','Объект 34'</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -8123,7 +8123,7 @@
       </c>
       <c r="E36" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '2-15',2,'Вывод в ремонт ТН 2СШ-110 кВ на время до 2 часов.','Объект 35'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-15',2,'Вывод в ремонт ТН 2СШ-110 кВ на время до 2 часов.','Объект 35'</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -8141,7 +8141,7 @@
       </c>
       <c r="E37" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '2-16',2,'Ввод в работу ТН 2СШ-110 кВ (ТН 2СШ-110 кВ был в ремонте менее 2 часов).','Объект 36'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-16',2,'Ввод в работу ТН 2СШ-110 кВ (ТН 2СШ-110 кВ был в ремонте менее 2 часов).','Объект 36'</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -8159,7 +8159,7 @@
       </c>
       <c r="E38" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '2-17',2,'Вывод в ремонт ШСВ-110 кВ.','Объект 37'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-17',2,'Вывод в ремонт ШСВ-110 кВ.','Объект 37'</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -8177,7 +8177,7 @@
       </c>
       <c r="E39" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '2-18',2,'Ввод в работу ШСВ-110 кВ.','Объект 38'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-18',2,'Ввод в работу ШСВ-110 кВ.','Объект 38'</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -8195,7 +8195,7 @@
       </c>
       <c r="E40" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '2-19',2,'Вывод в ремонт ОВ-110 кВ.','Объект 39'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-19',2,'Вывод в ремонт ОВ-110 кВ.','Объект 39'</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -8213,7 +8213,7 @@
       </c>
       <c r="E41" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '2-20',2,'Ввод в резерв ОВ-110 кВ.','Объект 40'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-20',2,'Ввод в резерв ОВ-110 кВ.','Объект 40'</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -8231,7 +8231,7 @@
       </c>
       <c r="E42" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '2-21',2,'Вывод в ремонт В-110 кВ Светлая.','Объект 41'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-21',2,'Вывод в ремонт В-110 кВ Светлая.','Объект 41'</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -8249,7 +8249,7 @@
       </c>
       <c r="E43" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '2-22',2,'Ввод в работу В-110 кВ Светлая.','Объект 42'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-22',2,'Ввод в работу В-110 кВ Светлая.','Объект 42'</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -8267,7 +8267,7 @@
       </c>
       <c r="E44" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '2-23',2,'Вывод в ремонт В-110 кВ Ивановка.','Объект 43'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-23',2,'Вывод в ремонт В-110 кВ Ивановка.','Объект 43'</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -8285,7 +8285,7 @@
       </c>
       <c r="E45" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '2-24',2,'Ввод в работу В-110 кВ Ивановка.','Объект 44'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-24',2,'Ввод в работу В-110 кВ Ивановка.','Объект 44'</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -8303,7 +8303,7 @@
       </c>
       <c r="E46" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '2-25',2,'Вывод в ремонт В-110 кВ Водозабор-1.','Объект 45'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-25',2,'Вывод в ремонт В-110 кВ Водозабор-1.','Объект 45'</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -8321,7 +8321,7 @@
       </c>
       <c r="E47" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '2-26',2,'Ввод в работу В-110 кВ Водозабор-1.','Объект 46'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-26',2,'Ввод в работу В-110 кВ Водозабор-1.','Объект 46'</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -8339,7 +8339,7 @@
       </c>
       <c r="E48" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '2-27',2,'Вывод в ремонт В-110 кВ Водозабор-2.','Объект 47'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-27',2,'Вывод в ремонт В-110 кВ Водозабор-2.','Объект 47'</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -8357,7 +8357,7 @@
       </c>
       <c r="E49" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '2-28',2,'Ввод в работу В-110 кВ Водозабор-2.','Объект 48'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-28',2,'Ввод в работу В-110 кВ Водозабор-2.','Объект 48'</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -8375,7 +8375,7 @@
       </c>
       <c r="E50" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '2-29',2,'Вывод в ремонт В-110 кВ Каучук.','Объект 49'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-29',2,'Вывод в ремонт В-110 кВ Каучук.','Объект 49'</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -8393,7 +8393,7 @@
       </c>
       <c r="E51" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '2-30',2,'Ввод в работу В-110 кВ Каучук.','Объект 50'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-30',2,'Ввод в работу В-110 кВ Каучук.','Объект 50'</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -8411,7 +8411,7 @@
       </c>
       <c r="E52" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '2-31',2,'Вывод в ремонт В-110 кВ ЧаТЭЦ.','Объект 51'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-31',2,'Вывод в ремонт В-110 кВ ЧаТЭЦ.','Объект 51'</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -8429,7 +8429,7 @@
       </c>
       <c r="E53" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '2-32',2,'Ввод в работу В-110 кВ ЧаТЭЦ.','Объект 52'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-32',2,'Ввод в работу В-110 кВ ЧаТЭЦ.','Объект 52'</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -8447,7 +8447,7 @@
       </c>
       <c r="E54" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '2-33',2,'Вывод в ремонт В-110 кВ КШТ-1.','Объект 53'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-33',2,'Вывод в ремонт В-110 кВ КШТ-1.','Объект 53'</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -8465,7 +8465,7 @@
       </c>
       <c r="E55" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '2-34',2,'Ввод в работу В-110 кВ КШТ-1.','Объект 54'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-34',2,'Ввод в работу В-110 кВ КШТ-1.','Объект 54'</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -8483,7 +8483,7 @@
       </c>
       <c r="E56" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '2-35',2,'Вывод в ремонт В-110 кВ КШТ-2.','Объект 55'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-35',2,'Вывод в ремонт В-110 кВ КШТ-2.','Объект 55'</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -8501,7 +8501,7 @@
       </c>
       <c r="E57" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '2-36',2,'Ввод в работу В-110 кВ КШТ-2.','Объект 56'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-36',2,'Ввод в работу В-110 кВ КШТ-2.','Объект 56'</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -8519,7 +8519,7 @@
       </c>
       <c r="E58" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '2-37',2,'Вывод в ремонт В-110 кВ Берёзовка.','Объект 57'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-37',2,'Вывод в ремонт В-110 кВ Берёзовка.','Объект 57'</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -8537,7 +8537,7 @@
       </c>
       <c r="E59" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '2-38',2,'Ввод в работу В-110 кВ Берёзовка.','Объект 58'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-38',2,'Ввод в работу В-110 кВ Берёзовка.','Объект 58'</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -8555,7 +8555,7 @@
       </c>
       <c r="E60" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '2-39',2,'Вывод в ремонт В-110 кВ Дубовая.','Объект 59'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-39',2,'Вывод в ремонт В-110 кВ Дубовая.','Объект 59'</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -8573,7 +8573,7 @@
       </c>
       <c r="E61" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '2-40',2,'Ввод в работу В-110 кВ Дубовая.','Объект 60'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-40',2,'Ввод в работу В-110 кВ Дубовая.','Объект 60'</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -8591,7 +8591,7 @@
       </c>
       <c r="E62" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '2-41',2,'Вывод в ремонт В-110 кВ 1Т.','Объект 61'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-41',2,'Вывод в ремонт В-110 кВ 1Т.','Объект 61'</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -8609,7 +8609,7 @@
       </c>
       <c r="E63" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '2-42',2,'Ввод в работу В-110 кВ 1Т.','Объект 62'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-42',2,'Ввод в работу В-110 кВ 1Т.','Объект 62'</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -8627,7 +8627,7 @@
       </c>
       <c r="E64" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '2-43',2,'Вывод в ремонт В-110 кВ 5,6АТ.','Объект 63'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-43',2,'Вывод в ремонт В-110 кВ 5,6АТ.','Объект 63'</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -8645,7 +8645,7 @@
       </c>
       <c r="E65" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '2-44',2,'Ввод в работу В-110 кВ 5,6АТ.','Объект 64'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-44',2,'Ввод в работу В-110 кВ 5,6АТ.','Объект 64'</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -8662,8 +8662,8 @@
         <v>1060</v>
       </c>
       <c r="E66" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '2-45',2,'Вывод в ремонт ВЛ-110 кВ Светлая.','Объект 65'</v>
+        <f t="shared" ref="E66:E129" si="1">CONCATENATE("INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '",A66,"',",B66,",'",C66,"','",D66,"'")</f>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-45',2,'Вывод в ремонт ВЛ-110 кВ Светлая.','Объект 65'</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -8680,8 +8680,8 @@
         <v>1061</v>
       </c>
       <c r="E67" s="1" t="str">
-        <f t="shared" ref="E67:E130" si="1">CONCATENATE("INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '",A67,"',",B67,",'",C67,"','",D67,"'")</f>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '2-46',2,'Ввод в работу ВЛ-110 кВ Светлая.','Объект 66'</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-46',2,'Ввод в работу ВЛ-110 кВ Светлая.','Объект 66'</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -8699,7 +8699,7 @@
       </c>
       <c r="E68" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '2-47',2,'Вывод в ремонт ВЛ-110 кВ Ивановка.','Объект 67'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-47',2,'Вывод в ремонт ВЛ-110 кВ Ивановка.','Объект 67'</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -8717,7 +8717,7 @@
       </c>
       <c r="E69" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '2-48',2,'Ввод в работу ВЛ-110 кВ Ивановка.','Объект 68'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-48',2,'Ввод в работу ВЛ-110 кВ Ивановка.','Объект 68'</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -8735,7 +8735,7 @@
       </c>
       <c r="E70" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '2-49',2,'Вывод в ремонт ВЛ-110 кВ Водозабор-1.','Объект 69'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-49',2,'Вывод в ремонт ВЛ-110 кВ Водозабор-1.','Объект 69'</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -8753,7 +8753,7 @@
       </c>
       <c r="E71" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '2-50',2,'Ввод в работу ВЛ-110 кВ Водозабор-1.','Объект 70'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-50',2,'Ввод в работу ВЛ-110 кВ Водозабор-1.','Объект 70'</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -8771,7 +8771,7 @@
       </c>
       <c r="E72" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '2-51',2,'Вывод в ремонт ВЛ-110 кВ Водозабор-2.','Объект 71'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-51',2,'Вывод в ремонт ВЛ-110 кВ Водозабор-2.','Объект 71'</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -8789,7 +8789,7 @@
       </c>
       <c r="E73" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '2-52',2,'Ввод в работу ВЛ-110 кВ Водозабор-2.','Объект 72'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-52',2,'Ввод в работу ВЛ-110 кВ Водозабор-2.','Объект 72'</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -8807,7 +8807,7 @@
       </c>
       <c r="E74" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '2-53',2,'Вывод в ремонт ВЛ-110 кВ Каучук.','Объект 73'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-53',2,'Вывод в ремонт ВЛ-110 кВ Каучук.','Объект 73'</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -8825,7 +8825,7 @@
       </c>
       <c r="E75" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '2-54',2,'Ввод в работу ВЛ-110 кВ Каучук.','Объект 74'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-54',2,'Ввод в работу ВЛ-110 кВ Каучук.','Объект 74'</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -8843,7 +8843,7 @@
       </c>
       <c r="E76" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '2-55',2,'Вывод в ремонт ВЛ-110 кВ ЧаТЭЦ.','Объект 75'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-55',2,'Вывод в ремонт ВЛ-110 кВ ЧаТЭЦ.','Объект 75'</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -8861,7 +8861,7 @@
       </c>
       <c r="E77" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '2-56',2,'Ввод в работу ВЛ-110 кВ ЧаТЭЦ.','Объект 76'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-56',2,'Ввод в работу ВЛ-110 кВ ЧаТЭЦ.','Объект 76'</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -8879,7 +8879,7 @@
       </c>
       <c r="E78" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '2-57',2,'Вывод в ремонт ВЛ-110 кВ КШТ-1.','Объект 77'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-57',2,'Вывод в ремонт ВЛ-110 кВ КШТ-1.','Объект 77'</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -8897,7 +8897,7 @@
       </c>
       <c r="E79" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '2-58',2,'Ввод в работу ВЛ-110 кВ КШТ-1.','Объект 78'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-58',2,'Ввод в работу ВЛ-110 кВ КШТ-1.','Объект 78'</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -8915,7 +8915,7 @@
       </c>
       <c r="E80" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '2-59',2,'Вывод в ремонт ВЛ-110 кВ КШТ-2.','Объект 79'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-59',2,'Вывод в ремонт ВЛ-110 кВ КШТ-2.','Объект 79'</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -8933,7 +8933,7 @@
       </c>
       <c r="E81" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '2-60',2,'Ввод в работу ВЛ-110 кВ КШТ-2.','Объект 80'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-60',2,'Ввод в работу ВЛ-110 кВ КШТ-2.','Объект 80'</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -8951,7 +8951,7 @@
       </c>
       <c r="E82" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '2-61',2,'Вывод в ремонт ВЛ-110 кВ Берёзовка.','Объект 81'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-61',2,'Вывод в ремонт ВЛ-110 кВ Берёзовка.','Объект 81'</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -8969,7 +8969,7 @@
       </c>
       <c r="E83" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '2-62',2,'Ввод в работу ВЛ-110 кВ Берёзовка.','Объект 82'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-62',2,'Ввод в работу ВЛ-110 кВ Берёзовка.','Объект 82'</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -8987,7 +8987,7 @@
       </c>
       <c r="E84" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '2-63',2,'Вывод в ремонт ВЛ-110 кВ Дубовая.','Объект 83'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-63',2,'Вывод в ремонт ВЛ-110 кВ Дубовая.','Объект 83'</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -9005,7 +9005,7 @@
       </c>
       <c r="E85" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '2-64',2,'Ввод в работу ВЛ-110 кВ Дубовая.','Объект 84'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-64',2,'Ввод в работу ВЛ-110 кВ Дубовая.','Объект 84'</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -9023,7 +9023,7 @@
       </c>
       <c r="E86" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '2-65',2,'Вывод в ремонт В 110кВ Водозабор-1(ДФЗ в ремонте)','Объект 85'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-65',2,'Вывод в ремонт В 110кВ Водозабор-1(ДФЗ в ремонте)','Объект 85'</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -9041,7 +9041,7 @@
       </c>
       <c r="E87" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '2-66',2,'Ввод в работу В 110кВ Водозабор-1(ДФЗ в ремонте)','Объект 86'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-66',2,'Ввод в работу В 110кВ Водозабор-1(ДФЗ в ремонте)','Объект 86'</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -9059,7 +9059,7 @@
       </c>
       <c r="E88" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '2-67',2,'Вывод в ремонт В 110кВ Водозабор-2(ДФЗ в ремонте)','Объект 87'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-67',2,'Вывод в ремонт В 110кВ Водозабор-2(ДФЗ в ремонте)','Объект 87'</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -9077,7 +9077,7 @@
       </c>
       <c r="E89" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '2-68',2,'Ввод в работу В 110кВ Водозабор-2(ДФЗ в ремонте)','Объект 88'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-68',2,'Ввод в работу В 110кВ Водозабор-2(ДФЗ в ремонте)','Объект 88'</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -9095,7 +9095,7 @@
       </c>
       <c r="E90" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '2-69',2,'Вывод в ремонт В 110кВ Каучук(ДФЗ в ремонте)','Объект 89'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-69',2,'Вывод в ремонт В 110кВ Каучук(ДФЗ в ремонте)','Объект 89'</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -9113,7 +9113,7 @@
       </c>
       <c r="E91" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '2-70',2,'Ввод в работу В 110кВ Каучук(ДФЗ в ремонте)','Объект 90'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-70',2,'Ввод в работу В 110кВ Каучук(ДФЗ в ремонте)','Объект 90'</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -9131,7 +9131,7 @@
       </c>
       <c r="E92" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '2-71',2,'Вывод в ремонт В 110кВ ЧаТЭЦ(ДФЗ в ремонте)','Объект 91'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-71',2,'Вывод в ремонт В 110кВ ЧаТЭЦ(ДФЗ в ремонте)','Объект 91'</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -9149,7 +9149,7 @@
       </c>
       <c r="E93" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '2-72',2,'Ввод в работу В 110кВ ЧаТЭЦ(ДФЗ в ремонте)','Объект 92'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-72',2,'Ввод в работу В 110кВ ЧаТЭЦ(ДФЗ в ремонте)','Объект 92'</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -9167,7 +9167,7 @@
       </c>
       <c r="E94" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '2-73',2,'Вывод в ремонт В 110кВ Березовка(ДФЗ в ремонте)','Объект 93'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-73',2,'Вывод в ремонт В 110кВ Березовка(ДФЗ в ремонте)','Объект 93'</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -9185,7 +9185,7 @@
       </c>
       <c r="E95" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '2-74',2,'Ввод в работу В 110кВ Березовка(ДФЗ в ремонте)','Объект 94'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-74',2,'Ввод в работу В 110кВ Березовка(ДФЗ в ремонте)','Объект 94'</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -9203,7 +9203,7 @@
       </c>
       <c r="E96" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '2-75',2,'Вывод в ремонт В 110кВ Дубовая(ДФЗ в ремонте)','Объект 95'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-75',2,'Вывод в ремонт В 110кВ Дубовая(ДФЗ в ремонте)','Объект 95'</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -9221,7 +9221,7 @@
       </c>
       <c r="E97" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '2-76',2,' Ввод в работу В 110кВ Дубовая(ДФЗ в ремонте)','Объект 96'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-76',2,' Ввод в работу В 110кВ Дубовая(ДФЗ в ремонте)','Объект 96'</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -9239,7 +9239,7 @@
       </c>
       <c r="E98" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '3-01',3,'Вывод в ремонт 1СШ-220 кВ с переводом всех присоединений на 2СШ-220 кВ.','Объект 97'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-01',3,'Вывод в ремонт 1СШ-220 кВ с переводом всех присоединений на 2СШ-220 кВ.','Объект 97'</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -9257,7 +9257,7 @@
       </c>
       <c r="E99" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '3-02',3,'Ввод в работу 1СШ-220 кВ. Вариант 1. Опробование от ВЛ-220 кВ Каучук-1','Объект 98'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-02',3,'Ввод в работу 1СШ-220 кВ. Вариант 1. Опробование от ВЛ-220 кВ Каучук-1','Объект 98'</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -9275,7 +9275,7 @@
       </c>
       <c r="E100" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '3-03',3,'Ввод в работу 1СШ-220 кВ. Вариант 2. Опробование от ШСВ-220 кВ','Объект 99'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-03',3,'Ввод в работу 1СШ-220 кВ. Вариант 2. Опробование от ШСВ-220 кВ','Объект 99'</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -9293,7 +9293,7 @@
       </c>
       <c r="E101" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '3-04',3,'Вывод в ремонт 2СШ-220 кВ с переводом всех присоединений на 1СШ-220 кВ.','Объект 100'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-04',3,'Вывод в ремонт 2СШ-220 кВ с переводом всех присоединений на 1СШ-220 кВ.','Объект 100'</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -9311,7 +9311,7 @@
       </c>
       <c r="E102" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '3-05',3,'Ввод в работу 2СШ-220 кВ. Вариант 1. Опробование от ВЛ-220 кВ Каучук-2','Объект 101'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-05',3,'Ввод в работу 2СШ-220 кВ. Вариант 1. Опробование от ВЛ-220 кВ Каучук-2','Объект 101'</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -9329,7 +9329,7 @@
       </c>
       <c r="E103" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '3-06',3,'Ввод в работу 2СШ-220 кВ. Вариант 2. Опробование от ШСВ-220 кВ','Объект 102'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-06',3,'Ввод в работу 2СШ-220 кВ. Вариант 2. Опробование от ШСВ-220 кВ','Объект 102'</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -9347,7 +9347,7 @@
       </c>
       <c r="E104" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '3-07',3,'Вывод в ремонт ОСШ-220кВ','Объект 103'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-07',3,'Вывод в ремонт ОСШ-220кВ','Объект 103'</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -9365,7 +9365,7 @@
       </c>
       <c r="E105" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '3-08',3,'Ввод в резерв ОСШ-220кВ','Объект 104'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-08',3,'Ввод в резерв ОСШ-220кВ','Объект 104'</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -9383,7 +9383,7 @@
       </c>
       <c r="E106" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '3-09',3,'Вывод в ремонт ТН 1СШ-220 кВ на время более 2 часов','Объект 105'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-09',3,'Вывод в ремонт ТН 1СШ-220 кВ на время более 2 часов','Объект 105'</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -9401,7 +9401,7 @@
       </c>
       <c r="E107" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '3-10',3,'Ввод в работу ТН 1СШ-220 кВ. (ТН 1СШ-220 кВ в ремонте более 2 часов)','Объект 106'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-10',3,'Ввод в работу ТН 1СШ-220 кВ. (ТН 1СШ-220 кВ в ремонте более 2 часов)','Объект 106'</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -9419,7 +9419,7 @@
       </c>
       <c r="E108" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '3-11',3,'Вывод в ремонт ТН 1СШ-220 кВ на время до 2 часов','Объект 107'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-11',3,'Вывод в ремонт ТН 1СШ-220 кВ на время до 2 часов','Объект 107'</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -9437,7 +9437,7 @@
       </c>
       <c r="E109" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '3-12',3,'Ввод в работу ТН 1СШ-220 кВ. (ТН 1СШ-220 кВ в ремонте до 2 часов)','Объект 108'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-12',3,'Ввод в работу ТН 1СШ-220 кВ. (ТН 1СШ-220 кВ в ремонте до 2 часов)','Объект 108'</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -9455,7 +9455,7 @@
       </c>
       <c r="E110" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '3-13',3,'Вывод в ремонт ТН 2СШ-220 кВ на время более 2 часов','Объект 109'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-13',3,'Вывод в ремонт ТН 2СШ-220 кВ на время более 2 часов','Объект 109'</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -9473,7 +9473,7 @@
       </c>
       <c r="E111" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '3-14',3,'Ввод в работу ТН 2СШ-220 кВ. (ТН 2СШ-220 кВ в ремонте более 2 часов)','Объект 110'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-14',3,'Ввод в работу ТН 2СШ-220 кВ. (ТН 2СШ-220 кВ в ремонте более 2 часов)','Объект 110'</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -9491,7 +9491,7 @@
       </c>
       <c r="E112" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '3-15',3,'Вывод в ремонт ТН 2СШ-220 кВ на время до 2 часов','Объект 111'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-15',3,'Вывод в ремонт ТН 2СШ-220 кВ на время до 2 часов','Объект 111'</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -9509,7 +9509,7 @@
       </c>
       <c r="E113" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '3-16',3,'Ввод в работу ТН 2СШ-220 кВ. (ТН 2СШ-220 кВ в ремонте до 2 часов)','Объект 112'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-16',3,'Ввод в работу ТН 2СШ-220 кВ. (ТН 2СШ-220 кВ в ремонте до 2 часов)','Объект 112'</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -9527,7 +9527,7 @@
       </c>
       <c r="E114" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '3-17',3,'Вывод в ремонт ШСВ-220 кВ','Объект 113'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-17',3,'Вывод в ремонт ШСВ-220 кВ','Объект 113'</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -9545,7 +9545,7 @@
       </c>
       <c r="E115" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '3-18',3,'Ввод в работу ШСВ-220 кВ','Объект 114'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-18',3,'Ввод в работу ШСВ-220 кВ','Объект 114'</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -9563,7 +9563,7 @@
       </c>
       <c r="E116" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '3-19',3,'Вывод в ремонт ОВ-220 кВ','Объект 115'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-19',3,'Вывод в ремонт ОВ-220 кВ','Объект 115'</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -9581,7 +9581,7 @@
       </c>
       <c r="E117" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '3-20',3,'Ввод в резерв ОВ-220 кВ','Объект 116'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-20',3,'Ввод в резерв ОВ-220 кВ','Объект 116'</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -9599,7 +9599,7 @@
       </c>
       <c r="E118" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '3-21',3,'Вывод в ремонт В-220 кВ Ижевск 1','Объект 117'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-21',3,'Вывод в ремонт В-220 кВ Ижевск 1','Объект 117'</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -9617,7 +9617,7 @@
       </c>
       <c r="E119" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '3-22',3,'Ввод в работу В-220 кВ Ижевск 1','Объект 118'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-22',3,'Ввод в работу В-220 кВ Ижевск 1','Объект 118'</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -9635,7 +9635,7 @@
       </c>
       <c r="E120" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '3-23',3,'Вывод в ремонт В-220 кВ Ижевск 2','Объект 119'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-23',3,'Вывод в ремонт В-220 кВ Ижевск 2','Объект 119'</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -9653,7 +9653,7 @@
       </c>
       <c r="E121" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '3-24',3,'Ввод в работу В-220 кВ Ижевск 2','Объект 120'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-24',3,'Ввод в работу В-220 кВ Ижевск 2','Объект 120'</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -9671,7 +9671,7 @@
       </c>
       <c r="E122" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '3-25',3,'Вывод в ремонт В-220 кВ Каучук-1','Объект 121'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-25',3,'Вывод в ремонт В-220 кВ Каучук-1','Объект 121'</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -9689,7 +9689,7 @@
       </c>
       <c r="E123" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '3-26',3,'Ввод в работу В-220 кВ Каучук-1','Объект 122'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-26',3,'Ввод в работу В-220 кВ Каучук-1','Объект 122'</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -9707,7 +9707,7 @@
       </c>
       <c r="E124" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '3-27',3,'Вывод в ремонт В-220 кВ Каучук-2','Объект 123'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-27',3,'Вывод в ремонт В-220 кВ Каучук-2','Объект 123'</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -9725,7 +9725,7 @@
       </c>
       <c r="E125" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '3-28',3,'Ввод в работу В-220 кВ Каучук-2','Объект 124'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-28',3,'Ввод в работу В-220 кВ Каучук-2','Объект 124'</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -9743,7 +9743,7 @@
       </c>
       <c r="E126" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '3-29',3,'Вывод в ремонт В-220 кВ Светлая','Объект 125'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-29',3,'Вывод в ремонт В-220 кВ Светлая','Объект 125'</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -9761,7 +9761,7 @@
       </c>
       <c r="E127" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '3-30',3,'Ввод в работу В-220 кВ Светлая','Объект 126'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-30',3,'Ввод в работу В-220 кВ Светлая','Объект 126'</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
@@ -9779,7 +9779,7 @@
       </c>
       <c r="E128" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '3-31',3,'Вывод в ремонт В-220 кВ 2АТГ','Объект 127'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-31',3,'Вывод в ремонт В-220 кВ 2АТГ','Объект 127'</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -9797,7 +9797,7 @@
       </c>
       <c r="E129" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '3-32',3,'Ввод в работу В-220 кВ 2АТГ','Объект 128'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-32',3,'Ввод в работу В-220 кВ 2АТГ','Объект 128'</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -9814,8 +9814,8 @@
         <v>1124</v>
       </c>
       <c r="E130" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '3-33',3,'Вывод в ремонт В-220 кВ 3АТГ','Объект 129'</v>
+        <f t="shared" ref="E130:E193" si="2">CONCATENATE("INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '",A130,"',",B130,",'",C130,"','",D130,"'")</f>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-33',3,'Вывод в ремонт В-220 кВ 3АТГ','Объект 129'</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -9832,8 +9832,8 @@
         <v>1125</v>
       </c>
       <c r="E131" s="1" t="str">
-        <f t="shared" ref="E131:E194" si="2">CONCATENATE("INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '",A131,"',",B131,",'",C131,"','",D131,"'")</f>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '3-34',3,'Ввод в работу В-220 кВ 3АТГ','Объект 130'</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-34',3,'Ввод в работу В-220 кВ 3АТГ','Объект 130'</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -9851,7 +9851,7 @@
       </c>
       <c r="E132" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '3-35',3,'Вывод в ремонт В-220 кВ 4Т','Объект 131'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-35',3,'Вывод в ремонт В-220 кВ 4Т','Объект 131'</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -9869,7 +9869,7 @@
       </c>
       <c r="E133" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '3-36',3,'Ввод в работу В-220 кВ 4Т','Объект 132'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-36',3,'Ввод в работу В-220 кВ 4Т','Объект 132'</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -9887,7 +9887,7 @@
       </c>
       <c r="E134" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '3-37',3,'Вывод в ремонт В-220 кВ 5,6 АТ','Объект 133'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-37',3,'Вывод в ремонт В-220 кВ 5,6 АТ','Объект 133'</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -9905,7 +9905,7 @@
       </c>
       <c r="E135" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '3-38',3,'Ввод в работу В-220 кВ 5,6 АТ','Объект 134'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-38',3,'Ввод в работу В-220 кВ 5,6 АТ','Объект 134'</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
@@ -9923,7 +9923,7 @@
       </c>
       <c r="E136" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '3-39',3,'Вывод в ремонт ВЛ-220 кВ Ижевск 1','Объект 135'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-39',3,'Вывод в ремонт ВЛ-220 кВ Ижевск 1','Объект 135'</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -9941,7 +9941,7 @@
       </c>
       <c r="E137" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '3-40',3,'Ввод в работу ВЛ-220 кВ Ижевск 1','Объект 136'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-40',3,'Ввод в работу ВЛ-220 кВ Ижевск 1','Объект 136'</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -9959,7 +9959,7 @@
       </c>
       <c r="E138" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '3-41',3,'Вывод в ремонт ВЛ-220 кВ Ижевск 2','Объект 137'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-41',3,'Вывод в ремонт ВЛ-220 кВ Ижевск 2','Объект 137'</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
@@ -9977,7 +9977,7 @@
       </c>
       <c r="E139" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '3-42',3,'Ввод в работу ВЛ-220 кВ Ижжевск 2','Объект 138'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-42',3,'Ввод в работу ВЛ-220 кВ Ижжевск 2','Объект 138'</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
@@ -9995,7 +9995,7 @@
       </c>
       <c r="E140" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '3-43',3,'Вывод в ремонт ВЛ-220 кВ Каучук-1','Объект 139'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-43',3,'Вывод в ремонт ВЛ-220 кВ Каучук-1','Объект 139'</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
@@ -10013,7 +10013,7 @@
       </c>
       <c r="E141" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '3-44',3,'Ввод в работу ВЛ-220 кВ Каучук-1','Объект 140'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-44',3,'Ввод в работу ВЛ-220 кВ Каучук-1','Объект 140'</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -10031,7 +10031,7 @@
       </c>
       <c r="E142" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '3-45',3,'Вывод в ремонт ВЛ-220 кВ Каучук-2','Объект 141'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-45',3,'Вывод в ремонт ВЛ-220 кВ Каучук-2','Объект 141'</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -10049,7 +10049,7 @@
       </c>
       <c r="E143" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '3-46',3,'Ввод в работу ВЛ-220 кВ Каучук-2','Объект 142'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-46',3,'Ввод в работу ВЛ-220 кВ Каучук-2','Объект 142'</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
@@ -10067,7 +10067,7 @@
       </c>
       <c r="E144" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '3-47',3,'Вывод в ремонт ВЛ-220 кВ Светлая','Объект 143'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-47',3,'Вывод в ремонт ВЛ-220 кВ Светлая','Объект 143'</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -10085,7 +10085,7 @@
       </c>
       <c r="E145" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '3-48',3,'Ввод в работу ВЛ-220 кВ Светлая','Объект 144'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-48',3,'Ввод в работу ВЛ-220 кВ Светлая','Объект 144'</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
@@ -10103,7 +10103,7 @@
       </c>
       <c r="E146" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '3-49',3,'Вывод В-220 кВ Ижевск 1(ДФЗ в ремонте)','Объект 145'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-49',3,'Вывод В-220 кВ Ижевск 1(ДФЗ в ремонте)','Объект 145'</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -10121,7 +10121,7 @@
       </c>
       <c r="E147" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '3-50',3,'Ввод В-220 кВ Ижевск 1(ДФЗ в ремонте)','Объект 146'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-50',3,'Ввод В-220 кВ Ижевск 1(ДФЗ в ремонте)','Объект 146'</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
@@ -10139,7 +10139,7 @@
       </c>
       <c r="E148" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '3-51',3,' Вывод В-220 кВ Ижевск 2(ДФЗ в ремонте)','Объект 147'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-51',3,' Вывод В-220 кВ Ижевск 2(ДФЗ в ремонте)','Объект 147'</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -10157,7 +10157,7 @@
       </c>
       <c r="E149" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '3-52',3,' Ввод В-220 кВ Ижевск 2(ДФЗ в ремонте)','Объект 148'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-52',3,' Ввод В-220 кВ Ижевск 2(ДФЗ в ремонте)','Объект 148'</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
@@ -10175,7 +10175,7 @@
       </c>
       <c r="E150" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '3-53',3,'Вывод  В 220 Каучук-1(ДФЗ в ремонте)','Объект 149'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-53',3,'Вывод  В 220 Каучук-1(ДФЗ в ремонте)','Объект 149'</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
@@ -10193,7 +10193,7 @@
       </c>
       <c r="E151" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '3-54',3,'Ввод В-220 кВ Каучук 1(ДФЗ в ремонте)','Объект 150'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-54',3,'Ввод В-220 кВ Каучук 1(ДФЗ в ремонте)','Объект 150'</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
@@ -10211,7 +10211,7 @@
       </c>
       <c r="E152" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '3-55',3,'Вывод В-220 кВ Каучук 2(ДФЗ в ремонте)','Объект 151'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-55',3,'Вывод В-220 кВ Каучук 2(ДФЗ в ремонте)','Объект 151'</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
@@ -10229,7 +10229,7 @@
       </c>
       <c r="E153" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '3-56',3,'Ввод В-220 кВ Каучук 2(ДФЗ в ремонте)','Объект 152'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-56',3,'Ввод В-220 кВ Каучук 2(ДФЗ в ремонте)','Объект 152'</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -10247,7 +10247,7 @@
       </c>
       <c r="E154" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '3-57',3,'Вывод В-220 кВ Светлая(ДФЗ в ремонте)','Объект 153'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-57',3,'Вывод В-220 кВ Светлая(ДФЗ в ремонте)','Объект 153'</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
@@ -10265,7 +10265,7 @@
       </c>
       <c r="E155" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '3-58',3,'Ввод В-220 кВ Светлая(ДФЗ в ремонте)','Объект 154'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-58',3,'Ввод В-220 кВ Светлая(ДФЗ в ремонте)','Объект 154'</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
@@ -10283,7 +10283,7 @@
       </c>
       <c r="E156" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '4-01',4,'Вывод в ремонт ВЛ-500 кВ Воткинская ГЭС-Емелино','Объект 155'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '4-01',4,'Вывод в ремонт ВЛ-500 кВ Воткинская ГЭС-Емелино','Объект 155'</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
@@ -10301,7 +10301,7 @@
       </c>
       <c r="E157" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '4-02',4,'Ввод в работу ВЛ-500 кВ Воткинская ГЭС-Емелино','Объект 156'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '4-02',4,'Ввод в работу ВЛ-500 кВ Воткинская ГЭС-Емелино','Объект 156'</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
@@ -10319,7 +10319,7 @@
       </c>
       <c r="E158" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '4-03',4,'Вывод в ремонт ВЛ-500 кВ Воткинская ГЭС-Кармановская ГРЭС','Объект 157'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '4-03',4,'Вывод в ремонт ВЛ-500 кВ Воткинская ГЭС-Кармановская ГРЭС','Объект 157'</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
@@ -10337,7 +10337,7 @@
       </c>
       <c r="E159" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '4-04',4,'Ввод в работу ВЛ-500 кВ Воткинская ГЭС-Кармановская ГРЭС','Объект 158'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '4-04',4,'Ввод в работу ВЛ-500 кВ Воткинская ГЭС-Кармановская ГРЭС','Объект 158'</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
@@ -10355,7 +10355,7 @@
       </c>
       <c r="E160" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '4-05',4,'Вывод в ремонт ВЛ-500 кВ Воткинская ГЭС-Вятка','Объект 159'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '4-05',4,'Вывод в ремонт ВЛ-500 кВ Воткинская ГЭС-Вятка','Объект 159'</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
@@ -10373,7 +10373,7 @@
       </c>
       <c r="E161" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '4-06',4,'Ввод в работу ВЛ-500 кВ Воткинская ГЭС-Вятка','Объект 160'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '4-06',4,'Ввод в работу ВЛ-500 кВ Воткинская ГЭС-Вятка','Объект 160'</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
@@ -10391,7 +10391,7 @@
       </c>
       <c r="E162" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '4-07',4,'Вывод в ремонт В-1-500 кВ Емелино','Объект 161'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '4-07',4,'Вывод в ремонт В-1-500 кВ Емелино','Объект 161'</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
@@ -10409,7 +10409,7 @@
       </c>
       <c r="E163" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '4-08',4,'Ввод в работу В-1-500 кВ Емелино','Объект 162'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '4-08',4,'Ввод в работу В-1-500 кВ Емелино','Объект 162'</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
@@ -10427,7 +10427,7 @@
       </c>
       <c r="E164" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '4-09',4,'Вывод в ремонт В-2-500 кВ Емелино','Объект 163'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '4-09',4,'Вывод в ремонт В-2-500 кВ Емелино','Объект 163'</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
@@ -10445,7 +10445,7 @@
       </c>
       <c r="E165" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '4-10',4,'Ввод в работу В-2-500 кВ Емелино','Объект 164'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '4-10',4,'Ввод в работу В-2-500 кВ Емелино','Объект 164'</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
@@ -10463,7 +10463,7 @@
       </c>
       <c r="E166" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '4-11',4,'Вывод в ремонт В-1-500 кВ Карманово','Объект 165'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '4-11',4,'Вывод в ремонт В-1-500 кВ Карманово','Объект 165'</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
@@ -10481,7 +10481,7 @@
       </c>
       <c r="E167" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '4-12',4,'Ввод в работу В-1-500 кВ Карманово','Объект 166'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '4-12',4,'Ввод в работу В-1-500 кВ Карманово','Объект 166'</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
@@ -10499,7 +10499,7 @@
       </c>
       <c r="E168" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '4-13',4,'Вывод в ремонт В-2-500 кВ Карманово','Объект 167'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '4-13',4,'Вывод в ремонт В-2-500 кВ Карманово','Объект 167'</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
@@ -10517,7 +10517,7 @@
       </c>
       <c r="E169" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '4-14',4,'Ввод в работу В-2-500 кВ Карманово','Объект 168'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '4-14',4,'Ввод в работу В-2-500 кВ Карманово','Объект 168'</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
@@ -10535,7 +10535,7 @@
       </c>
       <c r="E170" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '4-15',4,'Вывод в ремонт В-1-500 кВ Вятка','Объект 169'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '4-15',4,'Вывод в ремонт В-1-500 кВ Вятка','Объект 169'</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
@@ -10553,7 +10553,7 @@
       </c>
       <c r="E171" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '4-16',4,'Ввод в работу В-1-500 кВ Вятка','Объект 170'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '4-16',4,'Ввод в работу В-1-500 кВ Вятка','Объект 170'</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
@@ -10571,7 +10571,7 @@
       </c>
       <c r="E172" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '4-17',4,'Вывод в ремонт В-2-500 кВ Вятка','Объект 171'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '4-17',4,'Вывод в ремонт В-2-500 кВ Вятка','Объект 171'</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
@@ -10589,7 +10589,7 @@
       </c>
       <c r="E173" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '4-18',4,'Ввод в работу В-2-500 кВ Вятка','Объект 172'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '4-18',4,'Ввод в работу В-2-500 кВ Вятка','Объект 172'</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
@@ -10607,7 +10607,7 @@
       </c>
       <c r="E174" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '4-19',4,'Вывод в ремонт 1СШ-500 кВ','Объект 173'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '4-19',4,'Вывод в ремонт 1СШ-500 кВ','Объект 173'</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
@@ -10625,7 +10625,7 @@
       </c>
       <c r="E175" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '4-20',4,'Ввод в работу 1СШ-500 кВ. Вариант №1. Опробование 1СШ-500 кВ от В-220 кВ 2АТГ','Объект 174'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '4-20',4,'Ввод в работу 1СШ-500 кВ. Вариант №1. Опробование 1СШ-500 кВ от В-220 кВ 2АТГ','Объект 174'</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
@@ -10643,7 +10643,7 @@
       </c>
       <c r="E176" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '4-21',4,'Ввод в работу 1СШ-500 кВ. Вариант №2. Опробование 1СШ-500 кВ от 1В-500 кВ Емелино','Объект 175'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '4-21',4,'Ввод в работу 1СШ-500 кВ. Вариант №2. Опробование 1СШ-500 кВ от 1В-500 кВ Емелино','Объект 175'</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
@@ -10661,7 +10661,7 @@
       </c>
       <c r="E177" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '4-22',4,'Вывод в ремонт 2СШ-500 кВ','Объект 176'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '4-22',4,'Вывод в ремонт 2СШ-500 кВ','Объект 176'</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
@@ -10679,7 +10679,7 @@
       </c>
       <c r="E178" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '4-23',4,'Ввод в работу 2СШ-500 кВ. Вариант №1. Опробование 2СШ-500 кВ от В-220 кВ 3АТГ','Объект 177'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '4-23',4,'Ввод в работу 2СШ-500 кВ. Вариант №1. Опробование 2СШ-500 кВ от В-220 кВ 3АТГ','Объект 177'</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
@@ -10697,7 +10697,7 @@
       </c>
       <c r="E179" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '4-24',4,'Ввод в работу 2СШ-500 кВ. Вариант №2. Опробование 2СШ-500 кВ от 2В-500 кВ Емелино','Объект 178'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '4-24',4,'Ввод в работу 2СШ-500 кВ. Вариант №2. Опробование 2СШ-500 кВ от 2В-500 кВ Емелино','Объект 178'</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
@@ -10715,7 +10715,7 @@
       </c>
       <c r="E180" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '4-25',4,'Вывод в ремонт Р 500 кВ Емелино','Объект 179'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '4-25',4,'Вывод в ремонт Р 500 кВ Емелино','Объект 179'</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
@@ -10733,7 +10733,7 @@
       </c>
       <c r="E181" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '4-26',4,'Ввод в работу Р 500 кВ Емелино','Объект 180'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '4-26',4,'Ввод в работу Р 500 кВ Емелино','Объект 180'</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
@@ -10751,7 +10751,7 @@
       </c>
       <c r="E182" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '4-27',4,'Вывод в ремонт Р 500 кВ Вятка','Объект 181'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '4-27',4,'Вывод в ремонт Р 500 кВ Вятка','Объект 181'</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
@@ -10769,7 +10769,7 @@
       </c>
       <c r="E183" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '4-28',4,'Ввод в работу Р 500 кВ Вятка','Объект 182'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '4-28',4,'Ввод в работу Р 500 кВ Вятка','Объект 182'</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
@@ -10787,7 +10787,7 @@
       </c>
       <c r="E184" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '4-29',4,'Вывод в ремонт ТН-1-500','Объект 183'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '4-29',4,'Вывод в ремонт ТН-1-500','Объект 183'</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
@@ -10805,7 +10805,7 @@
       </c>
       <c r="E185" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '4-30',4,'Ввод в работу ТН-1-500','Объект 184'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '4-30',4,'Ввод в работу ТН-1-500','Объект 184'</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
@@ -10823,7 +10823,7 @@
       </c>
       <c r="E186" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '4-31',4,'Вывод в ремонт ТН-2-500','Объект 185'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '4-31',4,'Вывод в ремонт ТН-2-500','Объект 185'</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
@@ -10841,7 +10841,7 @@
       </c>
       <c r="E187" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '4-32',4,'Ввод в работу ТН-2-500','Объект 186'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '4-32',4,'Ввод в работу ТН-2-500','Объект 186'</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
@@ -10859,7 +10859,7 @@
       </c>
       <c r="E188" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '5-01',5,'Вывод в ремонт трансформатора 1Т.','Объект 187'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-01',5,'Вывод в ремонт трансформатора 1Т.','Объект 187'</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
@@ -10877,7 +10877,7 @@
       </c>
       <c r="E189" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '5-02',5,'Ввод в работу трансформатора 1Т.','Объект 188'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-02',5,'Ввод в работу трансформатора 1Т.','Объект 188'</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
@@ -10895,7 +10895,7 @@
       </c>
       <c r="E190" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '5-03',5,'Вывод в ремонт автотрансформатора 2АТГ','Объект 189'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-03',5,'Вывод в ремонт автотрансформатора 2АТГ','Объект 189'</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
@@ -10913,7 +10913,7 @@
       </c>
       <c r="E191" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '5-04',5,'Ввод в работу автотрансформатора 2АТГ','Объект 190'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-04',5,'Ввод в работу автотрансформатора 2АТГ','Объект 190'</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
@@ -10931,7 +10931,7 @@
       </c>
       <c r="E192" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '5-05',5,'Вывод в ремонт автотрансформатора 3АТГ','Объект 191'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-05',5,'Вывод в ремонт автотрансформатора 3АТГ','Объект 191'</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
@@ -10949,7 +10949,7 @@
       </c>
       <c r="E193" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '5-06',5,'Ввод в работу автотрансформатора 3АТГ','Объект 192'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-06',5,'Ввод в работу автотрансформатора 3АТГ','Объект 192'</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
@@ -10966,8 +10966,8 @@
         <v>1188</v>
       </c>
       <c r="E194" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '5-07',5,'Вывод в ремонт трансформатора 4Т','Объект 193'</v>
+        <f t="shared" ref="E194:E257" si="3">CONCATENATE("INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '",A194,"',",B194,",'",C194,"','",D194,"'")</f>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-07',5,'Вывод в ремонт трансформатора 4Т','Объект 193'</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
@@ -10984,8 +10984,8 @@
         <v>1189</v>
       </c>
       <c r="E195" s="1" t="str">
-        <f t="shared" ref="E195:E258" si="3">CONCATENATE("INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '",A195,"',",B195,",'",C195,"','",D195,"'")</f>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '5-08',5,'Ввод в работу трансформатора 4Т','Объект 194'</v>
+        <f t="shared" si="3"/>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-08',5,'Ввод в работу трансформатора 4Т','Объект 194'</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
@@ -11003,7 +11003,7 @@
       </c>
       <c r="E196" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '5-09',5,'Вывод в ремонт автотрансформаторов 5,6АТ','Объект 195'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-09',5,'Вывод в ремонт автотрансформаторов 5,6АТ','Объект 195'</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
@@ -11021,7 +11021,7 @@
       </c>
       <c r="E197" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '5-10',5,'Ввод в работу автотрансформаторов 5,6АТ','Объект 196'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-10',5,'Ввод в работу автотрансформаторов 5,6АТ','Объект 196'</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
@@ -11039,7 +11039,7 @@
       </c>
       <c r="E198" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '5-11',5,'Вывод в ремонт автотрансформатора 5АТ','Объект 197'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-11',5,'Вывод в ремонт автотрансформатора 5АТ','Объект 197'</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
@@ -11057,7 +11057,7 @@
       </c>
       <c r="E199" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '5-12',5,'Ввод в работу автотрансформатора 5АТ','Объект 198'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-12',5,'Ввод в работу автотрансформатора 5АТ','Объект 198'</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
@@ -11075,7 +11075,7 @@
       </c>
       <c r="E200" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '5-13',5,'Вывод в ремонт автотрансформатора 6АТ','Объект 199'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-13',5,'Вывод в ремонт автотрансформатора 6АТ','Объект 199'</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
@@ -11093,7 +11093,7 @@
       </c>
       <c r="E201" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '5-14',5,'Ввод в работу автотрансформатора 6АТ','Объект 200'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-14',5,'Ввод в работу автотрансформатора 6АТ','Объект 200'</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
@@ -11111,7 +11111,7 @@
       </c>
       <c r="E202" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '5-15',5,'Вывод в ремонт трнасформатора 7Т','Объект 201'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-15',5,'Вывод в ремонт трнасформатора 7Т','Объект 201'</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
@@ -11129,7 +11129,7 @@
       </c>
       <c r="E203" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '5-16',5,'Ввод в работу трнасформатора 7Т','Объект 202'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-16',5,'Ввод в работу трнасформатора 7Т','Объект 202'</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
@@ -11147,7 +11147,7 @@
       </c>
       <c r="E204" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '5-17',5,'Вывод в ремонт трнасформатора 8Т','Объект 203'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-17',5,'Вывод в ремонт трнасформатора 8Т','Объект 203'</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
@@ -11165,7 +11165,7 @@
       </c>
       <c r="E205" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '5-18',5,'Ввод в работу трнасформатора 8Т','Объект 204'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-18',5,'Ввод в работу трнасформатора 8Т','Объект 204'</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
@@ -11183,7 +11183,7 @@
       </c>
       <c r="E206" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '5-19',5,'Вывод в ремонт трнасформатора 9Т','Объект 205'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-19',5,'Вывод в ремонт трнасформатора 9Т','Объект 205'</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
@@ -11201,7 +11201,7 @@
       </c>
       <c r="E207" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '5-20',5,'Ввод в работу трнасформатора 9Т','Объект 206'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-20',5,'Ввод в работу трнасформатора 9Т','Объект 206'</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
@@ -11219,7 +11219,7 @@
       </c>
       <c r="E208" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '5-21',5,'Вывод МЗ-1 1Т','Объект 207'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-21',5,'Вывод МЗ-1 1Т','Объект 207'</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
@@ -11237,7 +11237,7 @@
       </c>
       <c r="E209" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '5-22',5,'Ввод МЗ-1 1Т','Объект 208'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-22',5,'Ввод МЗ-1 1Т','Объект 208'</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
@@ -11255,7 +11255,7 @@
       </c>
       <c r="E210" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '5-23',5,'Вывод МЗ-2 1Т','Объект 209'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-23',5,'Вывод МЗ-2 1Т','Объект 209'</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
@@ -11273,7 +11273,7 @@
       </c>
       <c r="E211" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '5-24',5,'Ввод МЗ-2 1Т','Объект 210'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-24',5,'Ввод МЗ-2 1Т','Объект 210'</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
@@ -11291,7 +11291,7 @@
       </c>
       <c r="E212" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '5-25',5,'Вывод МЗ-1 2АТГ','Объект 211'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-25',5,'Вывод МЗ-1 2АТГ','Объект 211'</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
@@ -11309,7 +11309,7 @@
       </c>
       <c r="E213" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '5-26',5,'Ввод МЗ-1 2АТГ','Объект 212'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-26',5,'Ввод МЗ-1 2АТГ','Объект 212'</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
@@ -11327,7 +11327,7 @@
       </c>
       <c r="E214" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '5-27',5,'Вывод МЗ-2 2АТГ','Объект 213'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-27',5,'Вывод МЗ-2 2АТГ','Объект 213'</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
@@ -11345,7 +11345,7 @@
       </c>
       <c r="E215" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '5-28',5,'Ввод МЗ-2 2АТГ','Объект 214'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-28',5,'Ввод МЗ-2 2АТГ','Объект 214'</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
@@ -11363,7 +11363,7 @@
       </c>
       <c r="E216" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '5-29',5,'Вывод КСЗ 500 2АТГ','Объект 215'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-29',5,'Вывод КСЗ 500 2АТГ','Объект 215'</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
@@ -11381,7 +11381,7 @@
       </c>
       <c r="E217" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '5-30',5,'Ввод КСЗ 500 2АТГ','Объект 216'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-30',5,'Ввод КСЗ 500 2АТГ','Объект 216'</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
@@ -11399,7 +11399,7 @@
       </c>
       <c r="E218" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '5-31',5,'Вывод МЗ-1 3АТГ','Объект 217'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-31',5,'Вывод МЗ-1 3АТГ','Объект 217'</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
@@ -11417,7 +11417,7 @@
       </c>
       <c r="E219" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '5-32',5,'Ввод МЗ-1 3АТГ','Объект 218'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-32',5,'Ввод МЗ-1 3АТГ','Объект 218'</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
@@ -11435,7 +11435,7 @@
       </c>
       <c r="E220" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '5-33',5,'Вывод МЗ-2 3АТГ','Объект 219'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-33',5,'Вывод МЗ-2 3АТГ','Объект 219'</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
@@ -11453,7 +11453,7 @@
       </c>
       <c r="E221" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '5-34',5,'Ввод МЗ-2 3АТГ','Объект 220'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-34',5,'Ввод МЗ-2 3АТГ','Объект 220'</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
@@ -11471,7 +11471,7 @@
       </c>
       <c r="E222" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '5-35',5,'Вывод КСЗ 500 3АТГ','Объект 221'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-35',5,'Вывод КСЗ 500 3АТГ','Объект 221'</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
@@ -11489,7 +11489,7 @@
       </c>
       <c r="E223" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '5-36',5,'Ввод КСЗ 500 3АТГ','Объект 222'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-36',5,'Ввод КСЗ 500 3АТГ','Объект 222'</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
@@ -11507,7 +11507,7 @@
       </c>
       <c r="E224" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '5-37',5,'Вывод МЗ-1 4Т','Объект 223'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-37',5,'Вывод МЗ-1 4Т','Объект 223'</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
@@ -11525,7 +11525,7 @@
       </c>
       <c r="E225" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '5-38',5,'Ввод МЗ-1 4Т','Объект 224'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-38',5,'Ввод МЗ-1 4Т','Объект 224'</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
@@ -11543,7 +11543,7 @@
       </c>
       <c r="E226" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '5-39',5,'Вывод МЗ-2 4Т','Объект 225'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-39',5,'Вывод МЗ-2 4Т','Объект 225'</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
@@ -11561,7 +11561,7 @@
       </c>
       <c r="E227" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '5-40',5,'Ввод МЗ-2 4Т','Объект 226'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-40',5,'Ввод МЗ-2 4Т','Объект 226'</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
@@ -11579,7 +11579,7 @@
       </c>
       <c r="E228" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '5-41',5,'Вывод МЗ-1 5АТ','Объект 227'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-41',5,'Вывод МЗ-1 5АТ','Объект 227'</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
@@ -11597,7 +11597,7 @@
       </c>
       <c r="E229" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '5-42',5,'Ввод МЗ-1 5АТ','Объект 228'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-42',5,'Ввод МЗ-1 5АТ','Объект 228'</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
@@ -11615,7 +11615,7 @@
       </c>
       <c r="E230" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '5-43',5,'Вывод МЗ-2 5АТ','Объект 229'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-43',5,'Вывод МЗ-2 5АТ','Объект 229'</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
@@ -11633,7 +11633,7 @@
       </c>
       <c r="E231" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '5-44',5,'Ввод МЗ-2 5АТ','Объект 230'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-44',5,'Ввод МЗ-2 5АТ','Объект 230'</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
@@ -11651,7 +11651,7 @@
       </c>
       <c r="E232" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '5-45',5,'Вывод МЗ-1 6АТ','Объект 231'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-45',5,'Вывод МЗ-1 6АТ','Объект 231'</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
@@ -11669,7 +11669,7 @@
       </c>
       <c r="E233" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '5-46',5,'Ввод МЗ-1 6АТ','Объект 232'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-46',5,'Ввод МЗ-1 6АТ','Объект 232'</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
@@ -11687,7 +11687,7 @@
       </c>
       <c r="E234" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '5-47',5,'Вывод МЗ-2 6АТ','Объект 233'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-47',5,'Вывод МЗ-2 6АТ','Объект 233'</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
@@ -11705,7 +11705,7 @@
       </c>
       <c r="E235" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '5-48',5,'Ввод МЗ-2 6АТ','Объект 234'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-48',5,'Ввод МЗ-2 6АТ','Объект 234'</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
@@ -11723,7 +11723,7 @@
       </c>
       <c r="E236" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '5-49',5,'Вывод ДЗП-220 5,6АТ','Объект 235'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-49',5,'Вывод ДЗП-220 5,6АТ','Объект 235'</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
@@ -11741,7 +11741,7 @@
       </c>
       <c r="E237" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '5-50',5,'Ввод ДЗП-220 5,6АТ','Объект 236'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-50',5,'Ввод ДЗП-220 5,6АТ','Объект 236'</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
@@ -11759,7 +11759,7 @@
       </c>
       <c r="E238" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '5-51',5,'Вывод ДЗП-110 5,6 АТ','Объект 237'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-51',5,'Вывод ДЗП-110 5,6 АТ','Объект 237'</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
@@ -11777,7 +11777,7 @@
       </c>
       <c r="E239" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '5-52',5,'Ввод ДЗП-110 5,6 АТ','Объект 238'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-52',5,'Ввод ДЗП-110 5,6 АТ','Объект 238'</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
@@ -11795,7 +11795,7 @@
       </c>
       <c r="E240" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.1-01',6,'Вывод ДЗШ-110 кВ','Объект 239'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.1-01',6,'Вывод ДЗШ-110 кВ','Объект 239'</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
@@ -11813,7 +11813,7 @@
       </c>
       <c r="E241" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.1-02',6,'Ввод ДЗШ-110 кВ ','Объект 240'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.1-02',6,'Ввод ДЗШ-110 кВ ','Объект 240'</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
@@ -11831,7 +11831,7 @@
       </c>
       <c r="E242" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.1-03',6,'Вывод ДФЗ ВЛ-110 кВ Водозабор-1 (ВЛ-110 кВ питается через свой В)','Объект 241'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.1-03',6,'Вывод ДФЗ ВЛ-110 кВ Водозабор-1 (ВЛ-110 кВ питается через свой В)','Объект 241'</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
@@ -11849,7 +11849,7 @@
       </c>
       <c r="E243" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.1-04',6,'Ввод ДФЗ ВЛ-110 кВ Водозабор-1 (ВЛ-110 кВ питается через свой В)','Объект 242'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.1-04',6,'Ввод ДФЗ ВЛ-110 кВ Водозабор-1 (ВЛ-110 кВ питается через свой В)','Объект 242'</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
@@ -11867,7 +11867,7 @@
       </c>
       <c r="E244" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.1-05',6,'Вывод ДФЗ ВЛ-110 кВ Водозабор-2 (ВЛ-110 кВ питается через свой В)','Объект 243'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.1-05',6,'Вывод ДФЗ ВЛ-110 кВ Водозабор-2 (ВЛ-110 кВ питается через свой В)','Объект 243'</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
@@ -11885,7 +11885,7 @@
       </c>
       <c r="E245" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.1-06',6,'Ввод ДФЗ ВЛ-110 кВ Водозабор-2 (ВЛ-110 кВ питается через свой В)','Объект 244'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.1-06',6,'Ввод ДФЗ ВЛ-110 кВ Водозабор-2 (ВЛ-110 кВ питается через свой В)','Объект 244'</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
@@ -11903,7 +11903,7 @@
       </c>
       <c r="E246" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.1-07',6,'Вывод ДФЗ ВЛ-110 кВ Каучук (ВЛ-110 кВ питается через свой В)','Объект 245'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.1-07',6,'Вывод ДФЗ ВЛ-110 кВ Каучук (ВЛ-110 кВ питается через свой В)','Объект 245'</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
@@ -11921,7 +11921,7 @@
       </c>
       <c r="E247" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.1-08',6,'Ввод ДФЗ ВЛ-110 кВ Каучук (ВЛ-110 кВ питается через свой В)','Объект 246'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.1-08',6,'Ввод ДФЗ ВЛ-110 кВ Каучук (ВЛ-110 кВ питается через свой В)','Объект 246'</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
@@ -11939,7 +11939,7 @@
       </c>
       <c r="E248" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.1-09',6,'Вывод ДФЗ ВЛ-110 кВ ЧаТЭЦ (ВЛ-110 кВ питается через свой В)','Объект 247'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.1-09',6,'Вывод ДФЗ ВЛ-110 кВ ЧаТЭЦ (ВЛ-110 кВ питается через свой В)','Объект 247'</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
@@ -11957,7 +11957,7 @@
       </c>
       <c r="E249" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.1-10',6,'Ввод ДФЗ ВЛ-110 кВ ЧаТЭЦ (ВЛ-110 кВ питается через свой В)','Объект 248'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.1-10',6,'Ввод ДФЗ ВЛ-110 кВ ЧаТЭЦ (ВЛ-110 кВ питается через свой В)','Объект 248'</v>
       </c>
     </row>
     <row r="250" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -11975,7 +11975,7 @@
       </c>
       <c r="E250" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.1-11',6,'Вывод ДФЗ ВЛ-110 кВ Берёзовка (на ПС «Берёзовка» отключена ремонтная перемычка, ВЛ-110 кВ питается через свой В)','Объект 249'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.1-11',6,'Вывод ДФЗ ВЛ-110 кВ Берёзовка (на ПС «Берёзовка» отключена ремонтная перемычка, ВЛ-110 кВ питается через свой В)','Объект 249'</v>
       </c>
     </row>
     <row r="251" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -11993,7 +11993,7 @@
       </c>
       <c r="E251" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.1-12',6,'Ввод ДФЗ ВЛ-110 кВ Берёзовка (на ПС «Берёзовка» отключена ремонтная перемычка, ВЛ-110 кВ питается через свой В)','Объект 250'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.1-12',6,'Ввод ДФЗ ВЛ-110 кВ Берёзовка (на ПС «Берёзовка» отключена ремонтная перемычка, ВЛ-110 кВ питается через свой В)','Объект 250'</v>
       </c>
     </row>
     <row r="252" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -12011,7 +12011,7 @@
       </c>
       <c r="E252" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.1-13',6,'Вывод ДФЗ ВЛ-110 кВ Берёзовка (на ПС «Берёзовка» включена ремонтная перемычка, ВЛ-110 кВ питается через свой В)','Объект 251'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.1-13',6,'Вывод ДФЗ ВЛ-110 кВ Берёзовка (на ПС «Берёзовка» включена ремонтная перемычка, ВЛ-110 кВ питается через свой В)','Объект 251'</v>
       </c>
     </row>
     <row r="253" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -12029,7 +12029,7 @@
       </c>
       <c r="E253" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.1-14',6,'Ввод ДФЗ ВЛ-110 кВ Берёзовка (на ПС «Берёзовка» включена ремонтная перемычка, ВЛ-110 кВ питается через свой В)','Объект 252'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.1-14',6,'Ввод ДФЗ ВЛ-110 кВ Берёзовка (на ПС «Берёзовка» включена ремонтная перемычка, ВЛ-110 кВ питается через свой В)','Объект 252'</v>
       </c>
     </row>
     <row r="254" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -12047,7 +12047,7 @@
       </c>
       <c r="E254" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.1-15',6,'Вывод ДФЗ ВЛ-110 кВ Дубовая (на ПС «Дубовая» отключена ремонтная перемычка, ВЛ-110 кВ питается через свой В)','Объект 253'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.1-15',6,'Вывод ДФЗ ВЛ-110 кВ Дубовая (на ПС «Дубовая» отключена ремонтная перемычка, ВЛ-110 кВ питается через свой В)','Объект 253'</v>
       </c>
     </row>
     <row r="255" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -12065,7 +12065,7 @@
       </c>
       <c r="E255" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.1-16',6,'Ввод ДФЗ BЛ-110 кВ Дубовая (на ПС «Дубовая» отключена ремонтная перемычка, BЛ-110 кВ питается через свой В)','Объект 254'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.1-16',6,'Ввод ДФЗ BЛ-110 кВ Дубовая (на ПС «Дубовая» отключена ремонтная перемычка, BЛ-110 кВ питается через свой В)','Объект 254'</v>
       </c>
     </row>
     <row r="256" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -12083,7 +12083,7 @@
       </c>
       <c r="E256" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.1-17',6,'Вывод ДФЗ BЛ-110 кВ Дубовая (на ПС «Дубовая» включена ремонтная перемычка, BЛ-110 кВ питается через свой В)','Объект 255'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.1-17',6,'Вывод ДФЗ BЛ-110 кВ Дубовая (на ПС «Дубовая» включена ремонтная перемычка, BЛ-110 кВ питается через свой В)','Объект 255'</v>
       </c>
     </row>
     <row r="257" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -12101,7 +12101,7 @@
       </c>
       <c r="E257" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.1-18',6,'Ввод ДФЗ BЛ-110 кВ Дубовая (на ПС «Дубовая» включена ремонтная перемычка, BЛ-110 кВ питается через свой В)','Объект 256'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.1-18',6,'Ввод ДФЗ BЛ-110 кВ Дубовая (на ПС «Дубовая» включена ремонтная перемычка, BЛ-110 кВ питается через свой В)','Объект 256'</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
@@ -12118,8 +12118,8 @@
         <v>1252</v>
       </c>
       <c r="E258" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.1-19',6,'Вывод ДФЗ ВЛ-110 кВ Водозабор-1 (ВЛ-110 кВ питается через ОВ-110кВ)','Объект 257'</v>
+        <f t="shared" ref="E258:E321" si="4">CONCATENATE("INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '",A258,"',",B258,",'",C258,"','",D258,"'")</f>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.1-19',6,'Вывод ДФЗ ВЛ-110 кВ Водозабор-1 (ВЛ-110 кВ питается через ОВ-110кВ)','Объект 257'</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
@@ -12136,8 +12136,8 @@
         <v>1253</v>
       </c>
       <c r="E259" s="1" t="str">
-        <f t="shared" ref="E259:E322" si="4">CONCATENATE("INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '",A259,"',",B259,",'",C259,"','",D259,"'")</f>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.1-20',6,'Ввод ДФЗ ВЛ-110 кВ Водозабор-1 (ВЛ-110 кВ питается через ОВ-110кВ)','Объект 258'</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.1-20',6,'Ввод ДФЗ ВЛ-110 кВ Водозабор-1 (ВЛ-110 кВ питается через ОВ-110кВ)','Объект 258'</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
@@ -12155,7 +12155,7 @@
       </c>
       <c r="E260" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.1-21',6,'Вывод ДФЗ ВЛ-110 кВ Водозабор-2 (ВЛ-110 кВ питается через ОВ-110кВ)','Объект 259'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.1-21',6,'Вывод ДФЗ ВЛ-110 кВ Водозабор-2 (ВЛ-110 кВ питается через ОВ-110кВ)','Объект 259'</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
@@ -12173,7 +12173,7 @@
       </c>
       <c r="E261" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.1-22',6,'Ввод ДФЗ ВЛ-110 кВ Водозабор-2 (ВЛ-110 кВ питается через ОВ-110кВ)','Объект 260'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.1-22',6,'Ввод ДФЗ ВЛ-110 кВ Водозабор-2 (ВЛ-110 кВ питается через ОВ-110кВ)','Объект 260'</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
@@ -12191,7 +12191,7 @@
       </c>
       <c r="E262" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.1-23',6,'Вывод ДФЗ ВЛ-110 кВ Каучук (ВЛ-110 кВ питается через ОВ-110кВ)','Объект 261'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.1-23',6,'Вывод ДФЗ ВЛ-110 кВ Каучук (ВЛ-110 кВ питается через ОВ-110кВ)','Объект 261'</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
@@ -12209,7 +12209,7 @@
       </c>
       <c r="E263" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.1-24',6,'Ввод ДФЗ ВЛ-110 кВ Каучук (ВЛ-110 кВ питается через ОВ-110кВ)','Объект 262'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.1-24',6,'Ввод ДФЗ ВЛ-110 кВ Каучук (ВЛ-110 кВ питается через ОВ-110кВ)','Объект 262'</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
@@ -12227,7 +12227,7 @@
       </c>
       <c r="E264" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.1-25',6,'Вывод ДФЗ ВЛ-110 кВ ЧаТЭЦ (ВЛ-110 кВ питается через ОВ-110кВ)','Объект 263'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.1-25',6,'Вывод ДФЗ ВЛ-110 кВ ЧаТЭЦ (ВЛ-110 кВ питается через ОВ-110кВ)','Объект 263'</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
@@ -12245,7 +12245,7 @@
       </c>
       <c r="E265" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.1-26',6,'Ввод ДФЗ ВЛ-110 кВ ЧаТЭЦ (ВЛ-110 кВ питается через ОВ-110кВ)','Объект 264'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.1-26',6,'Ввод ДФЗ ВЛ-110 кВ ЧаТЭЦ (ВЛ-110 кВ питается через ОВ-110кВ)','Объект 264'</v>
       </c>
     </row>
     <row r="266" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -12263,7 +12263,7 @@
       </c>
       <c r="E266" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.1-27',6,'Вывод ДФЗ ВЛ-110 кВ Берёзовка (на ПС «Берёзовка» отключена ремонтная перемычка, ВЛ-110 кВ питается через ОВ-110кВ)','Объект 265'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.1-27',6,'Вывод ДФЗ ВЛ-110 кВ Берёзовка (на ПС «Берёзовка» отключена ремонтная перемычка, ВЛ-110 кВ питается через ОВ-110кВ)','Объект 265'</v>
       </c>
     </row>
     <row r="267" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -12281,7 +12281,7 @@
       </c>
       <c r="E267" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.1-28',6,'Ввод ДФЗ ВЛ-110 кВ Берёзовка (на ПС «Берёзовка» отключена ремонтная перемычка, ВЛ-110 кВ питается через ОВ-110кВ)','Объект 266'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.1-28',6,'Ввод ДФЗ ВЛ-110 кВ Берёзовка (на ПС «Берёзовка» отключена ремонтная перемычка, ВЛ-110 кВ питается через ОВ-110кВ)','Объект 266'</v>
       </c>
     </row>
     <row r="268" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -12299,7 +12299,7 @@
       </c>
       <c r="E268" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.1-29',6,'Вывод ДФЗ ВЛ-110 кВ Берёзовка (на ПС «Берёзовка» включена ремонтная перемычка, ВЛ-110 кВ питается через ОВ-110кВ)','Объект 267'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.1-29',6,'Вывод ДФЗ ВЛ-110 кВ Берёзовка (на ПС «Берёзовка» включена ремонтная перемычка, ВЛ-110 кВ питается через ОВ-110кВ)','Объект 267'</v>
       </c>
     </row>
     <row r="269" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -12317,7 +12317,7 @@
       </c>
       <c r="E269" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.1-30',6,'Ввод ДФЗ ВЛ-110 кВ Берёзовка (на ПС «Берёзовка» включена ремонтная перемычка, ВЛ-110 кВ питается через ОВ-110кВ)','Объект 268'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.1-30',6,'Ввод ДФЗ ВЛ-110 кВ Берёзовка (на ПС «Берёзовка» включена ремонтная перемычка, ВЛ-110 кВ питается через ОВ-110кВ)','Объект 268'</v>
       </c>
     </row>
     <row r="270" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -12335,7 +12335,7 @@
       </c>
       <c r="E270" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.1-31',6,'Вывод ДФЗ ВЛ-110 кВ Дубовая (на ПС «Дубовая» отключена ремонтная перемычка, ВЛ-110 кВ питается через ОВ-110кВ)','Объект 269'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.1-31',6,'Вывод ДФЗ ВЛ-110 кВ Дубовая (на ПС «Дубовая» отключена ремонтная перемычка, ВЛ-110 кВ питается через ОВ-110кВ)','Объект 269'</v>
       </c>
     </row>
     <row r="271" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -12353,7 +12353,7 @@
       </c>
       <c r="E271" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.1-32',6,'Ввод ДФЗ BЛ-110 кВ Дубовая (на ПС «Дубовая» отключена ремонтная перемычка, BЛ-110 кВ питается через ОВ-110кВ)','Объект 270'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.1-32',6,'Ввод ДФЗ BЛ-110 кВ Дубовая (на ПС «Дубовая» отключена ремонтная перемычка, BЛ-110 кВ питается через ОВ-110кВ)','Объект 270'</v>
       </c>
     </row>
     <row r="272" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -12371,7 +12371,7 @@
       </c>
       <c r="E272" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.1-33',6,'Вывод ДФЗ BЛ-110 кВ Дубовая (на ПС «Дубовая» включена ремонтная перемычка, BЛ-110 кВ питается через ОВ-110кВ)','Объект 271'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.1-33',6,'Вывод ДФЗ BЛ-110 кВ Дубовая (на ПС «Дубовая» включена ремонтная перемычка, BЛ-110 кВ питается через ОВ-110кВ)','Объект 271'</v>
       </c>
     </row>
     <row r="273" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -12389,7 +12389,7 @@
       </c>
       <c r="E273" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.1-34',6,'Ввод ДФЗ BЛ-110 кВ Дубовая (на ПС «Дубовая» включена ремонтная перемычка, BЛ-110 кВ питается черезОВ-110кВ)','Объект 272'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.1-34',6,'Ввод ДФЗ BЛ-110 кВ Дубовая (на ПС «Дубовая» включена ремонтная перемычка, BЛ-110 кВ питается черезОВ-110кВ)','Объект 272'</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
@@ -12407,7 +12407,7 @@
       </c>
       <c r="E274" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.2-01',7,'Вывод ДЗШ-220 кВ ','Объект 273'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.2-01',7,'Вывод ДЗШ-220 кВ ','Объект 273'</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
@@ -12425,7 +12425,7 @@
       </c>
       <c r="E275" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.2-02',7,'Ввод ДЗШ-220 кВ ','Объект 274'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.2-02',7,'Ввод ДЗШ-220 кВ ','Объект 274'</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
@@ -12443,7 +12443,7 @@
       </c>
       <c r="E276" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.2-03',7,'Вывод ДФЗ BЛ-220 кВ Иж-1 (ВЛ-220 кВ питается через свой В)','Объект 275'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.2-03',7,'Вывод ДФЗ BЛ-220 кВ Иж-1 (ВЛ-220 кВ питается через свой В)','Объект 275'</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
@@ -12461,7 +12461,7 @@
       </c>
       <c r="E277" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.2-04',7,'Ввод ДФЗ BЛ-220 кВ Иж-1 (ВЛ-220 кВ питается через свой В)','Объект 276'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.2-04',7,'Ввод ДФЗ BЛ-220 кВ Иж-1 (ВЛ-220 кВ питается через свой В)','Объект 276'</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
@@ -12479,7 +12479,7 @@
       </c>
       <c r="E278" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.2-05',7,'Вывод ДФЗ BЛ-220 кВ Иж-2 (ВЛ-220 кВ питается через свой В)','Объект 277'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.2-05',7,'Вывод ДФЗ BЛ-220 кВ Иж-2 (ВЛ-220 кВ питается через свой В)','Объект 277'</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
@@ -12497,7 +12497,7 @@
       </c>
       <c r="E279" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.2-06',7,'Ввод ДФЗ BЛ-220 кВ Иж-2 (ВЛ-220 кВ питается через свой В)','Объект 278'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.2-06',7,'Ввод ДФЗ BЛ-220 кВ Иж-2 (ВЛ-220 кВ питается через свой В)','Объект 278'</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
@@ -12515,7 +12515,7 @@
       </c>
       <c r="E280" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.2-07',7,'Вывод ДФЗ BЛ-220 кВ Каучук-1 (ВЛ-220 кВ питается через свой В)','Объект 279'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.2-07',7,'Вывод ДФЗ BЛ-220 кВ Каучук-1 (ВЛ-220 кВ питается через свой В)','Объект 279'</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
@@ -12533,7 +12533,7 @@
       </c>
       <c r="E281" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.2-08',7,'Ввод ДФЗ BЛ-220 кВ Каучук-1 (ВЛ-220 кВ питается через свой В)','Объект 280'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.2-08',7,'Ввод ДФЗ BЛ-220 кВ Каучук-1 (ВЛ-220 кВ питается через свой В)','Объект 280'</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
@@ -12551,7 +12551,7 @@
       </c>
       <c r="E282" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.2-09',7,'Вывод ДФЗ BЛ-220 кВ Каучук-2 (ВЛ-220 кВ питается через свой В)','Объект 281'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.2-09',7,'Вывод ДФЗ BЛ-220 кВ Каучук-2 (ВЛ-220 кВ питается через свой В)','Объект 281'</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
@@ -12569,7 +12569,7 @@
       </c>
       <c r="E283" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.2-10',7,'Ввод ДФЗ BЛ-220 кВ Каучук-2 (ВЛ-220 кВ питается через свой В)','Объект 282'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.2-10',7,'Ввод ДФЗ BЛ-220 кВ Каучук-2 (ВЛ-220 кВ питается через свой В)','Объект 282'</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
@@ -12587,7 +12587,7 @@
       </c>
       <c r="E284" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.2-11',7,'Вывод ДФЗ BЛ-220 кВ Светлая (ВЛ-220 кВ питается через свой В)','Объект 283'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.2-11',7,'Вывод ДФЗ BЛ-220 кВ Светлая (ВЛ-220 кВ питается через свой В)','Объект 283'</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
@@ -12605,7 +12605,7 @@
       </c>
       <c r="E285" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.2-12',7,'Ввод ДФЗ BЛ-220 кВ Светлая (ВЛ-220 кВ питается через свой В)','Объект 284'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.2-12',7,'Ввод ДФЗ BЛ-220 кВ Светлая (ВЛ-220 кВ питается через свой В)','Объект 284'</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
@@ -12623,7 +12623,7 @@
       </c>
       <c r="E286" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.2-13',7,'Вывод ДФЗ BЛ-220 кВ Иж-1 (ВЛ-220 кВ питается через ОВ-220 кВ)','Объект 285'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.2-13',7,'Вывод ДФЗ BЛ-220 кВ Иж-1 (ВЛ-220 кВ питается через ОВ-220 кВ)','Объект 285'</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
@@ -12641,7 +12641,7 @@
       </c>
       <c r="E287" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.2-14',7,'Ввод ДФЗ BЛ-220 кВ Иж-1 (ВЛ-220 кВ питается через ОВ-220 кВ)','Объект 286'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.2-14',7,'Ввод ДФЗ BЛ-220 кВ Иж-1 (ВЛ-220 кВ питается через ОВ-220 кВ)','Объект 286'</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
@@ -12659,7 +12659,7 @@
       </c>
       <c r="E288" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.2-15',7,'Вывод ДФЗ BЛ-220 кВ Иж-2 (ВЛ-220 кВ питается через ОВ-220 кВ)','Объект 287'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.2-15',7,'Вывод ДФЗ BЛ-220 кВ Иж-2 (ВЛ-220 кВ питается через ОВ-220 кВ)','Объект 287'</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
@@ -12677,7 +12677,7 @@
       </c>
       <c r="E289" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.2-16',7,'Ввод ДФЗ BЛ-220 кВ Иж-2 (ВЛ-220 кВ питается через ОВ-220 кВ)','Объект 288'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.2-16',7,'Ввод ДФЗ BЛ-220 кВ Иж-2 (ВЛ-220 кВ питается через ОВ-220 кВ)','Объект 288'</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
@@ -12695,7 +12695,7 @@
       </c>
       <c r="E290" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.2-17',7,'Вывод ДФЗ BЛ-220 кВ Каучук-1 (ВЛ-220 кВ питается через ОВ-220 кВ)','Объект 289'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.2-17',7,'Вывод ДФЗ BЛ-220 кВ Каучук-1 (ВЛ-220 кВ питается через ОВ-220 кВ)','Объект 289'</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
@@ -12713,7 +12713,7 @@
       </c>
       <c r="E291" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.2-18',7,'Ввод ДФЗ BЛ-220 кВ Каучук-1 (ВЛ-220 кВ питается через ОВ-220 кВ)','Объект 290'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.2-18',7,'Ввод ДФЗ BЛ-220 кВ Каучук-1 (ВЛ-220 кВ питается через ОВ-220 кВ)','Объект 290'</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
@@ -12731,7 +12731,7 @@
       </c>
       <c r="E292" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.2-19',7,'Вывод ДФЗ BЛ-220 кВ Каучук-2 (ВЛ-220 кВ питается через ОВ-220 кВ)','Объект 291'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.2-19',7,'Вывод ДФЗ BЛ-220 кВ Каучук-2 (ВЛ-220 кВ питается через ОВ-220 кВ)','Объект 291'</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
@@ -12749,7 +12749,7 @@
       </c>
       <c r="E293" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.2-20',7,'Ввод ДФЗ BЛ-220 кВ Каучук-2 (ВЛ-220 кВ питается через ОВ-220 кВ)','Объект 292'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.2-20',7,'Ввод ДФЗ BЛ-220 кВ Каучук-2 (ВЛ-220 кВ питается через ОВ-220 кВ)','Объект 292'</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
@@ -12767,7 +12767,7 @@
       </c>
       <c r="E294" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.2-21',7,'Вывод ДФЗ BЛ-220 кВ Светлая (ВЛ-220 кВ питается через ОВ-220 кВ)','Объект 293'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.2-21',7,'Вывод ДФЗ BЛ-220 кВ Светлая (ВЛ-220 кВ питается через ОВ-220 кВ)','Объект 293'</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
@@ -12785,7 +12785,7 @@
       </c>
       <c r="E295" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.2-22',7,'Ввод ДФЗ BЛ-220 кВ Светлая (ВЛ-220 кВ питается через ОВ-220 кВ)','Объект 294'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.2-22',7,'Ввод ДФЗ BЛ-220 кВ Светлая (ВЛ-220 кВ питается через ОВ-220 кВ)','Объект 294'</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
@@ -12803,7 +12803,7 @@
       </c>
       <c r="E296" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.2-23',7,'Вывод АПЧ','Объект 295'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.2-23',7,'Вывод АПЧ','Объект 295'</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
@@ -12821,7 +12821,7 @@
       </c>
       <c r="E297" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.2-24',7,'Ввод АПЧ','Объект 296'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.2-24',7,'Ввод АПЧ','Объект 296'</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
@@ -12839,7 +12839,7 @@
       </c>
       <c r="E298" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.2-25',7,'Вывод АОПО (МКПА-1) ВЛ-220 кВ Ижевск-1,2 (для смены уставок)','Объект 297'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.2-25',7,'Вывод АОПО (МКПА-1) ВЛ-220 кВ Ижевск-1,2 (для смены уставок)','Объект 297'</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
@@ -12857,7 +12857,7 @@
       </c>
       <c r="E299" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.2-26',7,'Ввод АОПО (МКПА-1) ВЛ-220 кВ Ижевск-1,2 (для смены уставок)','Объект 298'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.2-26',7,'Ввод АОПО (МКПА-1) ВЛ-220 кВ Ижевск-1,2 (для смены уставок)','Объект 298'</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
@@ -12875,7 +12875,7 @@
       </c>
       <c r="E300" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.2-27',7,'Вывод АОПО (МКПА-2) ВЛ-220 кВ Ижевск-1,2 (для смены уставок)','Объект 299'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.2-27',7,'Вывод АОПО (МКПА-2) ВЛ-220 кВ Ижевск-1,2 (для смены уставок)','Объект 299'</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
@@ -12893,7 +12893,7 @@
       </c>
       <c r="E301" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.2-28',7,'Ввод АОПО (МКПА-2) ВЛ-220 кВ Ижевск-1,2 (для смены уставок)','Объект 300'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.2-28',7,'Ввод АОПО (МКПА-2) ВЛ-220 кВ Ижевск-1,2 (для смены уставок)','Объект 300'</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
@@ -12911,7 +12911,7 @@
       </c>
       <c r="E302" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.2-29',7,'Вывод АОПО (МКПА-1) ВЛ 220 Ижевск-1,2 (для проведения ТО)','Объект 301'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.2-29',7,'Вывод АОПО (МКПА-1) ВЛ 220 Ижевск-1,2 (для проведения ТО)','Объект 301'</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
@@ -12929,7 +12929,7 @@
       </c>
       <c r="E303" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.2-30',7,'Ввод АОПО (МКПА-1) ВЛ 220 Ижевск-1,2 (после проведения ТО)','Объект 302'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.2-30',7,'Ввод АОПО (МКПА-1) ВЛ 220 Ижевск-1,2 (после проведения ТО)','Объект 302'</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
@@ -12947,7 +12947,7 @@
       </c>
       <c r="E304" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.2-31',7,'Вывод АОПО (МКПА-2) ВЛ 220 Ижевск-1,2 (для проведения ТО)','Объект 303'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.2-31',7,'Вывод АОПО (МКПА-2) ВЛ 220 Ижевск-1,2 (для проведения ТО)','Объект 303'</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
@@ -12965,7 +12965,7 @@
       </c>
       <c r="E305" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.2-32',7,'Ввод АОПО (МКПА-2) ВЛ 220 Ижевск-1,2 (после проведения ТО)','Объект 304'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.2-32',7,'Ввод АОПО (МКПА-2) ВЛ 220 Ижевск-1,2 (после проведения ТО)','Объект 304'</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
@@ -12983,7 +12983,7 @@
       </c>
       <c r="E306" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.3-01',8,'Вывод ДЗШ 1СШ-500 кВ КРУЭ 1 комплект','Объект 305'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-01',8,'Вывод ДЗШ 1СШ-500 кВ КРУЭ 1 комплект','Объект 305'</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
@@ -13001,7 +13001,7 @@
       </c>
       <c r="E307" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.3-02',8,'Ввод ДЗШ 1СШ-500 кВ КРУЭ 1 комплект','Объект 306'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-02',8,'Ввод ДЗШ 1СШ-500 кВ КРУЭ 1 комплект','Объект 306'</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
@@ -13019,7 +13019,7 @@
       </c>
       <c r="E308" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.3-03',8,'Вывод ДЗШ 2СШ-500 кВ КРУЭ 1 комплект','Объект 307'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-03',8,'Вывод ДЗШ 2СШ-500 кВ КРУЭ 1 комплект','Объект 307'</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
@@ -13037,7 +13037,7 @@
       </c>
       <c r="E309" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.3-04',8,'Ввод ДЗШ 2СШ-500 кВ КРУЭ 1 комплект','Объект 308'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-04',8,'Ввод ДЗШ 2СШ-500 кВ КРУЭ 1 комплект','Объект 308'</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
@@ -13055,7 +13055,7 @@
       </c>
       <c r="E310" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.3-05',8,'Вывод ДЗШ 1СШ-500 кВ КРУЭ 2 комплект','Объект 309'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-05',8,'Вывод ДЗШ 1СШ-500 кВ КРУЭ 2 комплект','Объект 309'</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
@@ -13073,7 +13073,7 @@
       </c>
       <c r="E311" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.3-06',8,'Ввод ДЗШ 1СШ-500 кВ КРУЭ 2 комплект','Объект 310'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-06',8,'Ввод ДЗШ 1СШ-500 кВ КРУЭ 2 комплект','Объект 310'</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
@@ -13091,7 +13091,7 @@
       </c>
       <c r="E312" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.3-07',8,'Вывод ДЗШ 2СШ-500 кВ КРУЭ 2 комплект','Объект 311'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-07',8,'Вывод ДЗШ 2СШ-500 кВ КРУЭ 2 комплект','Объект 311'</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
@@ -13109,7 +13109,7 @@
       </c>
       <c r="E313" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.3-08',8,'Ввод ДЗШ 2СШ-500 кВ КРУЭ 2 комплект','Объект 312'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-08',8,'Ввод ДЗШ 2СШ-500 кВ КРУЭ 2 комплект','Объект 312'</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
@@ -13127,7 +13127,7 @@
       </c>
       <c r="E314" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.3-09',8,'Вывод ДЗОШ ВЛ-500 кВ Емелино','Объект 313'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-09',8,'Вывод ДЗОШ ВЛ-500 кВ Емелино','Объект 313'</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
@@ -13145,7 +13145,7 @@
       </c>
       <c r="E315" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.3-10',8,'Ввод ДЗОШ ВЛ-500 кВ Емелино','Объект 314'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-10',8,'Ввод ДЗОШ ВЛ-500 кВ Емелино','Объект 314'</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
@@ -13163,7 +13163,7 @@
       </c>
       <c r="E316" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.3-11',8,'Вывод ДЗОШ ВЛ-500 кВ КаГРЭС','Объект 315'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-11',8,'Вывод ДЗОШ ВЛ-500 кВ КаГРЭС','Объект 315'</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
@@ -13181,7 +13181,7 @@
       </c>
       <c r="E317" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.3-12',8,'Ввод ДЗОШ ВЛ-500 кВ КаГРЭС','Объект 316'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-12',8,'Ввод ДЗОШ ВЛ-500 кВ КаГРЭС','Объект 316'</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
@@ -13199,7 +13199,7 @@
       </c>
       <c r="E318" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.3-13',8,'Вывод ДЗОШ ВЛ-500 кВ Вятка','Объект 317'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-13',8,'Вывод ДЗОШ ВЛ-500 кВ Вятка','Объект 317'</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
@@ -13217,7 +13217,7 @@
       </c>
       <c r="E319" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.3-14',8,'Ввод ДЗОШ ВЛ-500 кВ Вятка','Объект 318'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-14',8,'Ввод ДЗОШ ВЛ-500 кВ Вятка','Объект 318'</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
@@ -13235,7 +13235,7 @@
       </c>
       <c r="E320" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.3-15',8,'Вывод РЗ 1к (ДФЗ) ВЛ-500 кВ Емелино','Объект 319'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-15',8,'Вывод РЗ 1к (ДФЗ) ВЛ-500 кВ Емелино','Объект 319'</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
@@ -13253,7 +13253,7 @@
       </c>
       <c r="E321" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.3-16',8,'Ввод РЗ 1к (ДФЗ) ВЛ-500 кВ Емелино','Объект 320'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-16',8,'Ввод РЗ 1к (ДФЗ) ВЛ-500 кВ Емелино','Объект 320'</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
@@ -13270,8 +13270,8 @@
         <v>1316</v>
       </c>
       <c r="E322" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.3-17',8,'Вывод РЗ 1к (ДФЗ) ВЛ-500 кВ КаГРЭС','Объект 321'</v>
+        <f t="shared" ref="E322:E385" si="5">CONCATENATE("INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '",A322,"',",B322,",'",C322,"','",D322,"'")</f>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-17',8,'Вывод РЗ 1к (ДФЗ) ВЛ-500 кВ КаГРЭС','Объект 321'</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
@@ -13288,8 +13288,8 @@
         <v>1317</v>
       </c>
       <c r="E323" s="1" t="str">
-        <f t="shared" ref="E323:E386" si="5">CONCATENATE("INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '",A323,"',",B323,",'",C323,"','",D323,"'")</f>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.3-18',8,'Ввод РЗ 1к (ДФЗ) ВЛ-500 кВ КаГРЭС','Объект 322'</v>
+        <f t="shared" si="5"/>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-18',8,'Ввод РЗ 1к (ДФЗ) ВЛ-500 кВ КаГРЭС','Объект 322'</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
@@ -13307,7 +13307,7 @@
       </c>
       <c r="E324" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.3-19',8,'Вывод РЗ 1к (ДФЗ) ВЛ-500 кВ Вятка','Объект 323'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-19',8,'Вывод РЗ 1к (ДФЗ) ВЛ-500 кВ Вятка','Объект 323'</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
@@ -13325,7 +13325,7 @@
       </c>
       <c r="E325" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.3-20',8,'Ввод РЗ 1к (ДФЗ) ВЛ-500 кВ Вятка','Объект 324'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-20',8,'Ввод РЗ 1к (ДФЗ) ВЛ-500 кВ Вятка','Объект 324'</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
@@ -13343,7 +13343,7 @@
       </c>
       <c r="E326" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.3-21',8,'Вывод РЗ 2к (ДЗ, ТНЗНП, МФО, ОАПВ) ВЛ-500 кВ Емелино','Объект 325'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-21',8,'Вывод РЗ 2к (ДЗ, ТНЗНП, МФО, ОАПВ) ВЛ-500 кВ Емелино','Объект 325'</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
@@ -13361,7 +13361,7 @@
       </c>
       <c r="E327" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.3-22',8,'Ввод РЗ 2к (ДЗ, ТНЗНП, МФО, ОАПВ) ВЛ-500 кВ Емелино','Объект 326'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-22',8,'Ввод РЗ 2к (ДЗ, ТНЗНП, МФО, ОАПВ) ВЛ-500 кВ Емелино','Объект 326'</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
@@ -13379,7 +13379,7 @@
       </c>
       <c r="E328" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.3-23',8,'Вывод РЗ 3к (ДЗ, ТНЗНП, МФО, ОАПВ) ВЛ-500 кВ Емелино','Объект 327'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-23',8,'Вывод РЗ 3к (ДЗ, ТНЗНП, МФО, ОАПВ) ВЛ-500 кВ Емелино','Объект 327'</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
@@ -13397,7 +13397,7 @@
       </c>
       <c r="E329" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.3-24',8,'Ввод РЗ 3к (ДЗ, ТНЗНП, МФО, ОАПВ) ВЛ-500 кВ Емелино','Объект 328'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-24',8,'Ввод РЗ 3к (ДЗ, ТНЗНП, МФО, ОАПВ) ВЛ-500 кВ Емелино','Объект 328'</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
@@ -13415,7 +13415,7 @@
       </c>
       <c r="E330" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.3-25',8,'Вывод РЗ 2к (ДЗ, ТНЗНП, МФО, ОАПВ) ВЛ-500 кВ КаГРЭС','Объект 329'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-25',8,'Вывод РЗ 2к (ДЗ, ТНЗНП, МФО, ОАПВ) ВЛ-500 кВ КаГРЭС','Объект 329'</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
@@ -13433,7 +13433,7 @@
       </c>
       <c r="E331" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.3-26',8,'Ввод РЗ 2к (ДЗ, ТНЗНП, МФО, ОАПВ) ВЛ-500 кВ КаГРЭС','Объект 330'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-26',8,'Ввод РЗ 2к (ДЗ, ТНЗНП, МФО, ОАПВ) ВЛ-500 кВ КаГРЭС','Объект 330'</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
@@ -13451,7 +13451,7 @@
       </c>
       <c r="E332" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.3-27',8,'Вывод РЗ 3к (ДЗ, ТНЗНП, МФО, ОАПВ) ВЛ-500 кВ КаГРЭС','Объект 331'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-27',8,'Вывод РЗ 3к (ДЗ, ТНЗНП, МФО, ОАПВ) ВЛ-500 кВ КаГРЭС','Объект 331'</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
@@ -13469,7 +13469,7 @@
       </c>
       <c r="E333" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.3-28',8,'Ввод РЗ 3к (ДЗ, ТНЗНП, МФО, ОАПВ) ВЛ-500 кВ КаГРЭС','Объект 332'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-28',8,'Ввод РЗ 3к (ДЗ, ТНЗНП, МФО, ОАПВ) ВЛ-500 кВ КаГРЭС','Объект 332'</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
@@ -13487,7 +13487,7 @@
       </c>
       <c r="E334" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.3-29',8,'Вывод РЗ 2к (ДЗ, ТНЗНП, МФО, ОАПВ) ВЛ-500 кВ Вятка','Объект 333'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-29',8,'Вывод РЗ 2к (ДЗ, ТНЗНП, МФО, ОАПВ) ВЛ-500 кВ Вятка','Объект 333'</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
@@ -13505,7 +13505,7 @@
       </c>
       <c r="E335" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.3-30',8,'Ввод РЗ 2к (ДЗ, ТНЗНП, МФО, ОАПВ) ВЛ-500 кВ Вятка','Объект 334'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-30',8,'Ввод РЗ 2к (ДЗ, ТНЗНП, МФО, ОАПВ) ВЛ-500 кВ Вятка','Объект 334'</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
@@ -13523,7 +13523,7 @@
       </c>
       <c r="E336" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.3-31',8,'Вывод РЗ 3к (ДЗ, ТНЗНП, МФО, ОАПВ) ВЛ-500 кВ Вятка','Объект 335'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-31',8,'Вывод РЗ 3к (ДЗ, ТНЗНП, МФО, ОАПВ) ВЛ-500 кВ Вятка','Объект 335'</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
@@ -13541,7 +13541,7 @@
       </c>
       <c r="E337" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.3-32',8,'Ввод РЗ 3к (ДЗ, ТНЗНП, МФО, ОАПВ) ВЛ-500 кВ Вятка','Объект 336'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-32',8,'Ввод РЗ 3к (ДЗ, ТНЗНП, МФО, ОАПВ) ВЛ-500 кВ Вятка','Объект 336'</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
@@ -13559,7 +13559,7 @@
       </c>
       <c r="E338" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.3-33',8,'Вывод защит реактора 1к ВЛ-500 кВ Емелино','Объект 337'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-33',8,'Вывод защит реактора 1к ВЛ-500 кВ Емелино','Объект 337'</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
@@ -13577,7 +13577,7 @@
       </c>
       <c r="E339" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.3-34',8,'Ввод защит реактора 1к ВЛ-500 кВ Емелино','Объект 338'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-34',8,'Ввод защит реактора 1к ВЛ-500 кВ Емелино','Объект 338'</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
@@ -13595,7 +13595,7 @@
       </c>
       <c r="E340" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.3-35',8,'Вывод защит реактора 2к ВЛ-500 кВ Емелино','Объект 339'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-35',8,'Вывод защит реактора 2к ВЛ-500 кВ Емелино','Объект 339'</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
@@ -13613,7 +13613,7 @@
       </c>
       <c r="E341" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.3-36',8,'Ввод защит реактора 2к ВЛ-500 кВ Емелино','Объект 340'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-36',8,'Ввод защит реактора 2к ВЛ-500 кВ Емелино','Объект 340'</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
@@ -13631,7 +13631,7 @@
       </c>
       <c r="E342" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.3-37',8,'Вывод защит реактора 1к ВЛ-500 кВ Вятка','Объект 341'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-37',8,'Вывод защит реактора 1к ВЛ-500 кВ Вятка','Объект 341'</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
@@ -13649,7 +13649,7 @@
       </c>
       <c r="E343" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.3-38',8,'Ввод защит реактора 1к ВЛ-500 кВ Вятка','Объект 342'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-38',8,'Ввод защит реактора 1к ВЛ-500 кВ Вятка','Объект 342'</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
@@ -13667,7 +13667,7 @@
       </c>
       <c r="E344" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.3-39',8,'Вывод защит реактора 2к ВЛ-500 кВ Вятка','Объект 343'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-39',8,'Вывод защит реактора 2к ВЛ-500 кВ Вятка','Объект 343'</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
@@ -13685,7 +13685,7 @@
       </c>
       <c r="E345" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.3-40',8,'Ввод защит реактора 2к ВЛ-500 кВ Вятка','Объект 344'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-40',8,'Ввод защит реактора 2к ВЛ-500 кВ Вятка','Объект 344'</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
@@ -13703,7 +13703,7 @@
       </c>
       <c r="E346" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.3-41',8,'Вывод АУВ В-1-500 кВ Емелино','Объект 345'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-41',8,'Вывод АУВ В-1-500 кВ Емелино','Объект 345'</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
@@ -13721,7 +13721,7 @@
       </c>
       <c r="E347" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.3-42',8,'Ввод АУВ В-1-500 кВ Емелино','Объект 346'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-42',8,'Ввод АУВ В-1-500 кВ Емелино','Объект 346'</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
@@ -13739,7 +13739,7 @@
       </c>
       <c r="E348" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.3-43',8,'Вывод АУВ В-2-500 кВ Емелино','Объект 347'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-43',8,'Вывод АУВ В-2-500 кВ Емелино','Объект 347'</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
@@ -13757,7 +13757,7 @@
       </c>
       <c r="E349" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.3-44',8,'Ввод АУВ В-2-500 кВ Емелино','Объект 348'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-44',8,'Ввод АУВ В-2-500 кВ Емелино','Объект 348'</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
@@ -13775,7 +13775,7 @@
       </c>
       <c r="E350" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.3-45',8,'Вывод АУВ В-1-500 кВ КаГРЭС','Объект 349'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-45',8,'Вывод АУВ В-1-500 кВ КаГРЭС','Объект 349'</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
@@ -13793,7 +13793,7 @@
       </c>
       <c r="E351" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.3-46',8,'Ввод АУВ В-1-500 кВ КаГРЭС','Объект 350'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-46',8,'Ввод АУВ В-1-500 кВ КаГРЭС','Объект 350'</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
@@ -13811,7 +13811,7 @@
       </c>
       <c r="E352" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.3-47',8,'Вывод АУВ В-2-500 кВ КаГРЭС','Объект 351'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-47',8,'Вывод АУВ В-2-500 кВ КаГРЭС','Объект 351'</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.25">
@@ -13829,7 +13829,7 @@
       </c>
       <c r="E353" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.3-48',8,'Ввод АУВ В-2-500 кВ КаГРЭС','Объект 352'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-48',8,'Ввод АУВ В-2-500 кВ КаГРЭС','Объект 352'</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
@@ -13847,7 +13847,7 @@
       </c>
       <c r="E354" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.3-49',8,'Вывод АУВ В-1-500 кВ Вятка','Объект 353'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-49',8,'Вывод АУВ В-1-500 кВ Вятка','Объект 353'</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
@@ -13865,7 +13865,7 @@
       </c>
       <c r="E355" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.3-50',8,'Ввод АУВ В-1-500 кВ Вятка','Объект 354'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-50',8,'Ввод АУВ В-1-500 кВ Вятка','Объект 354'</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
@@ -13883,7 +13883,7 @@
       </c>
       <c r="E356" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.3-51',8,'Вывод АУВ В-2-500 кВ Вятка','Объект 355'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-51',8,'Вывод АУВ В-2-500 кВ Вятка','Объект 355'</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
@@ -13901,7 +13901,7 @@
       </c>
       <c r="E357" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.3-52',8,'Ввод АУВ В-2-500 кВ Вятка','Объект 356'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-52',8,'Ввод АУВ В-2-500 кВ Вятка','Объект 356'</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
@@ -13919,7 +13919,7 @@
       </c>
       <c r="E358" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.3-53',8,'Вывод АУВ В Реактора 500 кВ Емелино','Объект 357'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-53',8,'Вывод АУВ В Реактора 500 кВ Емелино','Объект 357'</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
@@ -13937,7 +13937,7 @@
       </c>
       <c r="E359" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.3-54',8,'Ввод АУВ В Реактора 500 кВ Емелино','Объект 358'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-54',8,'Ввод АУВ В Реактора 500 кВ Емелино','Объект 358'</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
@@ -13955,7 +13955,7 @@
       </c>
       <c r="E360" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.3-55',8,'Вывод АУВ В Реактора 500 кВ Вятка','Объект 359'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-55',8,'Вывод АУВ В Реактора 500 кВ Вятка','Объект 359'</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
@@ -13973,7 +13973,7 @@
       </c>
       <c r="E361" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.3-56',8,'Ввод АУВ В Реактора 500 кВ Вятка','Объект 360'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-56',8,'Ввод АУВ В Реактора 500 кВ Вятка','Объект 360'</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
@@ -13991,7 +13991,7 @@
       </c>
       <c r="E362" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.3-57',8,'Вывод АОПО (МКПА-1) АТГ-2','Объект 361'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-57',8,'Вывод АОПО (МКПА-1) АТГ-2','Объект 361'</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
@@ -14009,7 +14009,7 @@
       </c>
       <c r="E363" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.3-58',8,'Ввод АОПО (МКПА-1) АТГ-2','Объект 362'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-58',8,'Ввод АОПО (МКПА-1) АТГ-2','Объект 362'</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
@@ -14027,7 +14027,7 @@
       </c>
       <c r="E364" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.3-59',8,'Вывод АОПО (МКПА-2) АТГ-2','Объект 363'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-59',8,'Вывод АОПО (МКПА-2) АТГ-2','Объект 363'</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
@@ -14045,7 +14045,7 @@
       </c>
       <c r="E365" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.3-60',8,'Ввод АОПО (МКПА-2) АТГ-2','Объект 364'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-60',8,'Ввод АОПО (МКПА-2) АТГ-2','Объект 364'</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
@@ -14063,7 +14063,7 @@
       </c>
       <c r="E366" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.3-61',8,'Вывод АОПО (МКПА-1) АТГ-3','Объект 365'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-61',8,'Вывод АОПО (МКПА-1) АТГ-3','Объект 365'</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
@@ -14081,7 +14081,7 @@
       </c>
       <c r="E367" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.3-62',8,'Ввод АОПО (МКПА-1) АТГ-3','Объект 366'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-62',8,'Ввод АОПО (МКПА-1) АТГ-3','Объект 366'</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
@@ -14099,7 +14099,7 @@
       </c>
       <c r="E368" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.3-63',8,'Вывод АОПО (МКПА-2) АТГ-3','Объект 367'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-63',8,'Вывод АОПО (МКПА-2) АТГ-3','Объект 367'</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
@@ -14117,7 +14117,7 @@
       </c>
       <c r="E369" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.3-64',8,'Ввод АОПО (МКПА-2) АТГ-3','Объект 368'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-64',8,'Ввод АОПО (МКПА-2) АТГ-3','Объект 368'</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
@@ -14135,7 +14135,7 @@
       </c>
       <c r="E370" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.3-65',8,'Вывод МКПА-1 ВЛ 500 Емелино','Объект 369'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-65',8,'Вывод МКПА-1 ВЛ 500 Емелино','Объект 369'</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
@@ -14153,7 +14153,7 @@
       </c>
       <c r="E371" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.3-66',8,'Ввод МКПА-1 ВЛ 500 Емелино','Объект 370'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-66',8,'Ввод МКПА-1 ВЛ 500 Емелино','Объект 370'</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
@@ -14171,7 +14171,7 @@
       </c>
       <c r="E372" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.3-67',8,'Вывод МКПА-2 ВЛ 500 Емелино','Объект 371'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-67',8,'Вывод МКПА-2 ВЛ 500 Емелино','Объект 371'</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
@@ -14189,7 +14189,7 @@
       </c>
       <c r="E373" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.3-68',8,'Ввод МКПА-2 ВЛ 500 Емелино','Объект 372'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-68',8,'Ввод МКПА-2 ВЛ 500 Емелино','Объект 372'</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
@@ -14207,7 +14207,7 @@
       </c>
       <c r="E374" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.3-69',8,'Вывод МКПА-1 ВЛ 500 КаГРЭС','Объект 373'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-69',8,'Вывод МКПА-1 ВЛ 500 КаГРЭС','Объект 373'</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
@@ -14225,7 +14225,7 @@
       </c>
       <c r="E375" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.3-70',8,'Ввод МКПА-1 ВЛ 500 КаГРЭС','Объект 374'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-70',8,'Ввод МКПА-1 ВЛ 500 КаГРЭС','Объект 374'</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
@@ -14243,7 +14243,7 @@
       </c>
       <c r="E376" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.3-71',8,'Вывод МКПА-2 ВЛ 500 КаГРЭС','Объект 375'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-71',8,'Вывод МКПА-2 ВЛ 500 КаГРЭС','Объект 375'</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.25">
@@ -14261,7 +14261,7 @@
       </c>
       <c r="E377" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.3-72',8,'Ввод МКПА-2 ВЛ 500 КаГРЭС','Объект 376'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-72',8,'Ввод МКПА-2 ВЛ 500 КаГРЭС','Объект 376'</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
@@ -14279,7 +14279,7 @@
       </c>
       <c r="E378" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.3-73',8,'Вывод МКПА-1 ВЛ 500 Вятка','Объект 377'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-73',8,'Вывод МКПА-1 ВЛ 500 Вятка','Объект 377'</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
@@ -14297,7 +14297,7 @@
       </c>
       <c r="E379" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.3-74',8,'Ввод МКПА-1 ВЛ 500 Вятка','Объект 378'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-74',8,'Ввод МКПА-1 ВЛ 500 Вятка','Объект 378'</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
@@ -14315,7 +14315,7 @@
       </c>
       <c r="E380" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.3-75',8,'Вывод МКПА-2 ВЛ 500 Вятка','Объект 379'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-75',8,'Вывод МКПА-2 ВЛ 500 Вятка','Объект 379'</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.25">
@@ -14333,7 +14333,7 @@
       </c>
       <c r="E381" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.3-76',8,'Ввод МКПА-2 ВЛ 500 Вятка','Объект 380'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-76',8,'Ввод МКПА-2 ВЛ 500 Вятка','Объект 380'</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
@@ -14351,7 +14351,7 @@
       </c>
       <c r="E382" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.3-77',8,'Вывод в ремонт полукомплекта 1 АРУ','Объект 381'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-77',8,'Вывод в ремонт полукомплекта 1 АРУ','Объект 381'</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.25">
@@ -14369,7 +14369,7 @@
       </c>
       <c r="E383" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.3-78',8,'Ввод в работу полукомплекта 1 АРУ','Объект 382'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-78',8,'Ввод в работу полукомплекта 1 АРУ','Объект 382'</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.25">
@@ -14387,7 +14387,7 @@
       </c>
       <c r="E384" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.3-79',8,'Вывод в ремонт полукомплекта 2 АРУ.','Объект 383'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-79',8,'Вывод в ремонт полукомплекта 2 АРУ.','Объект 383'</v>
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.25">
@@ -14405,7 +14405,7 @@
       </c>
       <c r="E385" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.3-80',8,'Ввод в работу полукомплекта 2 АРУ','Объект 384'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-80',8,'Ввод в работу полукомплекта 2 АРУ','Объект 384'</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.25">
@@ -14422,8 +14422,8 @@
         <v>1380</v>
       </c>
       <c r="E386" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.3-81',8,'Вывод в ремонт полукомплектов 1 и 2 АРУ на базе УПАЭ','Объект 385'</v>
+        <f t="shared" ref="E386:E449" si="6">CONCATENATE("INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '",A386,"',",B386,",'",C386,"','",D386,"'")</f>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-81',8,'Вывод в ремонт полукомплектов 1 и 2 АРУ на базе УПАЭ','Объект 385'</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.25">
@@ -14440,8 +14440,8 @@
         <v>1381</v>
       </c>
       <c r="E387" s="1" t="str">
-        <f t="shared" ref="E387:E450" si="6">CONCATENATE("INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '",A387,"',",B387,",'",C387,"','",D387,"'")</f>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.3-82',8,'Ввод в работу полукомплектов 1 и 2 АРУ на базе УПАЭ','Объект 386'</v>
+        <f t="shared" si="6"/>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-82',8,'Ввод в работу полукомплектов 1 и 2 АРУ на базе УПАЭ','Объект 386'</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.25">
@@ -14459,7 +14459,7 @@
       </c>
       <c r="E388" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.3-83',8,'Вывод ОАПВ ВЛ-500 кВ Емелино (ТАПВ в работе)','Объект 387'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-83',8,'Вывод ОАПВ ВЛ-500 кВ Емелино (ТАПВ в работе)','Объект 387'</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.25">
@@ -14477,7 +14477,7 @@
       </c>
       <c r="E389" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.3-84',8,'Ввод в работу ОАПВ ВЛ-500 кВ Емелино','Объект 388'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-84',8,'Ввод в работу ОАПВ ВЛ-500 кВ Емелино','Объект 388'</v>
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.25">
@@ -14495,7 +14495,7 @@
       </c>
       <c r="E390" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.3-85',8,'Вывод ОАПВ ВЛ-500 кВ КаГРЭС (ТАПВ в работе)','Объект 389'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-85',8,'Вывод ОАПВ ВЛ-500 кВ КаГРЭС (ТАПВ в работе)','Объект 389'</v>
       </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.25">
@@ -14513,7 +14513,7 @@
       </c>
       <c r="E391" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.3-86',8,'Ввод в работу ОАПВ ВЛ-500 кВ КаГРЭС','Объект 390'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-86',8,'Ввод в работу ОАПВ ВЛ-500 кВ КаГРЭС','Объект 390'</v>
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.25">
@@ -14531,7 +14531,7 @@
       </c>
       <c r="E392" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.3-87',8,'Вывод ОАПВ ВЛ-500 кВ Вятка (ТАПВ в работе)','Объект 391'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-87',8,'Вывод ОАПВ ВЛ-500 кВ Вятка (ТАПВ в работе)','Объект 391'</v>
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.25">
@@ -14549,7 +14549,7 @@
       </c>
       <c r="E393" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '6.3-88',8,'Ввод в работу ОАПВ ВЛ-500 кВ Вятка','Объект 392'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-88',8,'Ввод в работу ОАПВ ВЛ-500 кВ Вятка','Объект 392'</v>
       </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.25">
@@ -14567,7 +14567,7 @@
       </c>
       <c r="E394" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '7.1-01',9,'Вывод передатчика АКА-676 кГц ВЛ-220 кВ Ижевск 1.','Объект 393'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '7.1-01',9,'Вывод передатчика АКА-676 кГц ВЛ-220 кВ Ижевск 1.','Объект 393'</v>
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.25">
@@ -14585,7 +14585,7 @@
       </c>
       <c r="E395" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '7.1-02',9,'Ввод передатчика АКА-676 кГц ВЛ-220 кВ Ижевск 1.','Объект 394'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '7.1-02',9,'Ввод передатчика АКА-676 кГц ВЛ-220 кВ Ижевск 1.','Объект 394'</v>
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.25">
@@ -14603,7 +14603,7 @@
       </c>
       <c r="E396" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '7.1-03',9,'Вывод приемника АКА-592 кГц ВЛ-220 кВ Ижевск 1.','Объект 395'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '7.1-03',9,'Вывод приемника АКА-592 кГц ВЛ-220 кВ Ижевск 1.','Объект 395'</v>
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.25">
@@ -14621,7 +14621,7 @@
       </c>
       <c r="E397" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '7.1-04',9,'Ввод приемника АКА-592 кГц ВЛ-220 кВ Ижевск 1.','Объект 396'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '7.1-04',9,'Ввод приемника АКА-592 кГц ВЛ-220 кВ Ижевск 1.','Объект 396'</v>
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.25">
@@ -14639,7 +14639,7 @@
       </c>
       <c r="E398" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '7.1-05',9,'Вывод передатчика АКА-548 кГц ВЛ-220 кВ Ижевск 2.','Объект 397'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '7.1-05',9,'Вывод передатчика АКА-548 кГц ВЛ-220 кВ Ижевск 2.','Объект 397'</v>
       </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.25">
@@ -14657,7 +14657,7 @@
       </c>
       <c r="E399" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '7.1-06',9,'Ввод передатчика АКА-548 кГц ВЛ-220 кВ Ижевск 2.','Объект 398'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '7.1-06',9,'Ввод передатчика АКА-548 кГц ВЛ-220 кВ Ижевск 2.','Объект 398'</v>
       </c>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.25">
@@ -14675,7 +14675,7 @@
       </c>
       <c r="E400" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '7.1-07',9,'Вывод приемника АКА-580 кГц ВЛ-220 кВ Ижевск 2.','Объект 399'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '7.1-07',9,'Вывод приемника АКА-580 кГц ВЛ-220 кВ Ижевск 2.','Объект 399'</v>
       </c>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.25">
@@ -14693,7 +14693,7 @@
       </c>
       <c r="E401" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '7.1-08',9,'Ввод приемника АКА-580 кГц ВЛ-220 кВ Ижевск 2.','Объект 400'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '7.1-08',9,'Ввод приемника АКА-580 кГц ВЛ-220 кВ Ижевск 2.','Объект 400'</v>
       </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.25">
@@ -14711,7 +14711,7 @@
       </c>
       <c r="E402" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '7.1-09',9,'Вывод передатчика АКА-328 кГц ВЛ-220 кВ Светлая.','Объект 401'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '7.1-09',9,'Вывод передатчика АКА-328 кГц ВЛ-220 кВ Светлая.','Объект 401'</v>
       </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.25">
@@ -14729,7 +14729,7 @@
       </c>
       <c r="E403" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '7.1-10',9,'Ввод передатчика АКА-328 кГц ВЛ-220 кВ Светлая.','Объект 402'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '7.1-10',9,'Ввод передатчика АКА-328 кГц ВЛ-220 кВ Светлая.','Объект 402'</v>
       </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.25">
@@ -14747,7 +14747,7 @@
       </c>
       <c r="E404" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '7.1-11',9,'Вывод приемника АКА-936 кГц ВЛ-220 кВ Каучук 1.','Объект 403'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '7.1-11',9,'Вывод приемника АКА-936 кГц ВЛ-220 кВ Каучук 1.','Объект 403'</v>
       </c>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.25">
@@ -14765,7 +14765,7 @@
       </c>
       <c r="E405" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '7.1-12',9,'Ввод приемника АКА-936 кГц ВЛ-220 кВ Каучук 1.','Объект 404'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '7.1-12',9,'Ввод приемника АКА-936 кГц ВЛ-220 кВ Каучук 1.','Объект 404'</v>
       </c>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.25">
@@ -14783,7 +14783,7 @@
       </c>
       <c r="E406" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '7.1-13',9,'Вывод приемника АКА-648 кГц ВЛ-220 кВ Ижевск 2.','Объект 405'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '7.1-13',9,'Вывод приемника АКА-648 кГц ВЛ-220 кВ Ижевск 2.','Объект 405'</v>
       </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.25">
@@ -14801,7 +14801,7 @@
       </c>
       <c r="E407" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '7.1-14',9,'Ввод приемника АКА-648 кГц ВЛ-220 кВ Ижевск 2.','Объект 406'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '7.1-14',9,'Ввод приемника АКА-648 кГц ВЛ-220 кВ Ижевск 2.','Объект 406'</v>
       </c>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.25">
@@ -14819,7 +14819,7 @@
       </c>
       <c r="E408" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '7.2-01',10,'Вывод передатчика АКА-16 кГц ВЛ-500 кВ Емелино.','Объект 407'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '7.2-01',10,'Вывод передатчика АКА-16 кГц ВЛ-500 кВ Емелино.','Объект 407'</v>
       </c>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.25">
@@ -14837,7 +14837,7 @@
       </c>
       <c r="E409" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '7.2-02',10,'Ввод передатчика АКА-16 кГц ВЛ-500 кВ Емелино.','Объект 408'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '7.2-02',10,'Ввод передатчика АКА-16 кГц ВЛ-500 кВ Емелино.','Объект 408'</v>
       </c>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.25">
@@ -14855,7 +14855,7 @@
       </c>
       <c r="E410" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '7.2-03',10,'Вывод приемника АКА-20 кГц ВЛ-500 кВ Емелино.','Объект 409'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '7.2-03',10,'Вывод приемника АКА-20 кГц ВЛ-500 кВ Емелино.','Объект 409'</v>
       </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.25">
@@ -14873,7 +14873,7 @@
       </c>
       <c r="E411" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '7.2-04',10,'Ввод приемника АКА-20 кГц ВЛ-500 кВ Емелино.','Объект 410'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '7.2-04',10,'Ввод приемника АКА-20 кГц ВЛ-500 кВ Емелино.','Объект 410'</v>
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.25">
@@ -14891,7 +14891,7 @@
       </c>
       <c r="E412" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '7.2-05',10,'Вывод приема-передатчика АКСТ-406 кГц ВЛ-500 кВ КаГРЭС.','Объект 411'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '7.2-05',10,'Вывод приема-передатчика АКСТ-406 кГц ВЛ-500 кВ КаГРЭС.','Объект 411'</v>
       </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.25">
@@ -14909,7 +14909,7 @@
       </c>
       <c r="E413" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '7.2-06',10,'Ввод приема-передатчика АКСТ-406 кГц ВЛ-500 кВ КаГРЭС.','Объект 412'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '7.2-06',10,'Ввод приема-передатчика АКСТ-406 кГц ВЛ-500 кВ КаГРЭС.','Объект 412'</v>
       </c>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.25">
@@ -14927,7 +14927,7 @@
       </c>
       <c r="E414" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '7.2-07',10,'Вывод передатчика АКА-468 кГц ВЛ-500 кВ КаГРЭС.','Объект 413'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '7.2-07',10,'Вывод передатчика АКА-468 кГц ВЛ-500 кВ КаГРЭС.','Объект 413'</v>
       </c>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.25">
@@ -14945,7 +14945,7 @@
       </c>
       <c r="E415" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '7.2-08',10,'Ввод передатчика АКА-468 кГц ВЛ-500 кВ КаГРЭС.','Объект 414'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '7.2-08',10,'Ввод передатчика АКА-468 кГц ВЛ-500 кВ КаГРЭС.','Объект 414'</v>
       </c>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.25">
@@ -14963,7 +14963,7 @@
       </c>
       <c r="E416" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '7.2-09',10,'Вывод приемника АКА-512 кГц ВЛ-500 кВ КаГРЭС.','Объект 415'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '7.2-09',10,'Вывод приемника АКА-512 кГц ВЛ-500 кВ КаГРЭС.','Объект 415'</v>
       </c>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.25">
@@ -14981,7 +14981,7 @@
       </c>
       <c r="E417" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '7.2-10',10,'Ввод приемника АКА-512 кГц ВЛ-500 кВ КаГРЭС.','Объект 416'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '7.2-10',10,'Ввод приемника АКА-512 кГц ВЛ-500 кВ КаГРЭС.','Объект 416'</v>
       </c>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.25">
@@ -14999,7 +14999,7 @@
       </c>
       <c r="E418" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '7.2-11',10,'Вывод приемника АКА-96 кГц ВЛ-500 кВ Вятка.','Объект 417'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '7.2-11',10,'Вывод приемника АКА-96 кГц ВЛ-500 кВ Вятка.','Объект 417'</v>
       </c>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.25">
@@ -15017,7 +15017,7 @@
       </c>
       <c r="E419" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '7.2-12',10,'Ввод приемника АКА-96 кГц ВЛ-500 кВ Вятка.','Объект 418'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '7.2-12',10,'Ввод приемника АКА-96 кГц ВЛ-500 кВ Вятка.','Объект 418'</v>
       </c>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.25">
@@ -15035,7 +15035,7 @@
       </c>
       <c r="E420" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '7.2-13',10,'Вывод передатчика АКА-116 кГц ВЛ-500 кВ Вятка.','Объект 419'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '7.2-13',10,'Вывод передатчика АКА-116 кГц ВЛ-500 кВ Вятка.','Объект 419'</v>
       </c>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.25">
@@ -15053,7 +15053,7 @@
       </c>
       <c r="E421" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '7.2-14',10,'Ввод передатчика АКА-116 кГц ВЛ-500 кВ Вятка.','Объект 420'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '7.2-14',10,'Ввод передатчика АКА-116 кГц ВЛ-500 кВ Вятка.','Объект 420'</v>
       </c>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.25">
@@ -15071,7 +15071,7 @@
       </c>
       <c r="E422" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '8-01',11,'Вывод в ремонт КРУ-1','Объект 421'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-01',11,'Вывод в ремонт КРУ-1','Объект 421'</v>
       </c>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.25">
@@ -15089,7 +15089,7 @@
       </c>
       <c r="E423" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '8-02',11,'Ввод в работу КРУ-1','Объект 422'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-02',11,'Ввод в работу КРУ-1','Объект 422'</v>
       </c>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.25">
@@ -15107,7 +15107,7 @@
       </c>
       <c r="E424" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '8-03',11,'Вывод в ремонт КРУ-2','Объект 423'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-03',11,'Вывод в ремонт КРУ-2','Объект 423'</v>
       </c>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.25">
@@ -15125,7 +15125,7 @@
       </c>
       <c r="E425" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '8-04',11,'Ввод в работу КРУ-2','Объект 424'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-04',11,'Ввод в работу КРУ-2','Объект 424'</v>
       </c>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.25">
@@ -15143,7 +15143,7 @@
       </c>
       <c r="E426" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '8-05',11,'Вывод в ремонт КРУ-3','Объект 425'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-05',11,'Вывод в ремонт КРУ-3','Объект 425'</v>
       </c>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.25">
@@ -15161,7 +15161,7 @@
       </c>
       <c r="E427" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '8-06',11,'Ввод в работу КРУ-3','Объект 426'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-06',11,'Ввод в работу КРУ-3','Объект 426'</v>
       </c>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.25">
@@ -15179,7 +15179,7 @@
       </c>
       <c r="E428" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '8-07',11,'Вывод в ремонт перемычки КРУ-1 - КРУ-2','Объект 427'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-07',11,'Вывод в ремонт перемычки КРУ-1 - КРУ-2','Объект 427'</v>
       </c>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.25">
@@ -15197,7 +15197,7 @@
       </c>
       <c r="E429" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '8-08',11,'Ввод в работу перемычки КРУ-1 - КРУ-2','Объект 428'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-08',11,'Ввод в работу перемычки КРУ-1 - КРУ-2','Объект 428'</v>
       </c>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.25">
@@ -15215,7 +15215,7 @@
       </c>
       <c r="E430" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '8-09',11,'Вывод в ремонт перемычки КРУ-1 - КРУ-3','Объект 429'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-09',11,'Вывод в ремонт перемычки КРУ-1 - КРУ-3','Объект 429'</v>
       </c>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.25">
@@ -15233,7 +15233,7 @@
       </c>
       <c r="E431" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '8-10',11,'Ввод в работу перемычки КРУ-1 - КРУ-3','Объект 430'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-10',11,'Ввод в работу перемычки КРУ-1 - КРУ-3','Объект 430'</v>
       </c>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.25">
@@ -15251,7 +15251,7 @@
       </c>
       <c r="E432" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '8-11',11,'Вывод в ремонт перемычки КРУ-2 - КРУ-3','Объект 431'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-11',11,'Вывод в ремонт перемычки КРУ-2 - КРУ-3','Объект 431'</v>
       </c>
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.25">
@@ -15269,7 +15269,7 @@
       </c>
       <c r="E433" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '8-12',11,'Ввод в работу перемычки КРУ-2 - КРУ-3','Объект 432'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-12',11,'Ввод в работу перемычки КРУ-2 - КРУ-3','Объект 432'</v>
       </c>
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.25">
@@ -15287,7 +15287,7 @@
       </c>
       <c r="E434" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '8-13',11,'Вывод в ремонт трансформатора 21Т','Объект 433'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-13',11,'Вывод в ремонт трансформатора 21Т','Объект 433'</v>
       </c>
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.25">
@@ -15305,7 +15305,7 @@
       </c>
       <c r="E435" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '8-14',11,'Ввод в работу трансформатора 21Т','Объект 434'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-14',11,'Ввод в работу трансформатора 21Т','Объект 434'</v>
       </c>
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.25">
@@ -15323,7 +15323,7 @@
       </c>
       <c r="E436" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '8-15',11,'Вывод в ремонт трансформатора 22Т','Объект 435'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-15',11,'Вывод в ремонт трансформатора 22Т','Объект 435'</v>
       </c>
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.25">
@@ -15341,7 +15341,7 @@
       </c>
       <c r="E437" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '8-16',11,'Ввод в работу трансформатора 22Т','Объект 436'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-16',11,'Ввод в работу трансформатора 22Т','Объект 436'</v>
       </c>
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.25">
@@ -15359,7 +15359,7 @@
       </c>
       <c r="E438" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '8-17',11,'Вывод в ремонт трансформатора 23Т','Объект 437'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-17',11,'Вывод в ремонт трансформатора 23Т','Объект 437'</v>
       </c>
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.25">
@@ -15377,7 +15377,7 @@
       </c>
       <c r="E439" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '8-18',11,'Ввод в работу трансформатора 23Т','Объект 438'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-18',11,'Ввод в работу трансформатора 23Т','Объект 438'</v>
       </c>
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.25">
@@ -15395,7 +15395,7 @@
       </c>
       <c r="E440" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '8-19',11,'Вывод в ремонт трансформатора 24Т','Объект 439'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-19',11,'Вывод в ремонт трансформатора 24Т','Объект 439'</v>
       </c>
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.25">
@@ -15413,7 +15413,7 @@
       </c>
       <c r="E441" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '8-20',11,'Ввод в работу трансформатора 24Т','Объект 440'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-20',11,'Ввод в работу трансформатора 24Т','Объект 440'</v>
       </c>
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.25">
@@ -15431,7 +15431,7 @@
       </c>
       <c r="E442" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '8-21',11,'Вывод в ремонт трансформатора 25Т','Объект 441'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-21',11,'Вывод в ремонт трансформатора 25Т','Объект 441'</v>
       </c>
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.25">
@@ -15449,7 +15449,7 @@
       </c>
       <c r="E443" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '8-22',11,'Ввод в работу трансформатора 25Т','Объект 442'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-22',11,'Ввод в работу трансформатора 25Т','Объект 442'</v>
       </c>
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.25">
@@ -15467,7 +15467,7 @@
       </c>
       <c r="E444" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '8-23',11,'Вывод в ремонт трансформатора 26Т','Объект 443'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-23',11,'Вывод в ремонт трансформатора 26Т','Объект 443'</v>
       </c>
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.25">
@@ -15485,7 +15485,7 @@
       </c>
       <c r="E445" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '8-24',11,'Ввод в работу трансформатора 26Т','Объект 444'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-24',11,'Ввод в работу трансформатора 26Т','Объект 444'</v>
       </c>
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.25">
@@ -15503,7 +15503,7 @@
       </c>
       <c r="E446" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '8-25',11,'Вывод в ремонт трансформатора 27Т','Объект 445'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-25',11,'Вывод в ремонт трансформатора 27Т','Объект 445'</v>
       </c>
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.25">
@@ -15521,7 +15521,7 @@
       </c>
       <c r="E447" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '8-26',11,'Ввод в работу трансформатора 27Т','Объект 446'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-26',11,'Ввод в работу трансформатора 27Т','Объект 446'</v>
       </c>
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.25">
@@ -15539,7 +15539,7 @@
       </c>
       <c r="E448" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '8-27',11,'Вывод в ремонт трансформатора 28Т','Объект 447'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-27',11,'Вывод в ремонт трансформатора 28Т','Объект 447'</v>
       </c>
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.25">
@@ -15557,7 +15557,7 @@
       </c>
       <c r="E449" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '8-28',11,'Ввод в работу трансформатора 28Т','Объект 448'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-28',11,'Ввод в работу трансформатора 28Т','Объект 448'</v>
       </c>
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.25">
@@ -15574,8 +15574,8 @@
         <v>1444</v>
       </c>
       <c r="E450" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '8-29',11,'Вывод в ремонт трансформатора 29Т','Объект 449'</v>
+        <f t="shared" ref="E450:E487" si="7">CONCATENATE("INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '",A450,"',",B450,",'",C450,"','",D450,"'")</f>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-29',11,'Вывод в ремонт трансформатора 29Т','Объект 449'</v>
       </c>
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.25">
@@ -15592,8 +15592,8 @@
         <v>1445</v>
       </c>
       <c r="E451" s="1" t="str">
-        <f t="shared" ref="E451:E487" si="7">CONCATENATE("INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '",A451,"',",B451,",'",C451,"','",D451,"'")</f>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '8-30',11,'Ввод в работу трансформатора 29Т','Объект 450'</v>
+        <f t="shared" si="7"/>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-30',11,'Ввод в работу трансформатора 29Т','Объект 450'</v>
       </c>
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.25">
@@ -15611,7 +15611,7 @@
       </c>
       <c r="E452" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '8-31',11,'Вывод в ремонт трансформатора 30Т','Объект 451'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-31',11,'Вывод в ремонт трансформатора 30Т','Объект 451'</v>
       </c>
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.25">
@@ -15629,7 +15629,7 @@
       </c>
       <c r="E453" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '8-32',11,'Ввод в работу трансформатора 30Т','Объект 452'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-32',11,'Ввод в работу трансформатора 30Т','Объект 452'</v>
       </c>
     </row>
     <row r="454" spans="1:5" x14ac:dyDescent="0.25">
@@ -15647,7 +15647,7 @@
       </c>
       <c r="E454" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '8-33',11,'Вывод в ремонт трансформатора 31Т','Объект 453'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-33',11,'Вывод в ремонт трансформатора 31Т','Объект 453'</v>
       </c>
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.25">
@@ -15665,7 +15665,7 @@
       </c>
       <c r="E455" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '8-34',11,'Ввод в работу трансформатора 31Т','Объект 454'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-34',11,'Ввод в работу трансформатора 31Т','Объект 454'</v>
       </c>
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.25">
@@ -15683,7 +15683,7 @@
       </c>
       <c r="E456" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '8-35',11,'Вывод в ремонт трансформатора 32Т','Объект 455'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-35',11,'Вывод в ремонт трансформатора 32Т','Объект 455'</v>
       </c>
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.25">
@@ -15701,7 +15701,7 @@
       </c>
       <c r="E457" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '8-36',11,'Ввод в работу трансформатора 32Т','Объект 456'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-36',11,'Ввод в работу трансформатора 32Т','Объект 456'</v>
       </c>
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.25">
@@ -15719,7 +15719,7 @@
       </c>
       <c r="E458" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '8-37',11,'Вывод в ремонт трансформатора 33Т','Объект 457'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-37',11,'Вывод в ремонт трансформатора 33Т','Объект 457'</v>
       </c>
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.25">
@@ -15737,7 +15737,7 @@
       </c>
       <c r="E459" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '8-38',11,'Ввод в работу трансформатора 33Т','Объект 458'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-38',11,'Ввод в работу трансформатора 33Т','Объект 458'</v>
       </c>
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.25">
@@ -15755,7 +15755,7 @@
       </c>
       <c r="E460" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '8-39',11,'Вывод в ремонт трансформатора 34Т','Объект 459'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-39',11,'Вывод в ремонт трансформатора 34Т','Объект 459'</v>
       </c>
     </row>
     <row r="461" spans="1:5" x14ac:dyDescent="0.25">
@@ -15773,7 +15773,7 @@
       </c>
       <c r="E461" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '8-40',11,'Ввод в работу трансформатора 34Т','Объект 460'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-40',11,'Ввод в работу трансформатора 34Т','Объект 460'</v>
       </c>
     </row>
     <row r="462" spans="1:5" x14ac:dyDescent="0.25">
@@ -15791,7 +15791,7 @@
       </c>
       <c r="E462" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '8-41',11,'Вывод в ремонт трансформатора 35Т','Объект 461'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-41',11,'Вывод в ремонт трансформатора 35Т','Объект 461'</v>
       </c>
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.25">
@@ -15809,7 +15809,7 @@
       </c>
       <c r="E463" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '8-42',11,'Ввод в работу трансформатора 35Т','Объект 462'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-42',11,'Ввод в работу трансформатора 35Т','Объект 462'</v>
       </c>
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.25">
@@ -15827,7 +15827,7 @@
       </c>
       <c r="E464" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '8-43',11,'Вывод в ремонт трансформатора 36Т','Объект 463'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-43',11,'Вывод в ремонт трансформатора 36Т','Объект 463'</v>
       </c>
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.25">
@@ -15845,7 +15845,7 @@
       </c>
       <c r="E465" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '8-44',11,'Ввод в работу трансформатора 36Т','Объект 464'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-44',11,'Ввод в работу трансформатора 36Т','Объект 464'</v>
       </c>
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.25">
@@ -15863,7 +15863,7 @@
       </c>
       <c r="E466" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '8-45',11,'Вывод в ремонт трансформатора 37Т','Объект 465'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-45',11,'Вывод в ремонт трансформатора 37Т','Объект 465'</v>
       </c>
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.25">
@@ -15881,7 +15881,7 @@
       </c>
       <c r="E467" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '8-46',11,'Ввод в работу трансформатора 37Т','Объект 466'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-46',11,'Ввод в работу трансформатора 37Т','Объект 466'</v>
       </c>
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.25">
@@ -15899,7 +15899,7 @@
       </c>
       <c r="E468" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '8-47',11,'Вывод в ремонт трансформатора 38Т','Объект 467'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-47',11,'Вывод в ремонт трансформатора 38Т','Объект 467'</v>
       </c>
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.25">
@@ -15917,7 +15917,7 @@
       </c>
       <c r="E469" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '8-48',11,'Ввод в работу трансформатора 38Т','Объект 468'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-48',11,'Ввод в работу трансформатора 38Т','Объект 468'</v>
       </c>
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.25">
@@ -15935,7 +15935,7 @@
       </c>
       <c r="E470" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '8-49',11,'Вывод в ремонт трансформатора ТП-1','Объект 469'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-49',11,'Вывод в ремонт трансформатора ТП-1','Объект 469'</v>
       </c>
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.25">
@@ -15953,7 +15953,7 @@
       </c>
       <c r="E471" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '8-50',11,'Ввод в работу трансформатора ТП-1','Объект 470'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-50',11,'Ввод в работу трансформатора ТП-1','Объект 470'</v>
       </c>
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.25">
@@ -15971,7 +15971,7 @@
       </c>
       <c r="E472" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '8-51',11,'Вывод в ремонт трансформатора ТП-2','Объект 471'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-51',11,'Вывод в ремонт трансформатора ТП-2','Объект 471'</v>
       </c>
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.25">
@@ -15989,7 +15989,7 @@
       </c>
       <c r="E473" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '8-52',11,'Ввод в работу трансформатора ТП-2','Объект 472'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-52',11,'Ввод в работу трансформатора ТП-2','Объект 472'</v>
       </c>
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.25">
@@ -16007,7 +16007,7 @@
       </c>
       <c r="E474" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '8-53',11,'Вывод в ремонт трансформатора ТВИ','Объект 473'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-53',11,'Вывод в ремонт трансформатора ТВИ','Объект 473'</v>
       </c>
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.25">
@@ -16025,7 +16025,7 @@
       </c>
       <c r="E475" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '8-54',11,'Ввод в резерв трансформатора ТВИ','Объект 474'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-54',11,'Ввод в резерв трансформатора ТВИ','Объект 474'</v>
       </c>
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.25">
@@ -16043,7 +16043,7 @@
       </c>
       <c r="E476" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '8-55',11,'Вывод в ремонт насоса №1 -1ВС','Объект 475'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-55',11,'Вывод в ремонт насоса №1 -1ВС','Объект 475'</v>
       </c>
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.25">
@@ -16061,7 +16061,7 @@
       </c>
       <c r="E477" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '8-56',11,'Ввод в резерв насоса №1 -1ВС','Объект 476'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-56',11,'Ввод в резерв насоса №1 -1ВС','Объект 476'</v>
       </c>
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.25">
@@ -16079,7 +16079,7 @@
       </c>
       <c r="E478" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '8-57',11,'Вывод в ремонт насоса №1 -2ВС','Объект 477'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-57',11,'Вывод в ремонт насоса №1 -2ВС','Объект 477'</v>
       </c>
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.25">
@@ -16097,7 +16097,7 @@
       </c>
       <c r="E479" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '8-58',11,'Ввод в резерв насоса №1 -2ВС','Объект 478'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-58',11,'Ввод в резерв насоса №1 -2ВС','Объект 478'</v>
       </c>
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.25">
@@ -16115,7 +16115,7 @@
       </c>
       <c r="E480" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '8-59',11,'Вывод в ремонт КЛ Шлюз-1','Объект 479'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-59',11,'Вывод в ремонт КЛ Шлюз-1','Объект 479'</v>
       </c>
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.25">
@@ -16133,7 +16133,7 @@
       </c>
       <c r="E481" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '8-60',11,'Ввод в работу КЛ Шлюз-1','Объект 480'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-60',11,'Ввод в работу КЛ Шлюз-1','Объект 480'</v>
       </c>
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.25">
@@ -16151,7 +16151,7 @@
       </c>
       <c r="E482" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '8-61',11,'Вывод в ремонт КЛ Шлюз-2','Объект 481'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-61',11,'Вывод в ремонт КЛ Шлюз-2','Объект 481'</v>
       </c>
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.25">
@@ -16169,7 +16169,7 @@
       </c>
       <c r="E483" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '8-62',11,'Ввод в работу КЛ Шлюз-2','Объект 482'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-62',11,'Ввод в работу КЛ Шлюз-2','Объект 482'</v>
       </c>
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.25">
@@ -16187,7 +16187,7 @@
       </c>
       <c r="E484" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '8-63',11,'Вывод в ремонт КЛ Фильтровальная-1','Объект 483'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-63',11,'Вывод в ремонт КЛ Фильтровальная-1','Объект 483'</v>
       </c>
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.25">
@@ -16205,7 +16205,7 @@
       </c>
       <c r="E485" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '8-64',11,'Ввод в работу КЛ Фильтровальная-1','Объект 484'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-64',11,'Ввод в работу КЛ Фильтровальная-1','Объект 484'</v>
       </c>
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.25">
@@ -16223,7 +16223,7 @@
       </c>
       <c r="E486" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '8-65',11,'Вывод в ремонт КЛ Фильтровальная-2','Объект 485'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-65',11,'Вывод в ремонт КЛ Фильтровальная-2','Объект 485'</v>
       </c>
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.25">
@@ -16241,7 +16241,7 @@
       </c>
       <c r="E487" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,Object) SELECT '8-66',11,'Ввод в работу КЛ Фильтровальная-2','Объект 486'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-66',11,'Ввод в работу КЛ Фильтровальная-2','Объект 486'</v>
       </c>
     </row>
   </sheetData>

--- a/BlankJournal/Data/ПЕРЕЧЕНЬ ТБП 23 09 15.xlsx
+++ b/BlankJournal/Data/ПЕРЕЧЕНЬ ТБП 23 09 15.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="19320" windowHeight="11565" tabRatio="753" firstSheet="1" activeTab="13"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="19320" windowHeight="11505" tabRatio="753" firstSheet="1" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="титул" sheetId="13" r:id="rId1"/>
@@ -20,7 +20,8 @@
     <sheet name="7.1 АКА ВЛ 220" sheetId="17" r:id="rId11"/>
     <sheet name="7.2 АКА ВЛ 500" sheetId="20" r:id="rId12"/>
     <sheet name="8. КРУ 6кВ" sheetId="22" r:id="rId13"/>
-    <sheet name="Лист1" sheetId="24" r:id="rId14"/>
+    <sheet name="9. ЩПТ 0,4" sheetId="25" r:id="rId14"/>
+    <sheet name="Лист1" sheetId="24" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'1.ГА'!#REF!</definedName>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3411" uniqueCount="1485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3475" uniqueCount="1549">
   <si>
     <t>Вывод передатчика АКА-16 кГц ВЛ-500 кВ Емелино.</t>
   </si>
@@ -4509,6 +4510,198 @@
   </si>
   <si>
     <t>Объект 0</t>
+  </si>
+  <si>
+    <t>9-01</t>
+  </si>
+  <si>
+    <t>Вывод в ремонт 1П</t>
+  </si>
+  <si>
+    <t>9-02</t>
+  </si>
+  <si>
+    <t>Ввод в работу 1П</t>
+  </si>
+  <si>
+    <t>9-03</t>
+  </si>
+  <si>
+    <t>Вывод в ремонт АБ-1</t>
+  </si>
+  <si>
+    <t>9-04</t>
+  </si>
+  <si>
+    <t>Ввод в работу АБ-1</t>
+  </si>
+  <si>
+    <t>9-05</t>
+  </si>
+  <si>
+    <t>Вывод из работы УЗП-1 и ввод в работу ВАЗП-1</t>
+  </si>
+  <si>
+    <t>9-06</t>
+  </si>
+  <si>
+    <t>Вывод из работы ВАЗП-1 и ввод в работу УЗП-1</t>
+  </si>
+  <si>
+    <t>9-07</t>
+  </si>
+  <si>
+    <t>Вывод 1 секции и  секционной панели щита 2П</t>
+  </si>
+  <si>
+    <t>9-08</t>
+  </si>
+  <si>
+    <t>Ввод 1 секции и секционной панели 2П</t>
+  </si>
+  <si>
+    <t>9-09</t>
+  </si>
+  <si>
+    <t>Вывод в ремонт 2 секции щита 2П</t>
+  </si>
+  <si>
+    <t>9-10</t>
+  </si>
+  <si>
+    <t>Ввод в работу 2 секции щита 2П</t>
+  </si>
+  <si>
+    <t>9-11</t>
+  </si>
+  <si>
+    <t>Вывод в ремонт вводной панели щита 2П</t>
+  </si>
+  <si>
+    <t>9-12</t>
+  </si>
+  <si>
+    <t>Ввод в работу вводной панели щита 2П</t>
+  </si>
+  <si>
+    <t>9-13</t>
+  </si>
+  <si>
+    <t>Вывод в ремонт АБ-2</t>
+  </si>
+  <si>
+    <t>9-14</t>
+  </si>
+  <si>
+    <t>Ввод в работу АБ-2</t>
+  </si>
+  <si>
+    <t>9-15</t>
+  </si>
+  <si>
+    <t>Вывод из работы УЗП-2 и ввод в работу ВАЗП-2</t>
+  </si>
+  <si>
+    <t>9-16</t>
+  </si>
+  <si>
+    <t>Вывод из работы ВАЗП-2 и ввод в работу УЗП-2</t>
+  </si>
+  <si>
+    <t>9-17</t>
+  </si>
+  <si>
+    <t>Вывод 1 секции и  секционной панели щита 3П</t>
+  </si>
+  <si>
+    <t>9-18</t>
+  </si>
+  <si>
+    <t>Ввод 1 секции и секционной панели щита 3П</t>
+  </si>
+  <si>
+    <t>9-19</t>
+  </si>
+  <si>
+    <t>Вывод 2 секции щита 3П</t>
+  </si>
+  <si>
+    <t>9-20</t>
+  </si>
+  <si>
+    <t>Ввод 2 секции щита 3П</t>
+  </si>
+  <si>
+    <t>9-21</t>
+  </si>
+  <si>
+    <t>Вывод в ремонт вводной панели щита 3П</t>
+  </si>
+  <si>
+    <t>9-22</t>
+  </si>
+  <si>
+    <t>Ввод в работу вводной панели щита 3П</t>
+  </si>
+  <si>
+    <t>9-23</t>
+  </si>
+  <si>
+    <t>Вывод в ремонт АБ-3</t>
+  </si>
+  <si>
+    <t>9-24</t>
+  </si>
+  <si>
+    <t>Ввод в работу АБ-3</t>
+  </si>
+  <si>
+    <t>9-25</t>
+  </si>
+  <si>
+    <t>Вывод из работы УЗП-3 и ввод в работу ВАЗП-3</t>
+  </si>
+  <si>
+    <t>9-26</t>
+  </si>
+  <si>
+    <t>Вывод из работы ВАЗП-3 и ввод в работу УЗП-3</t>
+  </si>
+  <si>
+    <t>9-27</t>
+  </si>
+  <si>
+    <t>Вывод в ремонт 4П</t>
+  </si>
+  <si>
+    <t>9-28</t>
+  </si>
+  <si>
+    <t>Ввод в работу 4П</t>
+  </si>
+  <si>
+    <t>9-29</t>
+  </si>
+  <si>
+    <t>Вывод в ремонт АБ-4</t>
+  </si>
+  <si>
+    <t>9-30</t>
+  </si>
+  <si>
+    <t>Ввод в работу АБ-4</t>
+  </si>
+  <si>
+    <t>9-31</t>
+  </si>
+  <si>
+    <t>Вывод из работы УЗП-4 и ввод в работу ВАЗП-4</t>
+  </si>
+  <si>
+    <t>9-32</t>
+  </si>
+  <si>
+    <t>Вывод из работы ВАЗП-4 и ввод в работу УЗП-4</t>
   </si>
 </sst>
 </file>
@@ -4693,6 +4886,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4704,9 +4900,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5030,14 +5223,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>801</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
@@ -5054,35 +5247,35 @@
     </row>
     <row r="4" spans="1:6" ht="218.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:6" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
     </row>
     <row r="7" spans="1:6" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
     </row>
     <row r="8" spans="1:6" ht="347.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="26" t="s">
         <v>316</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6615,8 +6808,8 @@
   </sheetPr>
   <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C66" sqref="A1:C66"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A58" zoomScale="60" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7455,7 +7648,7 @@
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0"/>
-  <pageSetup paperSize="9" scale="80" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="79" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;RСтраница &amp;P</oddHeader>
   </headerFooter>
@@ -7464,10 +7657,377 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B1">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B2">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B3">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B4">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B5">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B6">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B7">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B8">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B13">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B14">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B15">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B16">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B17">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1519</v>
+      </c>
+      <c r="B18">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B19">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B20">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B21">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B22">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1529</v>
+      </c>
+      <c r="B23">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B24">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B25">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1535</v>
+      </c>
+      <c r="B26">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B27">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B28">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B29">
+        <v>9</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B30">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>1545</v>
+      </c>
+      <c r="B31">
+        <v>9</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>1547</v>
+      </c>
+      <c r="B32">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E487"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7506,7 +8066,7 @@
       <c r="C2" s="21" t="s">
         <v>772</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="23" t="s">
         <v>996</v>
       </c>
       <c r="E2" s="1" t="str">
@@ -7524,7 +8084,7 @@
       <c r="C3" s="21" t="s">
         <v>773</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="23" t="s">
         <v>997</v>
       </c>
       <c r="E3" s="1" t="str">
@@ -7542,7 +8102,7 @@
       <c r="C4" s="21" t="s">
         <v>774</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="23" t="s">
         <v>998</v>
       </c>
       <c r="E4" s="1" t="str">
@@ -7560,7 +8120,7 @@
       <c r="C5" s="21" t="s">
         <v>775</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="23" t="s">
         <v>999</v>
       </c>
       <c r="E5" s="1" t="str">
@@ -7578,7 +8138,7 @@
       <c r="C6" s="21" t="s">
         <v>776</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="23" t="s">
         <v>1000</v>
       </c>
       <c r="E6" s="1" t="str">
@@ -7596,7 +8156,7 @@
       <c r="C7" s="21" t="s">
         <v>777</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="23" t="s">
         <v>1001</v>
       </c>
       <c r="E7" s="1" t="str">
@@ -7614,7 +8174,7 @@
       <c r="C8" s="21" t="s">
         <v>778</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="23" t="s">
         <v>1002</v>
       </c>
       <c r="E8" s="1" t="str">
@@ -7632,7 +8192,7 @@
       <c r="C9" s="21" t="s">
         <v>779</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="23" t="s">
         <v>1003</v>
       </c>
       <c r="E9" s="1" t="str">
@@ -7650,7 +8210,7 @@
       <c r="C10" s="21" t="s">
         <v>780</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="23" t="s">
         <v>1004</v>
       </c>
       <c r="E10" s="1" t="str">
@@ -7668,7 +8228,7 @@
       <c r="C11" s="21" t="s">
         <v>781</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="23" t="s">
         <v>1005</v>
       </c>
       <c r="E11" s="1" t="str">
@@ -7686,7 +8246,7 @@
       <c r="C12" s="21" t="s">
         <v>782</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="23" t="s">
         <v>1006</v>
       </c>
       <c r="E12" s="1" t="str">
@@ -7704,7 +8264,7 @@
       <c r="C13" s="21" t="s">
         <v>783</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="23" t="s">
         <v>1007</v>
       </c>
       <c r="E13" s="1" t="str">
@@ -7722,7 +8282,7 @@
       <c r="C14" s="21" t="s">
         <v>784</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="23" t="s">
         <v>1008</v>
       </c>
       <c r="E14" s="1" t="str">
@@ -7740,7 +8300,7 @@
       <c r="C15" s="21" t="s">
         <v>785</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="23" t="s">
         <v>1009</v>
       </c>
       <c r="E15" s="1" t="str">
@@ -7758,7 +8318,7 @@
       <c r="C16" s="21" t="s">
         <v>786</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="23" t="s">
         <v>1010</v>
       </c>
       <c r="E16" s="1" t="str">
@@ -7776,7 +8336,7 @@
       <c r="C17" s="21" t="s">
         <v>787</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="23" t="s">
         <v>1011</v>
       </c>
       <c r="E17" s="1" t="str">
@@ -7794,7 +8354,7 @@
       <c r="C18" s="21" t="s">
         <v>788</v>
       </c>
-      <c r="D18" s="27" t="s">
+      <c r="D18" s="23" t="s">
         <v>1012</v>
       </c>
       <c r="E18" s="1" t="str">
@@ -7812,7 +8372,7 @@
       <c r="C19" s="21" t="s">
         <v>789</v>
       </c>
-      <c r="D19" s="27" t="s">
+      <c r="D19" s="23" t="s">
         <v>1013</v>
       </c>
       <c r="E19" s="1" t="str">
@@ -7830,7 +8390,7 @@
       <c r="C20" s="21" t="s">
         <v>790</v>
       </c>
-      <c r="D20" s="27" t="s">
+      <c r="D20" s="23" t="s">
         <v>1014</v>
       </c>
       <c r="E20" s="1" t="str">
@@ -7848,7 +8408,7 @@
       <c r="C21" s="21" t="s">
         <v>791</v>
       </c>
-      <c r="D21" s="27" t="s">
+      <c r="D21" s="23" t="s">
         <v>1015</v>
       </c>
       <c r="E21" s="1" t="str">
@@ -7866,7 +8426,7 @@
       <c r="C22" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="27" t="s">
+      <c r="D22" s="23" t="s">
         <v>1016</v>
       </c>
       <c r="E22" s="1" t="str">
@@ -7884,7 +8444,7 @@
       <c r="C23" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="D23" s="27" t="s">
+      <c r="D23" s="23" t="s">
         <v>1017</v>
       </c>
       <c r="E23" s="1" t="str">
@@ -7902,7 +8462,7 @@
       <c r="C24" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="27" t="s">
+      <c r="D24" s="23" t="s">
         <v>1018</v>
       </c>
       <c r="E24" s="1" t="str">
@@ -7920,7 +8480,7 @@
       <c r="C25" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D25" s="23" t="s">
         <v>1019</v>
       </c>
       <c r="E25" s="1" t="str">
@@ -7938,7 +8498,7 @@
       <c r="C26" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="D26" s="27" t="s">
+      <c r="D26" s="23" t="s">
         <v>1020</v>
       </c>
       <c r="E26" s="1" t="str">
@@ -7956,7 +8516,7 @@
       <c r="C27" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="27" t="s">
+      <c r="D27" s="23" t="s">
         <v>1021</v>
       </c>
       <c r="E27" s="1" t="str">
@@ -7974,7 +8534,7 @@
       <c r="C28" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="27" t="s">
+      <c r="D28" s="23" t="s">
         <v>1022</v>
       </c>
       <c r="E28" s="1" t="str">
@@ -7992,7 +8552,7 @@
       <c r="C29" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="D29" s="27" t="s">
+      <c r="D29" s="23" t="s">
         <v>1023</v>
       </c>
       <c r="E29" s="1" t="str">
@@ -8010,7 +8570,7 @@
       <c r="C30" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D30" s="27" t="s">
+      <c r="D30" s="23" t="s">
         <v>1024</v>
       </c>
       <c r="E30" s="1" t="str">
@@ -8028,7 +8588,7 @@
       <c r="C31" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="D31" s="27" t="s">
+      <c r="D31" s="23" t="s">
         <v>1025</v>
       </c>
       <c r="E31" s="1" t="str">
@@ -8046,7 +8606,7 @@
       <c r="C32" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D32" s="27" t="s">
+      <c r="D32" s="23" t="s">
         <v>1026</v>
       </c>
       <c r="E32" s="1" t="str">
@@ -8064,7 +8624,7 @@
       <c r="C33" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="D33" s="27" t="s">
+      <c r="D33" s="23" t="s">
         <v>1027</v>
       </c>
       <c r="E33" s="1" t="str">
@@ -8082,7 +8642,7 @@
       <c r="C34" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="27" t="s">
+      <c r="D34" s="23" t="s">
         <v>1028</v>
       </c>
       <c r="E34" s="1" t="str">
@@ -8100,7 +8660,7 @@
       <c r="C35" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="D35" s="27" t="s">
+      <c r="D35" s="23" t="s">
         <v>1029</v>
       </c>
       <c r="E35" s="1" t="str">
@@ -8118,7 +8678,7 @@
       <c r="C36" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D36" s="27" t="s">
+      <c r="D36" s="23" t="s">
         <v>1030</v>
       </c>
       <c r="E36" s="1" t="str">
@@ -8136,7 +8696,7 @@
       <c r="C37" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="D37" s="27" t="s">
+      <c r="D37" s="23" t="s">
         <v>1031</v>
       </c>
       <c r="E37" s="1" t="str">
@@ -8154,7 +8714,7 @@
       <c r="C38" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D38" s="27" t="s">
+      <c r="D38" s="23" t="s">
         <v>1032</v>
       </c>
       <c r="E38" s="1" t="str">
@@ -8172,7 +8732,7 @@
       <c r="C39" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D39" s="27" t="s">
+      <c r="D39" s="23" t="s">
         <v>1033</v>
       </c>
       <c r="E39" s="1" t="str">
@@ -8190,7 +8750,7 @@
       <c r="C40" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D40" s="27" t="s">
+      <c r="D40" s="23" t="s">
         <v>1034</v>
       </c>
       <c r="E40" s="1" t="str">
@@ -8208,7 +8768,7 @@
       <c r="C41" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="D41" s="27" t="s">
+      <c r="D41" s="23" t="s">
         <v>1035</v>
       </c>
       <c r="E41" s="1" t="str">
@@ -8226,7 +8786,7 @@
       <c r="C42" s="10" t="s">
         <v>305</v>
       </c>
-      <c r="D42" s="27" t="s">
+      <c r="D42" s="23" t="s">
         <v>1036</v>
       </c>
       <c r="E42" s="1" t="str">
@@ -8244,7 +8804,7 @@
       <c r="C43" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D43" s="27" t="s">
+      <c r="D43" s="23" t="s">
         <v>1037</v>
       </c>
       <c r="E43" s="1" t="str">
@@ -8262,7 +8822,7 @@
       <c r="C44" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D44" s="27" t="s">
+      <c r="D44" s="23" t="s">
         <v>1038</v>
       </c>
       <c r="E44" s="1" t="str">
@@ -8280,7 +8840,7 @@
       <c r="C45" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D45" s="27" t="s">
+      <c r="D45" s="23" t="s">
         <v>1039</v>
       </c>
       <c r="E45" s="1" t="str">
@@ -8298,7 +8858,7 @@
       <c r="C46" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D46" s="27" t="s">
+      <c r="D46" s="23" t="s">
         <v>1040</v>
       </c>
       <c r="E46" s="1" t="str">
@@ -8316,7 +8876,7 @@
       <c r="C47" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D47" s="27" t="s">
+      <c r="D47" s="23" t="s">
         <v>1041</v>
       </c>
       <c r="E47" s="1" t="str">
@@ -8334,7 +8894,7 @@
       <c r="C48" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D48" s="27" t="s">
+      <c r="D48" s="23" t="s">
         <v>1042</v>
       </c>
       <c r="E48" s="1" t="str">
@@ -8352,7 +8912,7 @@
       <c r="C49" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D49" s="27" t="s">
+      <c r="D49" s="23" t="s">
         <v>1043</v>
       </c>
       <c r="E49" s="1" t="str">
@@ -8370,7 +8930,7 @@
       <c r="C50" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D50" s="27" t="s">
+      <c r="D50" s="23" t="s">
         <v>1044</v>
       </c>
       <c r="E50" s="1" t="str">
@@ -8388,7 +8948,7 @@
       <c r="C51" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D51" s="27" t="s">
+      <c r="D51" s="23" t="s">
         <v>1045</v>
       </c>
       <c r="E51" s="1" t="str">
@@ -8406,7 +8966,7 @@
       <c r="C52" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D52" s="27" t="s">
+      <c r="D52" s="23" t="s">
         <v>1046</v>
       </c>
       <c r="E52" s="1" t="str">
@@ -8424,7 +8984,7 @@
       <c r="C53" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D53" s="27" t="s">
+      <c r="D53" s="23" t="s">
         <v>1047</v>
       </c>
       <c r="E53" s="1" t="str">
@@ -8442,7 +9002,7 @@
       <c r="C54" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="D54" s="27" t="s">
+      <c r="D54" s="23" t="s">
         <v>1048</v>
       </c>
       <c r="E54" s="1" t="str">
@@ -8460,7 +9020,7 @@
       <c r="C55" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D55" s="27" t="s">
+      <c r="D55" s="23" t="s">
         <v>1049</v>
       </c>
       <c r="E55" s="1" t="str">
@@ -8478,7 +9038,7 @@
       <c r="C56" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="D56" s="27" t="s">
+      <c r="D56" s="23" t="s">
         <v>1050</v>
       </c>
       <c r="E56" s="1" t="str">
@@ -8496,7 +9056,7 @@
       <c r="C57" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D57" s="27" t="s">
+      <c r="D57" s="23" t="s">
         <v>1051</v>
       </c>
       <c r="E57" s="1" t="str">
@@ -8514,7 +9074,7 @@
       <c r="C58" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D58" s="27" t="s">
+      <c r="D58" s="23" t="s">
         <v>1052</v>
       </c>
       <c r="E58" s="1" t="str">
@@ -8532,7 +9092,7 @@
       <c r="C59" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D59" s="27" t="s">
+      <c r="D59" s="23" t="s">
         <v>1053</v>
       </c>
       <c r="E59" s="1" t="str">
@@ -8550,7 +9110,7 @@
       <c r="C60" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D60" s="27" t="s">
+      <c r="D60" s="23" t="s">
         <v>1054</v>
       </c>
       <c r="E60" s="1" t="str">
@@ -8568,7 +9128,7 @@
       <c r="C61" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D61" s="27" t="s">
+      <c r="D61" s="23" t="s">
         <v>1055</v>
       </c>
       <c r="E61" s="1" t="str">
@@ -8586,7 +9146,7 @@
       <c r="C62" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D62" s="27" t="s">
+      <c r="D62" s="23" t="s">
         <v>1056</v>
       </c>
       <c r="E62" s="1" t="str">
@@ -8604,7 +9164,7 @@
       <c r="C63" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D63" s="27" t="s">
+      <c r="D63" s="23" t="s">
         <v>1057</v>
       </c>
       <c r="E63" s="1" t="str">
@@ -8622,7 +9182,7 @@
       <c r="C64" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D64" s="27" t="s">
+      <c r="D64" s="23" t="s">
         <v>1058</v>
       </c>
       <c r="E64" s="1" t="str">
@@ -8640,7 +9200,7 @@
       <c r="C65" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D65" s="27" t="s">
+      <c r="D65" s="23" t="s">
         <v>1059</v>
       </c>
       <c r="E65" s="1" t="str">
@@ -8658,7 +9218,7 @@
       <c r="C66" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D66" s="27" t="s">
+      <c r="D66" s="23" t="s">
         <v>1060</v>
       </c>
       <c r="E66" s="1" t="str">
@@ -8676,7 +9236,7 @@
       <c r="C67" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D67" s="27" t="s">
+      <c r="D67" s="23" t="s">
         <v>1061</v>
       </c>
       <c r="E67" s="1" t="str">
@@ -8694,7 +9254,7 @@
       <c r="C68" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D68" s="27" t="s">
+      <c r="D68" s="23" t="s">
         <v>1062</v>
       </c>
       <c r="E68" s="1" t="str">
@@ -8712,7 +9272,7 @@
       <c r="C69" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D69" s="27" t="s">
+      <c r="D69" s="23" t="s">
         <v>1063</v>
       </c>
       <c r="E69" s="1" t="str">
@@ -8730,7 +9290,7 @@
       <c r="C70" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D70" s="27" t="s">
+      <c r="D70" s="23" t="s">
         <v>1064</v>
       </c>
       <c r="E70" s="1" t="str">
@@ -8748,7 +9308,7 @@
       <c r="C71" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D71" s="27" t="s">
+      <c r="D71" s="23" t="s">
         <v>1065</v>
       </c>
       <c r="E71" s="1" t="str">
@@ -8766,7 +9326,7 @@
       <c r="C72" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D72" s="27" t="s">
+      <c r="D72" s="23" t="s">
         <v>1066</v>
       </c>
       <c r="E72" s="1" t="str">
@@ -8784,7 +9344,7 @@
       <c r="C73" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D73" s="27" t="s">
+      <c r="D73" s="23" t="s">
         <v>1067</v>
       </c>
       <c r="E73" s="1" t="str">
@@ -8802,7 +9362,7 @@
       <c r="C74" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D74" s="27" t="s">
+      <c r="D74" s="23" t="s">
         <v>1068</v>
       </c>
       <c r="E74" s="1" t="str">
@@ -8820,7 +9380,7 @@
       <c r="C75" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D75" s="27" t="s">
+      <c r="D75" s="23" t="s">
         <v>1069</v>
       </c>
       <c r="E75" s="1" t="str">
@@ -8838,7 +9398,7 @@
       <c r="C76" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D76" s="27" t="s">
+      <c r="D76" s="23" t="s">
         <v>1070</v>
       </c>
       <c r="E76" s="1" t="str">
@@ -8856,7 +9416,7 @@
       <c r="C77" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D77" s="27" t="s">
+      <c r="D77" s="23" t="s">
         <v>1071</v>
       </c>
       <c r="E77" s="1" t="str">
@@ -8874,7 +9434,7 @@
       <c r="C78" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D78" s="27" t="s">
+      <c r="D78" s="23" t="s">
         <v>1072</v>
       </c>
       <c r="E78" s="1" t="str">
@@ -8892,7 +9452,7 @@
       <c r="C79" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D79" s="27" t="s">
+      <c r="D79" s="23" t="s">
         <v>1073</v>
       </c>
       <c r="E79" s="1" t="str">
@@ -8910,7 +9470,7 @@
       <c r="C80" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D80" s="27" t="s">
+      <c r="D80" s="23" t="s">
         <v>1074</v>
       </c>
       <c r="E80" s="1" t="str">
@@ -8928,7 +9488,7 @@
       <c r="C81" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D81" s="27" t="s">
+      <c r="D81" s="23" t="s">
         <v>1075</v>
       </c>
       <c r="E81" s="1" t="str">
@@ -8946,7 +9506,7 @@
       <c r="C82" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D82" s="27" t="s">
+      <c r="D82" s="23" t="s">
         <v>1076</v>
       </c>
       <c r="E82" s="1" t="str">
@@ -8964,7 +9524,7 @@
       <c r="C83" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D83" s="27" t="s">
+      <c r="D83" s="23" t="s">
         <v>1077</v>
       </c>
       <c r="E83" s="1" t="str">
@@ -8982,7 +9542,7 @@
       <c r="C84" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D84" s="27" t="s">
+      <c r="D84" s="23" t="s">
         <v>1078</v>
       </c>
       <c r="E84" s="1" t="str">
@@ -9000,7 +9560,7 @@
       <c r="C85" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D85" s="27" t="s">
+      <c r="D85" s="23" t="s">
         <v>1079</v>
       </c>
       <c r="E85" s="1" t="str">
@@ -9018,7 +9578,7 @@
       <c r="C86" s="10" t="s">
         <v>946</v>
       </c>
-      <c r="D86" s="27" t="s">
+      <c r="D86" s="23" t="s">
         <v>1080</v>
       </c>
       <c r="E86" s="1" t="str">
@@ -9036,7 +9596,7 @@
       <c r="C87" s="10" t="s">
         <v>947</v>
       </c>
-      <c r="D87" s="27" t="s">
+      <c r="D87" s="23" t="s">
         <v>1081</v>
       </c>
       <c r="E87" s="1" t="str">
@@ -9054,7 +9614,7 @@
       <c r="C88" s="10" t="s">
         <v>948</v>
       </c>
-      <c r="D88" s="27" t="s">
+      <c r="D88" s="23" t="s">
         <v>1082</v>
       </c>
       <c r="E88" s="1" t="str">
@@ -9072,7 +9632,7 @@
       <c r="C89" s="10" t="s">
         <v>949</v>
       </c>
-      <c r="D89" s="27" t="s">
+      <c r="D89" s="23" t="s">
         <v>1083</v>
       </c>
       <c r="E89" s="1" t="str">
@@ -9090,7 +9650,7 @@
       <c r="C90" s="10" t="s">
         <v>950</v>
       </c>
-      <c r="D90" s="27" t="s">
+      <c r="D90" s="23" t="s">
         <v>1084</v>
       </c>
       <c r="E90" s="1" t="str">
@@ -9108,7 +9668,7 @@
       <c r="C91" s="10" t="s">
         <v>951</v>
       </c>
-      <c r="D91" s="27" t="s">
+      <c r="D91" s="23" t="s">
         <v>1085</v>
       </c>
       <c r="E91" s="1" t="str">
@@ -9126,7 +9686,7 @@
       <c r="C92" s="10" t="s">
         <v>952</v>
       </c>
-      <c r="D92" s="27" t="s">
+      <c r="D92" s="23" t="s">
         <v>1086</v>
       </c>
       <c r="E92" s="1" t="str">
@@ -9144,7 +9704,7 @@
       <c r="C93" s="10" t="s">
         <v>953</v>
       </c>
-      <c r="D93" s="27" t="s">
+      <c r="D93" s="23" t="s">
         <v>1087</v>
       </c>
       <c r="E93" s="1" t="str">
@@ -9162,7 +9722,7 @@
       <c r="C94" s="10" t="s">
         <v>954</v>
       </c>
-      <c r="D94" s="27" t="s">
+      <c r="D94" s="23" t="s">
         <v>1088</v>
       </c>
       <c r="E94" s="1" t="str">
@@ -9180,7 +9740,7 @@
       <c r="C95" s="10" t="s">
         <v>955</v>
       </c>
-      <c r="D95" s="27" t="s">
+      <c r="D95" s="23" t="s">
         <v>1089</v>
       </c>
       <c r="E95" s="1" t="str">
@@ -9198,7 +9758,7 @@
       <c r="C96" s="10" t="s">
         <v>956</v>
       </c>
-      <c r="D96" s="27" t="s">
+      <c r="D96" s="23" t="s">
         <v>1090</v>
       </c>
       <c r="E96" s="1" t="str">
@@ -9216,7 +9776,7 @@
       <c r="C97" s="10" t="s">
         <v>957</v>
       </c>
-      <c r="D97" s="27" t="s">
+      <c r="D97" s="23" t="s">
         <v>1091</v>
       </c>
       <c r="E97" s="1" t="str">
@@ -9234,7 +9794,7 @@
       <c r="C98" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="D98" s="27" t="s">
+      <c r="D98" s="23" t="s">
         <v>1092</v>
       </c>
       <c r="E98" s="1" t="str">
@@ -9252,7 +9812,7 @@
       <c r="C99" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="D99" s="27" t="s">
+      <c r="D99" s="23" t="s">
         <v>1093</v>
       </c>
       <c r="E99" s="1" t="str">
@@ -9270,7 +9830,7 @@
       <c r="C100" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="D100" s="27" t="s">
+      <c r="D100" s="23" t="s">
         <v>1094</v>
       </c>
       <c r="E100" s="1" t="str">
@@ -9288,7 +9848,7 @@
       <c r="C101" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="D101" s="27" t="s">
+      <c r="D101" s="23" t="s">
         <v>1095</v>
       </c>
       <c r="E101" s="1" t="str">
@@ -9306,7 +9866,7 @@
       <c r="C102" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="D102" s="27" t="s">
+      <c r="D102" s="23" t="s">
         <v>1096</v>
       </c>
       <c r="E102" s="1" t="str">
@@ -9324,7 +9884,7 @@
       <c r="C103" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="D103" s="27" t="s">
+      <c r="D103" s="23" t="s">
         <v>1097</v>
       </c>
       <c r="E103" s="1" t="str">
@@ -9342,7 +9902,7 @@
       <c r="C104" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D104" s="27" t="s">
+      <c r="D104" s="23" t="s">
         <v>1098</v>
       </c>
       <c r="E104" s="1" t="str">
@@ -9360,7 +9920,7 @@
       <c r="C105" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="D105" s="27" t="s">
+      <c r="D105" s="23" t="s">
         <v>1099</v>
       </c>
       <c r="E105" s="1" t="str">
@@ -9378,7 +9938,7 @@
       <c r="C106" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D106" s="27" t="s">
+      <c r="D106" s="23" t="s">
         <v>1100</v>
       </c>
       <c r="E106" s="1" t="str">
@@ -9396,7 +9956,7 @@
       <c r="C107" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="D107" s="27" t="s">
+      <c r="D107" s="23" t="s">
         <v>1101</v>
       </c>
       <c r="E107" s="1" t="str">
@@ -9414,7 +9974,7 @@
       <c r="C108" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D108" s="27" t="s">
+      <c r="D108" s="23" t="s">
         <v>1102</v>
       </c>
       <c r="E108" s="1" t="str">
@@ -9432,7 +9992,7 @@
       <c r="C109" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="D109" s="27" t="s">
+      <c r="D109" s="23" t="s">
         <v>1103</v>
       </c>
       <c r="E109" s="1" t="str">
@@ -9450,7 +10010,7 @@
       <c r="C110" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D110" s="27" t="s">
+      <c r="D110" s="23" t="s">
         <v>1104</v>
       </c>
       <c r="E110" s="1" t="str">
@@ -9468,7 +10028,7 @@
       <c r="C111" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="D111" s="27" t="s">
+      <c r="D111" s="23" t="s">
         <v>1105</v>
       </c>
       <c r="E111" s="1" t="str">
@@ -9486,7 +10046,7 @@
       <c r="C112" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D112" s="27" t="s">
+      <c r="D112" s="23" t="s">
         <v>1106</v>
       </c>
       <c r="E112" s="1" t="str">
@@ -9504,7 +10064,7 @@
       <c r="C113" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="D113" s="27" t="s">
+      <c r="D113" s="23" t="s">
         <v>1107</v>
       </c>
       <c r="E113" s="1" t="str">
@@ -9522,7 +10082,7 @@
       <c r="C114" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="D114" s="27" t="s">
+      <c r="D114" s="23" t="s">
         <v>1108</v>
       </c>
       <c r="E114" s="1" t="str">
@@ -9540,7 +10100,7 @@
       <c r="C115" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="D115" s="27" t="s">
+      <c r="D115" s="23" t="s">
         <v>1109</v>
       </c>
       <c r="E115" s="1" t="str">
@@ -9558,7 +10118,7 @@
       <c r="C116" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="D116" s="27" t="s">
+      <c r="D116" s="23" t="s">
         <v>1110</v>
       </c>
       <c r="E116" s="1" t="str">
@@ -9576,7 +10136,7 @@
       <c r="C117" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="D117" s="27" t="s">
+      <c r="D117" s="23" t="s">
         <v>1111</v>
       </c>
       <c r="E117" s="1" t="str">
@@ -9594,7 +10154,7 @@
       <c r="C118" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="D118" s="27" t="s">
+      <c r="D118" s="23" t="s">
         <v>1112</v>
       </c>
       <c r="E118" s="1" t="str">
@@ -9612,7 +10172,7 @@
       <c r="C119" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="D119" s="27" t="s">
+      <c r="D119" s="23" t="s">
         <v>1113</v>
       </c>
       <c r="E119" s="1" t="str">
@@ -9630,7 +10190,7 @@
       <c r="C120" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="D120" s="27" t="s">
+      <c r="D120" s="23" t="s">
         <v>1114</v>
       </c>
       <c r="E120" s="1" t="str">
@@ -9648,7 +10208,7 @@
       <c r="C121" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="D121" s="27" t="s">
+      <c r="D121" s="23" t="s">
         <v>1115</v>
       </c>
       <c r="E121" s="1" t="str">
@@ -9666,7 +10226,7 @@
       <c r="C122" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D122" s="27" t="s">
+      <c r="D122" s="23" t="s">
         <v>1116</v>
       </c>
       <c r="E122" s="1" t="str">
@@ -9684,7 +10244,7 @@
       <c r="C123" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D123" s="27" t="s">
+      <c r="D123" s="23" t="s">
         <v>1117</v>
       </c>
       <c r="E123" s="1" t="str">
@@ -9702,7 +10262,7 @@
       <c r="C124" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="D124" s="27" t="s">
+      <c r="D124" s="23" t="s">
         <v>1118</v>
       </c>
       <c r="E124" s="1" t="str">
@@ -9720,7 +10280,7 @@
       <c r="C125" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="D125" s="27" t="s">
+      <c r="D125" s="23" t="s">
         <v>1119</v>
       </c>
       <c r="E125" s="1" t="str">
@@ -9738,7 +10298,7 @@
       <c r="C126" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="D126" s="27" t="s">
+      <c r="D126" s="23" t="s">
         <v>1120</v>
       </c>
       <c r="E126" s="1" t="str">
@@ -9756,7 +10316,7 @@
       <c r="C127" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="D127" s="27" t="s">
+      <c r="D127" s="23" t="s">
         <v>1121</v>
       </c>
       <c r="E127" s="1" t="str">
@@ -9774,7 +10334,7 @@
       <c r="C128" s="9" t="s">
         <v>756</v>
       </c>
-      <c r="D128" s="27" t="s">
+      <c r="D128" s="23" t="s">
         <v>1122</v>
       </c>
       <c r="E128" s="1" t="str">
@@ -9792,7 +10352,7 @@
       <c r="C129" s="9" t="s">
         <v>757</v>
       </c>
-      <c r="D129" s="27" t="s">
+      <c r="D129" s="23" t="s">
         <v>1123</v>
       </c>
       <c r="E129" s="1" t="str">
@@ -9810,7 +10370,7 @@
       <c r="C130" s="9" t="s">
         <v>758</v>
       </c>
-      <c r="D130" s="27" t="s">
+      <c r="D130" s="23" t="s">
         <v>1124</v>
       </c>
       <c r="E130" s="1" t="str">
@@ -9828,7 +10388,7 @@
       <c r="C131" s="9" t="s">
         <v>759</v>
       </c>
-      <c r="D131" s="27" t="s">
+      <c r="D131" s="23" t="s">
         <v>1125</v>
       </c>
       <c r="E131" s="1" t="str">
@@ -9846,7 +10406,7 @@
       <c r="C132" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="D132" s="27" t="s">
+      <c r="D132" s="23" t="s">
         <v>1126</v>
       </c>
       <c r="E132" s="1" t="str">
@@ -9864,7 +10424,7 @@
       <c r="C133" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="D133" s="27" t="s">
+      <c r="D133" s="23" t="s">
         <v>1127</v>
       </c>
       <c r="E133" s="1" t="str">
@@ -9882,7 +10442,7 @@
       <c r="C134" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="D134" s="27" t="s">
+      <c r="D134" s="23" t="s">
         <v>1128</v>
       </c>
       <c r="E134" s="1" t="str">
@@ -9900,7 +10460,7 @@
       <c r="C135" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="D135" s="27" t="s">
+      <c r="D135" s="23" t="s">
         <v>1129</v>
       </c>
       <c r="E135" s="1" t="str">
@@ -9918,7 +10478,7 @@
       <c r="C136" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="D136" s="27" t="s">
+      <c r="D136" s="23" t="s">
         <v>1130</v>
       </c>
       <c r="E136" s="1" t="str">
@@ -9936,7 +10496,7 @@
       <c r="C137" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="D137" s="27" t="s">
+      <c r="D137" s="23" t="s">
         <v>1131</v>
       </c>
       <c r="E137" s="1" t="str">
@@ -9954,7 +10514,7 @@
       <c r="C138" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="D138" s="27" t="s">
+      <c r="D138" s="23" t="s">
         <v>1132</v>
       </c>
       <c r="E138" s="1" t="str">
@@ -9972,7 +10532,7 @@
       <c r="C139" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="D139" s="27" t="s">
+      <c r="D139" s="23" t="s">
         <v>1133</v>
       </c>
       <c r="E139" s="1" t="str">
@@ -9990,7 +10550,7 @@
       <c r="C140" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D140" s="27" t="s">
+      <c r="D140" s="23" t="s">
         <v>1134</v>
       </c>
       <c r="E140" s="1" t="str">
@@ -10008,7 +10568,7 @@
       <c r="C141" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="D141" s="27" t="s">
+      <c r="D141" s="23" t="s">
         <v>1135</v>
       </c>
       <c r="E141" s="1" t="str">
@@ -10026,7 +10586,7 @@
       <c r="C142" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="D142" s="27" t="s">
+      <c r="D142" s="23" t="s">
         <v>1136</v>
       </c>
       <c r="E142" s="1" t="str">
@@ -10044,7 +10604,7 @@
       <c r="C143" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="D143" s="27" t="s">
+      <c r="D143" s="23" t="s">
         <v>1137</v>
       </c>
       <c r="E143" s="1" t="str">
@@ -10062,7 +10622,7 @@
       <c r="C144" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="D144" s="27" t="s">
+      <c r="D144" s="23" t="s">
         <v>1138</v>
       </c>
       <c r="E144" s="1" t="str">
@@ -10080,7 +10640,7 @@
       <c r="C145" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="D145" s="27" t="s">
+      <c r="D145" s="23" t="s">
         <v>1139</v>
       </c>
       <c r="E145" s="1" t="str">
@@ -10098,7 +10658,7 @@
       <c r="C146" s="9" t="s">
         <v>968</v>
       </c>
-      <c r="D146" s="27" t="s">
+      <c r="D146" s="23" t="s">
         <v>1140</v>
       </c>
       <c r="E146" s="1" t="str">
@@ -10116,7 +10676,7 @@
       <c r="C147" s="9" t="s">
         <v>969</v>
       </c>
-      <c r="D147" s="27" t="s">
+      <c r="D147" s="23" t="s">
         <v>1141</v>
       </c>
       <c r="E147" s="1" t="str">
@@ -10134,7 +10694,7 @@
       <c r="C148" s="9" t="s">
         <v>970</v>
       </c>
-      <c r="D148" s="27" t="s">
+      <c r="D148" s="23" t="s">
         <v>1142</v>
       </c>
       <c r="E148" s="1" t="str">
@@ -10152,7 +10712,7 @@
       <c r="C149" s="9" t="s">
         <v>971</v>
       </c>
-      <c r="D149" s="27" t="s">
+      <c r="D149" s="23" t="s">
         <v>1143</v>
       </c>
       <c r="E149" s="1" t="str">
@@ -10170,7 +10730,7 @@
       <c r="C150" s="9" t="s">
         <v>972</v>
       </c>
-      <c r="D150" s="27" t="s">
+      <c r="D150" s="23" t="s">
         <v>1144</v>
       </c>
       <c r="E150" s="1" t="str">
@@ -10188,7 +10748,7 @@
       <c r="C151" s="9" t="s">
         <v>973</v>
       </c>
-      <c r="D151" s="27" t="s">
+      <c r="D151" s="23" t="s">
         <v>1145</v>
       </c>
       <c r="E151" s="1" t="str">
@@ -10206,7 +10766,7 @@
       <c r="C152" s="9" t="s">
         <v>974</v>
       </c>
-      <c r="D152" s="27" t="s">
+      <c r="D152" s="23" t="s">
         <v>1146</v>
       </c>
       <c r="E152" s="1" t="str">
@@ -10224,7 +10784,7 @@
       <c r="C153" s="9" t="s">
         <v>975</v>
       </c>
-      <c r="D153" s="27" t="s">
+      <c r="D153" s="23" t="s">
         <v>1147</v>
       </c>
       <c r="E153" s="1" t="str">
@@ -10242,7 +10802,7 @@
       <c r="C154" s="9" t="s">
         <v>976</v>
       </c>
-      <c r="D154" s="27" t="s">
+      <c r="D154" s="23" t="s">
         <v>1148</v>
       </c>
       <c r="E154" s="1" t="str">
@@ -10260,7 +10820,7 @@
       <c r="C155" s="9" t="s">
         <v>977</v>
       </c>
-      <c r="D155" s="27" t="s">
+      <c r="D155" s="23" t="s">
         <v>1149</v>
       </c>
       <c r="E155" s="1" t="str">
@@ -10278,7 +10838,7 @@
       <c r="C156" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="D156" s="27" t="s">
+      <c r="D156" s="23" t="s">
         <v>1150</v>
       </c>
       <c r="E156" s="1" t="str">
@@ -10296,7 +10856,7 @@
       <c r="C157" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="D157" s="27" t="s">
+      <c r="D157" s="23" t="s">
         <v>1151</v>
       </c>
       <c r="E157" s="1" t="str">
@@ -10314,7 +10874,7 @@
       <c r="C158" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="D158" s="27" t="s">
+      <c r="D158" s="23" t="s">
         <v>1152</v>
       </c>
       <c r="E158" s="1" t="str">
@@ -10332,7 +10892,7 @@
       <c r="C159" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="D159" s="27" t="s">
+      <c r="D159" s="23" t="s">
         <v>1153</v>
       </c>
       <c r="E159" s="1" t="str">
@@ -10350,7 +10910,7 @@
       <c r="C160" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="D160" s="27" t="s">
+      <c r="D160" s="23" t="s">
         <v>1154</v>
       </c>
       <c r="E160" s="1" t="str">
@@ -10368,7 +10928,7 @@
       <c r="C161" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="D161" s="27" t="s">
+      <c r="D161" s="23" t="s">
         <v>1155</v>
       </c>
       <c r="E161" s="1" t="str">
@@ -10386,7 +10946,7 @@
       <c r="C162" s="9" t="s">
         <v>383</v>
       </c>
-      <c r="D162" s="27" t="s">
+      <c r="D162" s="23" t="s">
         <v>1156</v>
       </c>
       <c r="E162" s="1" t="str">
@@ -10404,7 +10964,7 @@
       <c r="C163" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="D163" s="27" t="s">
+      <c r="D163" s="23" t="s">
         <v>1157</v>
       </c>
       <c r="E163" s="1" t="str">
@@ -10422,7 +10982,7 @@
       <c r="C164" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="D164" s="27" t="s">
+      <c r="D164" s="23" t="s">
         <v>1158</v>
       </c>
       <c r="E164" s="1" t="str">
@@ -10440,7 +11000,7 @@
       <c r="C165" s="9" t="s">
         <v>386</v>
       </c>
-      <c r="D165" s="27" t="s">
+      <c r="D165" s="23" t="s">
         <v>1159</v>
       </c>
       <c r="E165" s="1" t="str">
@@ -10458,7 +11018,7 @@
       <c r="C166" s="9" t="s">
         <v>387</v>
       </c>
-      <c r="D166" s="27" t="s">
+      <c r="D166" s="23" t="s">
         <v>1160</v>
       </c>
       <c r="E166" s="1" t="str">
@@ -10476,7 +11036,7 @@
       <c r="C167" s="9" t="s">
         <v>388</v>
       </c>
-      <c r="D167" s="27" t="s">
+      <c r="D167" s="23" t="s">
         <v>1161</v>
       </c>
       <c r="E167" s="1" t="str">
@@ -10494,7 +11054,7 @@
       <c r="C168" s="9" t="s">
         <v>389</v>
       </c>
-      <c r="D168" s="27" t="s">
+      <c r="D168" s="23" t="s">
         <v>1162</v>
       </c>
       <c r="E168" s="1" t="str">
@@ -10512,7 +11072,7 @@
       <c r="C169" s="9" t="s">
         <v>390</v>
       </c>
-      <c r="D169" s="27" t="s">
+      <c r="D169" s="23" t="s">
         <v>1163</v>
       </c>
       <c r="E169" s="1" t="str">
@@ -10530,7 +11090,7 @@
       <c r="C170" s="9" t="s">
         <v>391</v>
       </c>
-      <c r="D170" s="27" t="s">
+      <c r="D170" s="23" t="s">
         <v>1164</v>
       </c>
       <c r="E170" s="1" t="str">
@@ -10548,7 +11108,7 @@
       <c r="C171" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="D171" s="27" t="s">
+      <c r="D171" s="23" t="s">
         <v>1165</v>
       </c>
       <c r="E171" s="1" t="str">
@@ -10566,7 +11126,7 @@
       <c r="C172" s="9" t="s">
         <v>393</v>
       </c>
-      <c r="D172" s="27" t="s">
+      <c r="D172" s="23" t="s">
         <v>1166</v>
       </c>
       <c r="E172" s="1" t="str">
@@ -10584,7 +11144,7 @@
       <c r="C173" s="9" t="s">
         <v>394</v>
       </c>
-      <c r="D173" s="27" t="s">
+      <c r="D173" s="23" t="s">
         <v>1167</v>
       </c>
       <c r="E173" s="1" t="str">
@@ -10602,7 +11162,7 @@
       <c r="C174" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="D174" s="27" t="s">
+      <c r="D174" s="23" t="s">
         <v>1168</v>
       </c>
       <c r="E174" s="1" t="str">
@@ -10620,7 +11180,7 @@
       <c r="C175" s="10" t="s">
         <v>986</v>
       </c>
-      <c r="D175" s="27" t="s">
+      <c r="D175" s="23" t="s">
         <v>1169</v>
       </c>
       <c r="E175" s="1" t="str">
@@ -10638,7 +11198,7 @@
       <c r="C176" s="10" t="s">
         <v>987</v>
       </c>
-      <c r="D176" s="27" t="s">
+      <c r="D176" s="23" t="s">
         <v>1170</v>
       </c>
       <c r="E176" s="1" t="str">
@@ -10656,7 +11216,7 @@
       <c r="C177" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="D177" s="27" t="s">
+      <c r="D177" s="23" t="s">
         <v>1171</v>
       </c>
       <c r="E177" s="1" t="str">
@@ -10674,7 +11234,7 @@
       <c r="C178" s="10" t="s">
         <v>988</v>
       </c>
-      <c r="D178" s="27" t="s">
+      <c r="D178" s="23" t="s">
         <v>1172</v>
       </c>
       <c r="E178" s="1" t="str">
@@ -10692,7 +11252,7 @@
       <c r="C179" s="10" t="s">
         <v>989</v>
       </c>
-      <c r="D179" s="27" t="s">
+      <c r="D179" s="23" t="s">
         <v>1173</v>
       </c>
       <c r="E179" s="1" t="str">
@@ -10710,7 +11270,7 @@
       <c r="C180" s="9" t="s">
         <v>395</v>
       </c>
-      <c r="D180" s="27" t="s">
+      <c r="D180" s="23" t="s">
         <v>1174</v>
       </c>
       <c r="E180" s="1" t="str">
@@ -10728,7 +11288,7 @@
       <c r="C181" s="9" t="s">
         <v>396</v>
       </c>
-      <c r="D181" s="27" t="s">
+      <c r="D181" s="23" t="s">
         <v>1175</v>
       </c>
       <c r="E181" s="1" t="str">
@@ -10746,7 +11306,7 @@
       <c r="C182" s="9" t="s">
         <v>397</v>
       </c>
-      <c r="D182" s="27" t="s">
+      <c r="D182" s="23" t="s">
         <v>1176</v>
       </c>
       <c r="E182" s="1" t="str">
@@ -10764,7 +11324,7 @@
       <c r="C183" s="9" t="s">
         <v>398</v>
       </c>
-      <c r="D183" s="27" t="s">
+      <c r="D183" s="23" t="s">
         <v>1177</v>
       </c>
       <c r="E183" s="1" t="str">
@@ -10782,7 +11342,7 @@
       <c r="C184" s="9" t="s">
         <v>680</v>
       </c>
-      <c r="D184" s="27" t="s">
+      <c r="D184" s="23" t="s">
         <v>1178</v>
       </c>
       <c r="E184" s="1" t="str">
@@ -10800,7 +11360,7 @@
       <c r="C185" s="9" t="s">
         <v>681</v>
       </c>
-      <c r="D185" s="27" t="s">
+      <c r="D185" s="23" t="s">
         <v>1179</v>
       </c>
       <c r="E185" s="1" t="str">
@@ -10818,7 +11378,7 @@
       <c r="C186" s="9" t="s">
         <v>682</v>
       </c>
-      <c r="D186" s="27" t="s">
+      <c r="D186" s="23" t="s">
         <v>1180</v>
       </c>
       <c r="E186" s="1" t="str">
@@ -10836,7 +11396,7 @@
       <c r="C187" s="9" t="s">
         <v>683</v>
       </c>
-      <c r="D187" s="27" t="s">
+      <c r="D187" s="23" t="s">
         <v>1181</v>
       </c>
       <c r="E187" s="1" t="str">
@@ -10854,7 +11414,7 @@
       <c r="C188" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="D188" s="27" t="s">
+      <c r="D188" s="23" t="s">
         <v>1182</v>
       </c>
       <c r="E188" s="1" t="str">
@@ -10872,7 +11432,7 @@
       <c r="C189" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D189" s="27" t="s">
+      <c r="D189" s="23" t="s">
         <v>1183</v>
       </c>
       <c r="E189" s="1" t="str">
@@ -10890,7 +11450,7 @@
       <c r="C190" s="10" t="s">
         <v>762</v>
       </c>
-      <c r="D190" s="27" t="s">
+      <c r="D190" s="23" t="s">
         <v>1184</v>
       </c>
       <c r="E190" s="1" t="str">
@@ -10908,7 +11468,7 @@
       <c r="C191" s="10" t="s">
         <v>763</v>
       </c>
-      <c r="D191" s="27" t="s">
+      <c r="D191" s="23" t="s">
         <v>1185</v>
       </c>
       <c r="E191" s="1" t="str">
@@ -10926,7 +11486,7 @@
       <c r="C192" s="10" t="s">
         <v>764</v>
       </c>
-      <c r="D192" s="27" t="s">
+      <c r="D192" s="23" t="s">
         <v>1186</v>
       </c>
       <c r="E192" s="1" t="str">
@@ -10944,7 +11504,7 @@
       <c r="C193" s="10" t="s">
         <v>765</v>
       </c>
-      <c r="D193" s="27" t="s">
+      <c r="D193" s="23" t="s">
         <v>1187</v>
       </c>
       <c r="E193" s="1" t="str">
@@ -10962,7 +11522,7 @@
       <c r="C194" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="D194" s="27" t="s">
+      <c r="D194" s="23" t="s">
         <v>1188</v>
       </c>
       <c r="E194" s="1" t="str">
@@ -10980,7 +11540,7 @@
       <c r="C195" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="D195" s="27" t="s">
+      <c r="D195" s="23" t="s">
         <v>1189</v>
       </c>
       <c r="E195" s="1" t="str">
@@ -10998,7 +11558,7 @@
       <c r="C196" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="D196" s="27" t="s">
+      <c r="D196" s="23" t="s">
         <v>1190</v>
       </c>
       <c r="E196" s="1" t="str">
@@ -11016,7 +11576,7 @@
       <c r="C197" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="D197" s="27" t="s">
+      <c r="D197" s="23" t="s">
         <v>1191</v>
       </c>
       <c r="E197" s="1" t="str">
@@ -11034,7 +11594,7 @@
       <c r="C198" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="D198" s="27" t="s">
+      <c r="D198" s="23" t="s">
         <v>1192</v>
       </c>
       <c r="E198" s="1" t="str">
@@ -11052,7 +11612,7 @@
       <c r="C199" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="D199" s="27" t="s">
+      <c r="D199" s="23" t="s">
         <v>1193</v>
       </c>
       <c r="E199" s="1" t="str">
@@ -11070,7 +11630,7 @@
       <c r="C200" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D200" s="27" t="s">
+      <c r="D200" s="23" t="s">
         <v>1194</v>
       </c>
       <c r="E200" s="1" t="str">
@@ -11088,7 +11648,7 @@
       <c r="C201" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="D201" s="27" t="s">
+      <c r="D201" s="23" t="s">
         <v>1195</v>
       </c>
       <c r="E201" s="1" t="str">
@@ -11106,7 +11666,7 @@
       <c r="C202" s="9" t="s">
         <v>744</v>
       </c>
-      <c r="D202" s="27" t="s">
+      <c r="D202" s="23" t="s">
         <v>1196</v>
       </c>
       <c r="E202" s="1" t="str">
@@ -11124,7 +11684,7 @@
       <c r="C203" s="9" t="s">
         <v>745</v>
       </c>
-      <c r="D203" s="27" t="s">
+      <c r="D203" s="23" t="s">
         <v>1197</v>
       </c>
       <c r="E203" s="1" t="str">
@@ -11142,7 +11702,7 @@
       <c r="C204" s="9" t="s">
         <v>746</v>
       </c>
-      <c r="D204" s="27" t="s">
+      <c r="D204" s="23" t="s">
         <v>1198</v>
       </c>
       <c r="E204" s="1" t="str">
@@ -11160,7 +11720,7 @@
       <c r="C205" s="9" t="s">
         <v>747</v>
       </c>
-      <c r="D205" s="27" t="s">
+      <c r="D205" s="23" t="s">
         <v>1199</v>
       </c>
       <c r="E205" s="1" t="str">
@@ -11178,7 +11738,7 @@
       <c r="C206" s="9" t="s">
         <v>748</v>
       </c>
-      <c r="D206" s="27" t="s">
+      <c r="D206" s="23" t="s">
         <v>1200</v>
       </c>
       <c r="E206" s="1" t="str">
@@ -11196,7 +11756,7 @@
       <c r="C207" s="9" t="s">
         <v>749</v>
       </c>
-      <c r="D207" s="27" t="s">
+      <c r="D207" s="23" t="s">
         <v>1201</v>
       </c>
       <c r="E207" s="1" t="str">
@@ -11214,7 +11774,7 @@
       <c r="C208" s="9" t="s">
         <v>650</v>
       </c>
-      <c r="D208" s="27" t="s">
+      <c r="D208" s="23" t="s">
         <v>1202</v>
       </c>
       <c r="E208" s="1" t="str">
@@ -11232,7 +11792,7 @@
       <c r="C209" s="9" t="s">
         <v>664</v>
       </c>
-      <c r="D209" s="27" t="s">
+      <c r="D209" s="23" t="s">
         <v>1203</v>
       </c>
       <c r="E209" s="1" t="str">
@@ -11250,7 +11810,7 @@
       <c r="C210" s="9" t="s">
         <v>651</v>
       </c>
-      <c r="D210" s="27" t="s">
+      <c r="D210" s="23" t="s">
         <v>1204</v>
       </c>
       <c r="E210" s="1" t="str">
@@ -11268,7 +11828,7 @@
       <c r="C211" s="9" t="s">
         <v>665</v>
       </c>
-      <c r="D211" s="27" t="s">
+      <c r="D211" s="23" t="s">
         <v>1205</v>
       </c>
       <c r="E211" s="1" t="str">
@@ -11286,7 +11846,7 @@
       <c r="C212" s="9" t="s">
         <v>652</v>
       </c>
-      <c r="D212" s="27" t="s">
+      <c r="D212" s="23" t="s">
         <v>1206</v>
       </c>
       <c r="E212" s="1" t="str">
@@ -11304,7 +11864,7 @@
       <c r="C213" s="9" t="s">
         <v>666</v>
       </c>
-      <c r="D213" s="27" t="s">
+      <c r="D213" s="23" t="s">
         <v>1207</v>
       </c>
       <c r="E213" s="1" t="str">
@@ -11322,7 +11882,7 @@
       <c r="C214" s="9" t="s">
         <v>653</v>
       </c>
-      <c r="D214" s="27" t="s">
+      <c r="D214" s="23" t="s">
         <v>1208</v>
       </c>
       <c r="E214" s="1" t="str">
@@ -11340,7 +11900,7 @@
       <c r="C215" s="9" t="s">
         <v>667</v>
       </c>
-      <c r="D215" s="27" t="s">
+      <c r="D215" s="23" t="s">
         <v>1209</v>
       </c>
       <c r="E215" s="1" t="str">
@@ -11358,7 +11918,7 @@
       <c r="C216" s="9" t="s">
         <v>654</v>
       </c>
-      <c r="D216" s="27" t="s">
+      <c r="D216" s="23" t="s">
         <v>1210</v>
       </c>
       <c r="E216" s="1" t="str">
@@ -11376,7 +11936,7 @@
       <c r="C217" s="9" t="s">
         <v>668</v>
       </c>
-      <c r="D217" s="27" t="s">
+      <c r="D217" s="23" t="s">
         <v>1211</v>
       </c>
       <c r="E217" s="1" t="str">
@@ -11394,7 +11954,7 @@
       <c r="C218" s="9" t="s">
         <v>655</v>
       </c>
-      <c r="D218" s="27" t="s">
+      <c r="D218" s="23" t="s">
         <v>1212</v>
       </c>
       <c r="E218" s="1" t="str">
@@ -11412,7 +11972,7 @@
       <c r="C219" s="9" t="s">
         <v>669</v>
       </c>
-      <c r="D219" s="27" t="s">
+      <c r="D219" s="23" t="s">
         <v>1213</v>
       </c>
       <c r="E219" s="1" t="str">
@@ -11430,7 +11990,7 @@
       <c r="C220" s="9" t="s">
         <v>656</v>
       </c>
-      <c r="D220" s="27" t="s">
+      <c r="D220" s="23" t="s">
         <v>1214</v>
       </c>
       <c r="E220" s="1" t="str">
@@ -11448,7 +12008,7 @@
       <c r="C221" s="9" t="s">
         <v>670</v>
       </c>
-      <c r="D221" s="27" t="s">
+      <c r="D221" s="23" t="s">
         <v>1215</v>
       </c>
       <c r="E221" s="1" t="str">
@@ -11466,7 +12026,7 @@
       <c r="C222" s="9" t="s">
         <v>657</v>
       </c>
-      <c r="D222" s="27" t="s">
+      <c r="D222" s="23" t="s">
         <v>1216</v>
       </c>
       <c r="E222" s="1" t="str">
@@ -11484,7 +12044,7 @@
       <c r="C223" s="9" t="s">
         <v>671</v>
       </c>
-      <c r="D223" s="27" t="s">
+      <c r="D223" s="23" t="s">
         <v>1217</v>
       </c>
       <c r="E223" s="1" t="str">
@@ -11502,7 +12062,7 @@
       <c r="C224" s="9" t="s">
         <v>658</v>
       </c>
-      <c r="D224" s="27" t="s">
+      <c r="D224" s="23" t="s">
         <v>1218</v>
       </c>
       <c r="E224" s="1" t="str">
@@ -11520,7 +12080,7 @@
       <c r="C225" s="9" t="s">
         <v>672</v>
       </c>
-      <c r="D225" s="27" t="s">
+      <c r="D225" s="23" t="s">
         <v>1219</v>
       </c>
       <c r="E225" s="1" t="str">
@@ -11538,7 +12098,7 @@
       <c r="C226" s="9" t="s">
         <v>659</v>
       </c>
-      <c r="D226" s="27" t="s">
+      <c r="D226" s="23" t="s">
         <v>1220</v>
       </c>
       <c r="E226" s="1" t="str">
@@ -11556,7 +12116,7 @@
       <c r="C227" s="9" t="s">
         <v>673</v>
       </c>
-      <c r="D227" s="27" t="s">
+      <c r="D227" s="23" t="s">
         <v>1221</v>
       </c>
       <c r="E227" s="1" t="str">
@@ -11574,7 +12134,7 @@
       <c r="C228" s="9" t="s">
         <v>660</v>
       </c>
-      <c r="D228" s="27" t="s">
+      <c r="D228" s="23" t="s">
         <v>1222</v>
       </c>
       <c r="E228" s="1" t="str">
@@ -11592,7 +12152,7 @@
       <c r="C229" s="9" t="s">
         <v>674</v>
       </c>
-      <c r="D229" s="27" t="s">
+      <c r="D229" s="23" t="s">
         <v>1223</v>
       </c>
       <c r="E229" s="1" t="str">
@@ -11610,7 +12170,7 @@
       <c r="C230" s="9" t="s">
         <v>661</v>
       </c>
-      <c r="D230" s="27" t="s">
+      <c r="D230" s="23" t="s">
         <v>1224</v>
       </c>
       <c r="E230" s="1" t="str">
@@ -11628,7 +12188,7 @@
       <c r="C231" s="9" t="s">
         <v>675</v>
       </c>
-      <c r="D231" s="27" t="s">
+      <c r="D231" s="23" t="s">
         <v>1225</v>
       </c>
       <c r="E231" s="1" t="str">
@@ -11646,7 +12206,7 @@
       <c r="C232" s="9" t="s">
         <v>662</v>
       </c>
-      <c r="D232" s="27" t="s">
+      <c r="D232" s="23" t="s">
         <v>1226</v>
       </c>
       <c r="E232" s="1" t="str">
@@ -11664,7 +12224,7 @@
       <c r="C233" s="9" t="s">
         <v>676</v>
       </c>
-      <c r="D233" s="27" t="s">
+      <c r="D233" s="23" t="s">
         <v>1227</v>
       </c>
       <c r="E233" s="1" t="str">
@@ -11682,7 +12242,7 @@
       <c r="C234" s="9" t="s">
         <v>663</v>
       </c>
-      <c r="D234" s="27" t="s">
+      <c r="D234" s="23" t="s">
         <v>1228</v>
       </c>
       <c r="E234" s="1" t="str">
@@ -11700,7 +12260,7 @@
       <c r="C235" s="9" t="s">
         <v>677</v>
       </c>
-      <c r="D235" s="27" t="s">
+      <c r="D235" s="23" t="s">
         <v>1229</v>
       </c>
       <c r="E235" s="1" t="str">
@@ -11718,7 +12278,7 @@
       <c r="C236" s="9" t="s">
         <v>798</v>
       </c>
-      <c r="D236" s="27" t="s">
+      <c r="D236" s="23" t="s">
         <v>1230</v>
       </c>
       <c r="E236" s="1" t="str">
@@ -11736,7 +12296,7 @@
       <c r="C237" s="9" t="s">
         <v>799</v>
       </c>
-      <c r="D237" s="27" t="s">
+      <c r="D237" s="23" t="s">
         <v>1231</v>
       </c>
       <c r="E237" s="1" t="str">
@@ -11754,7 +12314,7 @@
       <c r="C238" s="9" t="s">
         <v>678</v>
       </c>
-      <c r="D238" s="27" t="s">
+      <c r="D238" s="23" t="s">
         <v>1232</v>
       </c>
       <c r="E238" s="1" t="str">
@@ -11772,7 +12332,7 @@
       <c r="C239" s="9" t="s">
         <v>679</v>
       </c>
-      <c r="D239" s="27" t="s">
+      <c r="D239" s="23" t="s">
         <v>1233</v>
       </c>
       <c r="E239" s="1" t="str">
@@ -11790,7 +12350,7 @@
       <c r="C240" s="11" t="s">
         <v>491</v>
       </c>
-      <c r="D240" s="27" t="s">
+      <c r="D240" s="23" t="s">
         <v>1234</v>
       </c>
       <c r="E240" s="1" t="str">
@@ -11808,7 +12368,7 @@
       <c r="C241" s="11" t="s">
         <v>492</v>
       </c>
-      <c r="D241" s="27" t="s">
+      <c r="D241" s="23" t="s">
         <v>1235</v>
       </c>
       <c r="E241" s="1" t="str">
@@ -11826,7 +12386,7 @@
       <c r="C242" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D242" s="27" t="s">
+      <c r="D242" s="23" t="s">
         <v>1236</v>
       </c>
       <c r="E242" s="1" t="str">
@@ -11844,7 +12404,7 @@
       <c r="C243" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D243" s="27" t="s">
+      <c r="D243" s="23" t="s">
         <v>1237</v>
       </c>
       <c r="E243" s="1" t="str">
@@ -11862,7 +12422,7 @@
       <c r="C244" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D244" s="27" t="s">
+      <c r="D244" s="23" t="s">
         <v>1238</v>
       </c>
       <c r="E244" s="1" t="str">
@@ -11880,7 +12440,7 @@
       <c r="C245" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D245" s="27" t="s">
+      <c r="D245" s="23" t="s">
         <v>1239</v>
       </c>
       <c r="E245" s="1" t="str">
@@ -11898,7 +12458,7 @@
       <c r="C246" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D246" s="27" t="s">
+      <c r="D246" s="23" t="s">
         <v>1240</v>
       </c>
       <c r="E246" s="1" t="str">
@@ -11916,7 +12476,7 @@
       <c r="C247" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D247" s="27" t="s">
+      <c r="D247" s="23" t="s">
         <v>1241</v>
       </c>
       <c r="E247" s="1" t="str">
@@ -11934,7 +12494,7 @@
       <c r="C248" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D248" s="27" t="s">
+      <c r="D248" s="23" t="s">
         <v>1242</v>
       </c>
       <c r="E248" s="1" t="str">
@@ -11952,7 +12512,7 @@
       <c r="C249" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D249" s="27" t="s">
+      <c r="D249" s="23" t="s">
         <v>1243</v>
       </c>
       <c r="E249" s="1" t="str">
@@ -11970,7 +12530,7 @@
       <c r="C250" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="D250" s="27" t="s">
+      <c r="D250" s="23" t="s">
         <v>1244</v>
       </c>
       <c r="E250" s="1" t="str">
@@ -11988,7 +12548,7 @@
       <c r="C251" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D251" s="27" t="s">
+      <c r="D251" s="23" t="s">
         <v>1245</v>
       </c>
       <c r="E251" s="1" t="str">
@@ -12006,7 +12566,7 @@
       <c r="C252" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D252" s="27" t="s">
+      <c r="D252" s="23" t="s">
         <v>1246</v>
       </c>
       <c r="E252" s="1" t="str">
@@ -12024,7 +12584,7 @@
       <c r="C253" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="D253" s="27" t="s">
+      <c r="D253" s="23" t="s">
         <v>1247</v>
       </c>
       <c r="E253" s="1" t="str">
@@ -12042,7 +12602,7 @@
       <c r="C254" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D254" s="27" t="s">
+      <c r="D254" s="23" t="s">
         <v>1248</v>
       </c>
       <c r="E254" s="1" t="str">
@@ -12060,7 +12620,7 @@
       <c r="C255" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="D255" s="27" t="s">
+      <c r="D255" s="23" t="s">
         <v>1249</v>
       </c>
       <c r="E255" s="1" t="str">
@@ -12078,7 +12638,7 @@
       <c r="C256" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="D256" s="27" t="s">
+      <c r="D256" s="23" t="s">
         <v>1250</v>
       </c>
       <c r="E256" s="1" t="str">
@@ -12096,7 +12656,7 @@
       <c r="C257" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="D257" s="27" t="s">
+      <c r="D257" s="23" t="s">
         <v>1251</v>
       </c>
       <c r="E257" s="1" t="str">
@@ -12114,7 +12674,7 @@
       <c r="C258" s="11" t="s">
         <v>435</v>
       </c>
-      <c r="D258" s="27" t="s">
+      <c r="D258" s="23" t="s">
         <v>1252</v>
       </c>
       <c r="E258" s="1" t="str">
@@ -12132,7 +12692,7 @@
       <c r="C259" s="11" t="s">
         <v>436</v>
       </c>
-      <c r="D259" s="27" t="s">
+      <c r="D259" s="23" t="s">
         <v>1253</v>
       </c>
       <c r="E259" s="1" t="str">
@@ -12150,7 +12710,7 @@
       <c r="C260" s="11" t="s">
         <v>437</v>
       </c>
-      <c r="D260" s="27" t="s">
+      <c r="D260" s="23" t="s">
         <v>1254</v>
       </c>
       <c r="E260" s="1" t="str">
@@ -12168,7 +12728,7 @@
       <c r="C261" s="11" t="s">
         <v>438</v>
       </c>
-      <c r="D261" s="27" t="s">
+      <c r="D261" s="23" t="s">
         <v>1255</v>
       </c>
       <c r="E261" s="1" t="str">
@@ -12186,7 +12746,7 @@
       <c r="C262" s="11" t="s">
         <v>439</v>
       </c>
-      <c r="D262" s="27" t="s">
+      <c r="D262" s="23" t="s">
         <v>1256</v>
       </c>
       <c r="E262" s="1" t="str">
@@ -12204,7 +12764,7 @@
       <c r="C263" s="11" t="s">
         <v>440</v>
       </c>
-      <c r="D263" s="27" t="s">
+      <c r="D263" s="23" t="s">
         <v>1257</v>
       </c>
       <c r="E263" s="1" t="str">
@@ -12222,7 +12782,7 @@
       <c r="C264" s="11" t="s">
         <v>441</v>
       </c>
-      <c r="D264" s="27" t="s">
+      <c r="D264" s="23" t="s">
         <v>1258</v>
       </c>
       <c r="E264" s="1" t="str">
@@ -12240,7 +12800,7 @@
       <c r="C265" s="11" t="s">
         <v>442</v>
       </c>
-      <c r="D265" s="27" t="s">
+      <c r="D265" s="23" t="s">
         <v>1259</v>
       </c>
       <c r="E265" s="1" t="str">
@@ -12258,7 +12818,7 @@
       <c r="C266" s="11" t="s">
         <v>443</v>
       </c>
-      <c r="D266" s="27" t="s">
+      <c r="D266" s="23" t="s">
         <v>1260</v>
       </c>
       <c r="E266" s="1" t="str">
@@ -12276,7 +12836,7 @@
       <c r="C267" s="11" t="s">
         <v>444</v>
       </c>
-      <c r="D267" s="27" t="s">
+      <c r="D267" s="23" t="s">
         <v>1261</v>
       </c>
       <c r="E267" s="1" t="str">
@@ -12294,7 +12854,7 @@
       <c r="C268" s="11" t="s">
         <v>445</v>
       </c>
-      <c r="D268" s="27" t="s">
+      <c r="D268" s="23" t="s">
         <v>1262</v>
       </c>
       <c r="E268" s="1" t="str">
@@ -12312,7 +12872,7 @@
       <c r="C269" s="11" t="s">
         <v>446</v>
       </c>
-      <c r="D269" s="27" t="s">
+      <c r="D269" s="23" t="s">
         <v>1263</v>
       </c>
       <c r="E269" s="1" t="str">
@@ -12330,7 +12890,7 @@
       <c r="C270" s="11" t="s">
         <v>447</v>
       </c>
-      <c r="D270" s="27" t="s">
+      <c r="D270" s="23" t="s">
         <v>1264</v>
       </c>
       <c r="E270" s="1" t="str">
@@ -12348,7 +12908,7 @@
       <c r="C271" s="11" t="s">
         <v>448</v>
       </c>
-      <c r="D271" s="27" t="s">
+      <c r="D271" s="23" t="s">
         <v>1265</v>
       </c>
       <c r="E271" s="1" t="str">
@@ -12366,7 +12926,7 @@
       <c r="C272" s="11" t="s">
         <v>449</v>
       </c>
-      <c r="D272" s="27" t="s">
+      <c r="D272" s="23" t="s">
         <v>1266</v>
       </c>
       <c r="E272" s="1" t="str">
@@ -12384,7 +12944,7 @@
       <c r="C273" s="11" t="s">
         <v>450</v>
       </c>
-      <c r="D273" s="27" t="s">
+      <c r="D273" s="23" t="s">
         <v>1267</v>
       </c>
       <c r="E273" s="1" t="str">
@@ -12402,7 +12962,7 @@
       <c r="C274" s="11" t="s">
         <v>493</v>
       </c>
-      <c r="D274" s="27" t="s">
+      <c r="D274" s="23" t="s">
         <v>1268</v>
       </c>
       <c r="E274" s="1" t="str">
@@ -12420,7 +12980,7 @@
       <c r="C275" s="11" t="s">
         <v>494</v>
       </c>
-      <c r="D275" s="27" t="s">
+      <c r="D275" s="23" t="s">
         <v>1269</v>
       </c>
       <c r="E275" s="1" t="str">
@@ -12438,7 +12998,7 @@
       <c r="C276" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="D276" s="27" t="s">
+      <c r="D276" s="23" t="s">
         <v>1270</v>
       </c>
       <c r="E276" s="1" t="str">
@@ -12456,7 +13016,7 @@
       <c r="C277" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="D277" s="27" t="s">
+      <c r="D277" s="23" t="s">
         <v>1271</v>
       </c>
       <c r="E277" s="1" t="str">
@@ -12474,7 +13034,7 @@
       <c r="C278" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="D278" s="27" t="s">
+      <c r="D278" s="23" t="s">
         <v>1272</v>
       </c>
       <c r="E278" s="1" t="str">
@@ -12492,7 +13052,7 @@
       <c r="C279" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="D279" s="27" t="s">
+      <c r="D279" s="23" t="s">
         <v>1273</v>
       </c>
       <c r="E279" s="1" t="str">
@@ -12510,7 +13070,7 @@
       <c r="C280" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="D280" s="27" t="s">
+      <c r="D280" s="23" t="s">
         <v>1274</v>
       </c>
       <c r="E280" s="1" t="str">
@@ -12528,7 +13088,7 @@
       <c r="C281" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="D281" s="27" t="s">
+      <c r="D281" s="23" t="s">
         <v>1275</v>
       </c>
       <c r="E281" s="1" t="str">
@@ -12546,7 +13106,7 @@
       <c r="C282" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="D282" s="27" t="s">
+      <c r="D282" s="23" t="s">
         <v>1276</v>
       </c>
       <c r="E282" s="1" t="str">
@@ -12564,7 +13124,7 @@
       <c r="C283" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="D283" s="27" t="s">
+      <c r="D283" s="23" t="s">
         <v>1277</v>
       </c>
       <c r="E283" s="1" t="str">
@@ -12582,7 +13142,7 @@
       <c r="C284" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="D284" s="27" t="s">
+      <c r="D284" s="23" t="s">
         <v>1278</v>
       </c>
       <c r="E284" s="1" t="str">
@@ -12600,7 +13160,7 @@
       <c r="C285" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="D285" s="27" t="s">
+      <c r="D285" s="23" t="s">
         <v>1279</v>
       </c>
       <c r="E285" s="1" t="str">
@@ -12618,7 +13178,7 @@
       <c r="C286" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="D286" s="27" t="s">
+      <c r="D286" s="23" t="s">
         <v>1280</v>
       </c>
       <c r="E286" s="1" t="str">
@@ -12636,7 +13196,7 @@
       <c r="C287" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="D287" s="27" t="s">
+      <c r="D287" s="23" t="s">
         <v>1281</v>
       </c>
       <c r="E287" s="1" t="str">
@@ -12654,7 +13214,7 @@
       <c r="C288" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="D288" s="27" t="s">
+      <c r="D288" s="23" t="s">
         <v>1282</v>
       </c>
       <c r="E288" s="1" t="str">
@@ -12672,7 +13232,7 @@
       <c r="C289" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="D289" s="27" t="s">
+      <c r="D289" s="23" t="s">
         <v>1283</v>
       </c>
       <c r="E289" s="1" t="str">
@@ -12690,7 +13250,7 @@
       <c r="C290" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="D290" s="27" t="s">
+      <c r="D290" s="23" t="s">
         <v>1284</v>
       </c>
       <c r="E290" s="1" t="str">
@@ -12708,7 +13268,7 @@
       <c r="C291" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="D291" s="27" t="s">
+      <c r="D291" s="23" t="s">
         <v>1285</v>
       </c>
       <c r="E291" s="1" t="str">
@@ -12726,7 +13286,7 @@
       <c r="C292" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="D292" s="27" t="s">
+      <c r="D292" s="23" t="s">
         <v>1286</v>
       </c>
       <c r="E292" s="1" t="str">
@@ -12744,7 +13304,7 @@
       <c r="C293" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="D293" s="27" t="s">
+      <c r="D293" s="23" t="s">
         <v>1287</v>
       </c>
       <c r="E293" s="1" t="str">
@@ -12762,7 +13322,7 @@
       <c r="C294" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="D294" s="27" t="s">
+      <c r="D294" s="23" t="s">
         <v>1288</v>
       </c>
       <c r="E294" s="1" t="str">
@@ -12780,7 +13340,7 @@
       <c r="C295" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="D295" s="27" t="s">
+      <c r="D295" s="23" t="s">
         <v>1289</v>
       </c>
       <c r="E295" s="1" t="str">
@@ -12798,7 +13358,7 @@
       <c r="C296" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D296" s="27" t="s">
+      <c r="D296" s="23" t="s">
         <v>1290</v>
       </c>
       <c r="E296" s="1" t="str">
@@ -12816,7 +13376,7 @@
       <c r="C297" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D297" s="27" t="s">
+      <c r="D297" s="23" t="s">
         <v>1291</v>
       </c>
       <c r="E297" s="1" t="str">
@@ -12834,7 +13394,7 @@
       <c r="C298" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="D298" s="27" t="s">
+      <c r="D298" s="23" t="s">
         <v>1292</v>
       </c>
       <c r="E298" s="1" t="str">
@@ -12852,7 +13412,7 @@
       <c r="C299" s="12" t="s">
         <v>298</v>
       </c>
-      <c r="D299" s="27" t="s">
+      <c r="D299" s="23" t="s">
         <v>1293</v>
       </c>
       <c r="E299" s="1" t="str">
@@ -12870,7 +13430,7 @@
       <c r="C300" s="12" t="s">
         <v>299</v>
       </c>
-      <c r="D300" s="27" t="s">
+      <c r="D300" s="23" t="s">
         <v>1294</v>
       </c>
       <c r="E300" s="1" t="str">
@@ -12888,7 +13448,7 @@
       <c r="C301" s="12" t="s">
         <v>300</v>
       </c>
-      <c r="D301" s="27" t="s">
+      <c r="D301" s="23" t="s">
         <v>1295</v>
       </c>
       <c r="E301" s="1" t="str">
@@ -12906,7 +13466,7 @@
       <c r="C302" s="13" t="s">
         <v>990</v>
       </c>
-      <c r="D302" s="27" t="s">
+      <c r="D302" s="23" t="s">
         <v>1296</v>
       </c>
       <c r="E302" s="1" t="str">
@@ -12924,7 +13484,7 @@
       <c r="C303" s="14" t="s">
         <v>991</v>
       </c>
-      <c r="D303" s="27" t="s">
+      <c r="D303" s="23" t="s">
         <v>1297</v>
       </c>
       <c r="E303" s="1" t="str">
@@ -12942,7 +13502,7 @@
       <c r="C304" s="14" t="s">
         <v>992</v>
       </c>
-      <c r="D304" s="27" t="s">
+      <c r="D304" s="23" t="s">
         <v>1298</v>
       </c>
       <c r="E304" s="1" t="str">
@@ -12960,7 +13520,7 @@
       <c r="C305" s="12" t="s">
         <v>307</v>
       </c>
-      <c r="D305" s="27" t="s">
+      <c r="D305" s="23" t="s">
         <v>1299</v>
       </c>
       <c r="E305" s="1" t="str">
@@ -12978,7 +13538,7 @@
       <c r="C306" s="11" t="s">
         <v>642</v>
       </c>
-      <c r="D306" s="27" t="s">
+      <c r="D306" s="23" t="s">
         <v>1300</v>
       </c>
       <c r="E306" s="1" t="str">
@@ -12996,7 +13556,7 @@
       <c r="C307" s="11" t="s">
         <v>643</v>
       </c>
-      <c r="D307" s="27" t="s">
+      <c r="D307" s="23" t="s">
         <v>1301</v>
       </c>
       <c r="E307" s="1" t="str">
@@ -13014,7 +13574,7 @@
       <c r="C308" s="11" t="s">
         <v>644</v>
       </c>
-      <c r="D308" s="27" t="s">
+      <c r="D308" s="23" t="s">
         <v>1302</v>
       </c>
       <c r="E308" s="1" t="str">
@@ -13032,7 +13592,7 @@
       <c r="C309" s="11" t="s">
         <v>645</v>
       </c>
-      <c r="D309" s="27" t="s">
+      <c r="D309" s="23" t="s">
         <v>1303</v>
       </c>
       <c r="E309" s="1" t="str">
@@ -13050,7 +13610,7 @@
       <c r="C310" s="11" t="s">
         <v>646</v>
       </c>
-      <c r="D310" s="27" t="s">
+      <c r="D310" s="23" t="s">
         <v>1304</v>
       </c>
       <c r="E310" s="1" t="str">
@@ -13068,7 +13628,7 @@
       <c r="C311" s="11" t="s">
         <v>647</v>
       </c>
-      <c r="D311" s="27" t="s">
+      <c r="D311" s="23" t="s">
         <v>1305</v>
       </c>
       <c r="E311" s="1" t="str">
@@ -13086,7 +13646,7 @@
       <c r="C312" s="11" t="s">
         <v>648</v>
       </c>
-      <c r="D312" s="27" t="s">
+      <c r="D312" s="23" t="s">
         <v>1306</v>
       </c>
       <c r="E312" s="1" t="str">
@@ -13104,7 +13664,7 @@
       <c r="C313" s="11" t="s">
         <v>649</v>
       </c>
-      <c r="D313" s="27" t="s">
+      <c r="D313" s="23" t="s">
         <v>1307</v>
       </c>
       <c r="E313" s="1" t="str">
@@ -13122,7 +13682,7 @@
       <c r="C314" s="11" t="s">
         <v>636</v>
       </c>
-      <c r="D314" s="27" t="s">
+      <c r="D314" s="23" t="s">
         <v>1308</v>
       </c>
       <c r="E314" s="1" t="str">
@@ -13140,7 +13700,7 @@
       <c r="C315" s="11" t="s">
         <v>637</v>
       </c>
-      <c r="D315" s="27" t="s">
+      <c r="D315" s="23" t="s">
         <v>1309</v>
       </c>
       <c r="E315" s="1" t="str">
@@ -13158,7 +13718,7 @@
       <c r="C316" s="11" t="s">
         <v>638</v>
       </c>
-      <c r="D316" s="27" t="s">
+      <c r="D316" s="23" t="s">
         <v>1310</v>
       </c>
       <c r="E316" s="1" t="str">
@@ -13176,7 +13736,7 @@
       <c r="C317" s="11" t="s">
         <v>639</v>
       </c>
-      <c r="D317" s="27" t="s">
+      <c r="D317" s="23" t="s">
         <v>1311</v>
       </c>
       <c r="E317" s="1" t="str">
@@ -13194,7 +13754,7 @@
       <c r="C318" s="11" t="s">
         <v>640</v>
       </c>
-      <c r="D318" s="27" t="s">
+      <c r="D318" s="23" t="s">
         <v>1312</v>
       </c>
       <c r="E318" s="1" t="str">
@@ -13212,7 +13772,7 @@
       <c r="C319" s="11" t="s">
         <v>641</v>
       </c>
-      <c r="D319" s="27" t="s">
+      <c r="D319" s="23" t="s">
         <v>1313</v>
       </c>
       <c r="E319" s="1" t="str">
@@ -13230,7 +13790,7 @@
       <c r="C320" s="11" t="s">
         <v>498</v>
       </c>
-      <c r="D320" s="27" t="s">
+      <c r="D320" s="23" t="s">
         <v>1314</v>
       </c>
       <c r="E320" s="1" t="str">
@@ -13248,7 +13808,7 @@
       <c r="C321" s="11" t="s">
         <v>499</v>
       </c>
-      <c r="D321" s="27" t="s">
+      <c r="D321" s="23" t="s">
         <v>1315</v>
       </c>
       <c r="E321" s="1" t="str">
@@ -13266,7 +13826,7 @@
       <c r="C322" s="11" t="s">
         <v>500</v>
       </c>
-      <c r="D322" s="27" t="s">
+      <c r="D322" s="23" t="s">
         <v>1316</v>
       </c>
       <c r="E322" s="1" t="str">
@@ -13284,7 +13844,7 @@
       <c r="C323" s="11" t="s">
         <v>501</v>
       </c>
-      <c r="D323" s="27" t="s">
+      <c r="D323" s="23" t="s">
         <v>1317</v>
       </c>
       <c r="E323" s="1" t="str">
@@ -13302,7 +13862,7 @@
       <c r="C324" s="11" t="s">
         <v>502</v>
       </c>
-      <c r="D324" s="27" t="s">
+      <c r="D324" s="23" t="s">
         <v>1318</v>
       </c>
       <c r="E324" s="1" t="str">
@@ -13320,7 +13880,7 @@
       <c r="C325" s="11" t="s">
         <v>503</v>
       </c>
-      <c r="D325" s="27" t="s">
+      <c r="D325" s="23" t="s">
         <v>1319</v>
       </c>
       <c r="E325" s="1" t="str">
@@ -13338,7 +13898,7 @@
       <c r="C326" s="11" t="s">
         <v>612</v>
       </c>
-      <c r="D326" s="27" t="s">
+      <c r="D326" s="23" t="s">
         <v>1320</v>
       </c>
       <c r="E326" s="1" t="str">
@@ -13356,7 +13916,7 @@
       <c r="C327" s="11" t="s">
         <v>613</v>
       </c>
-      <c r="D327" s="27" t="s">
+      <c r="D327" s="23" t="s">
         <v>1321</v>
       </c>
       <c r="E327" s="1" t="str">
@@ -13374,7 +13934,7 @@
       <c r="C328" s="11" t="s">
         <v>614</v>
       </c>
-      <c r="D328" s="27" t="s">
+      <c r="D328" s="23" t="s">
         <v>1322</v>
       </c>
       <c r="E328" s="1" t="str">
@@ -13392,7 +13952,7 @@
       <c r="C329" s="11" t="s">
         <v>615</v>
       </c>
-      <c r="D329" s="27" t="s">
+      <c r="D329" s="23" t="s">
         <v>1323</v>
       </c>
       <c r="E329" s="1" t="str">
@@ -13410,7 +13970,7 @@
       <c r="C330" s="11" t="s">
         <v>616</v>
       </c>
-      <c r="D330" s="27" t="s">
+      <c r="D330" s="23" t="s">
         <v>1324</v>
       </c>
       <c r="E330" s="1" t="str">
@@ -13428,7 +13988,7 @@
       <c r="C331" s="11" t="s">
         <v>617</v>
       </c>
-      <c r="D331" s="27" t="s">
+      <c r="D331" s="23" t="s">
         <v>1325</v>
       </c>
       <c r="E331" s="1" t="str">
@@ -13446,7 +14006,7 @@
       <c r="C332" s="11" t="s">
         <v>618</v>
       </c>
-      <c r="D332" s="27" t="s">
+      <c r="D332" s="23" t="s">
         <v>1326</v>
       </c>
       <c r="E332" s="1" t="str">
@@ -13464,7 +14024,7 @@
       <c r="C333" s="11" t="s">
         <v>619</v>
       </c>
-      <c r="D333" s="27" t="s">
+      <c r="D333" s="23" t="s">
         <v>1327</v>
       </c>
       <c r="E333" s="1" t="str">
@@ -13482,7 +14042,7 @@
       <c r="C334" s="11" t="s">
         <v>620</v>
       </c>
-      <c r="D334" s="27" t="s">
+      <c r="D334" s="23" t="s">
         <v>1328</v>
       </c>
       <c r="E334" s="1" t="str">
@@ -13500,7 +14060,7 @@
       <c r="C335" s="11" t="s">
         <v>621</v>
       </c>
-      <c r="D335" s="27" t="s">
+      <c r="D335" s="23" t="s">
         <v>1329</v>
       </c>
       <c r="E335" s="1" t="str">
@@ -13518,7 +14078,7 @@
       <c r="C336" s="11" t="s">
         <v>622</v>
       </c>
-      <c r="D336" s="27" t="s">
+      <c r="D336" s="23" t="s">
         <v>1330</v>
       </c>
       <c r="E336" s="1" t="str">
@@ -13536,7 +14096,7 @@
       <c r="C337" s="11" t="s">
         <v>623</v>
       </c>
-      <c r="D337" s="27" t="s">
+      <c r="D337" s="23" t="s">
         <v>1331</v>
       </c>
       <c r="E337" s="1" t="str">
@@ -13554,7 +14114,7 @@
       <c r="C338" s="11" t="s">
         <v>624</v>
       </c>
-      <c r="D338" s="27" t="s">
+      <c r="D338" s="23" t="s">
         <v>1332</v>
       </c>
       <c r="E338" s="1" t="str">
@@ -13572,7 +14132,7 @@
       <c r="C339" s="11" t="s">
         <v>626</v>
       </c>
-      <c r="D339" s="27" t="s">
+      <c r="D339" s="23" t="s">
         <v>1333</v>
       </c>
       <c r="E339" s="1" t="str">
@@ -13590,7 +14150,7 @@
       <c r="C340" s="11" t="s">
         <v>625</v>
       </c>
-      <c r="D340" s="27" t="s">
+      <c r="D340" s="23" t="s">
         <v>1334</v>
       </c>
       <c r="E340" s="1" t="str">
@@ -13608,7 +14168,7 @@
       <c r="C341" s="11" t="s">
         <v>627</v>
       </c>
-      <c r="D341" s="27" t="s">
+      <c r="D341" s="23" t="s">
         <v>1335</v>
       </c>
       <c r="E341" s="1" t="str">
@@ -13626,7 +14186,7 @@
       <c r="C342" s="11" t="s">
         <v>628</v>
       </c>
-      <c r="D342" s="27" t="s">
+      <c r="D342" s="23" t="s">
         <v>1336</v>
       </c>
       <c r="E342" s="1" t="str">
@@ -13644,7 +14204,7 @@
       <c r="C343" s="11" t="s">
         <v>629</v>
       </c>
-      <c r="D343" s="27" t="s">
+      <c r="D343" s="23" t="s">
         <v>1337</v>
       </c>
       <c r="E343" s="1" t="str">
@@ -13662,7 +14222,7 @@
       <c r="C344" s="11" t="s">
         <v>630</v>
       </c>
-      <c r="D344" s="27" t="s">
+      <c r="D344" s="23" t="s">
         <v>1338</v>
       </c>
       <c r="E344" s="1" t="str">
@@ -13680,7 +14240,7 @@
       <c r="C345" s="11" t="s">
         <v>631</v>
       </c>
-      <c r="D345" s="27" t="s">
+      <c r="D345" s="23" t="s">
         <v>1339</v>
       </c>
       <c r="E345" s="1" t="str">
@@ -13698,7 +14258,7 @@
       <c r="C346" s="11" t="s">
         <v>518</v>
       </c>
-      <c r="D346" s="27" t="s">
+      <c r="D346" s="23" t="s">
         <v>1340</v>
       </c>
       <c r="E346" s="1" t="str">
@@ -13716,7 +14276,7 @@
       <c r="C347" s="11" t="s">
         <v>519</v>
       </c>
-      <c r="D347" s="27" t="s">
+      <c r="D347" s="23" t="s">
         <v>1341</v>
       </c>
       <c r="E347" s="1" t="str">
@@ -13734,7 +14294,7 @@
       <c r="C348" s="11" t="s">
         <v>520</v>
       </c>
-      <c r="D348" s="27" t="s">
+      <c r="D348" s="23" t="s">
         <v>1342</v>
       </c>
       <c r="E348" s="1" t="str">
@@ -13752,7 +14312,7 @@
       <c r="C349" s="11" t="s">
         <v>521</v>
       </c>
-      <c r="D349" s="27" t="s">
+      <c r="D349" s="23" t="s">
         <v>1343</v>
       </c>
       <c r="E349" s="1" t="str">
@@ -13770,7 +14330,7 @@
       <c r="C350" s="11" t="s">
         <v>522</v>
       </c>
-      <c r="D350" s="27" t="s">
+      <c r="D350" s="23" t="s">
         <v>1344</v>
       </c>
       <c r="E350" s="1" t="str">
@@ -13788,7 +14348,7 @@
       <c r="C351" s="11" t="s">
         <v>523</v>
       </c>
-      <c r="D351" s="27" t="s">
+      <c r="D351" s="23" t="s">
         <v>1345</v>
       </c>
       <c r="E351" s="1" t="str">
@@ -13806,7 +14366,7 @@
       <c r="C352" s="11" t="s">
         <v>524</v>
       </c>
-      <c r="D352" s="27" t="s">
+      <c r="D352" s="23" t="s">
         <v>1346</v>
       </c>
       <c r="E352" s="1" t="str">
@@ -13824,7 +14384,7 @@
       <c r="C353" s="11" t="s">
         <v>525</v>
       </c>
-      <c r="D353" s="27" t="s">
+      <c r="D353" s="23" t="s">
         <v>1347</v>
       </c>
       <c r="E353" s="1" t="str">
@@ -13842,7 +14402,7 @@
       <c r="C354" s="11" t="s">
         <v>526</v>
       </c>
-      <c r="D354" s="27" t="s">
+      <c r="D354" s="23" t="s">
         <v>1348</v>
       </c>
       <c r="E354" s="1" t="str">
@@ -13860,7 +14420,7 @@
       <c r="C355" s="11" t="s">
         <v>527</v>
       </c>
-      <c r="D355" s="27" t="s">
+      <c r="D355" s="23" t="s">
         <v>1349</v>
       </c>
       <c r="E355" s="1" t="str">
@@ -13878,7 +14438,7 @@
       <c r="C356" s="11" t="s">
         <v>528</v>
       </c>
-      <c r="D356" s="27" t="s">
+      <c r="D356" s="23" t="s">
         <v>1350</v>
       </c>
       <c r="E356" s="1" t="str">
@@ -13896,7 +14456,7 @@
       <c r="C357" s="11" t="s">
         <v>529</v>
       </c>
-      <c r="D357" s="27" t="s">
+      <c r="D357" s="23" t="s">
         <v>1351</v>
       </c>
       <c r="E357" s="1" t="str">
@@ -13914,7 +14474,7 @@
       <c r="C358" s="11" t="s">
         <v>632</v>
       </c>
-      <c r="D358" s="27" t="s">
+      <c r="D358" s="23" t="s">
         <v>1352</v>
       </c>
       <c r="E358" s="1" t="str">
@@ -13932,7 +14492,7 @@
       <c r="C359" s="11" t="s">
         <v>633</v>
       </c>
-      <c r="D359" s="27" t="s">
+      <c r="D359" s="23" t="s">
         <v>1353</v>
       </c>
       <c r="E359" s="1" t="str">
@@ -13950,7 +14510,7 @@
       <c r="C360" s="11" t="s">
         <v>634</v>
       </c>
-      <c r="D360" s="27" t="s">
+      <c r="D360" s="23" t="s">
         <v>1354</v>
       </c>
       <c r="E360" s="1" t="str">
@@ -13968,7 +14528,7 @@
       <c r="C361" s="11" t="s">
         <v>635</v>
       </c>
-      <c r="D361" s="27" t="s">
+      <c r="D361" s="23" t="s">
         <v>1355</v>
       </c>
       <c r="E361" s="1" t="str">
@@ -13986,7 +14546,7 @@
       <c r="C362" s="12" t="s">
         <v>308</v>
       </c>
-      <c r="D362" s="27" t="s">
+      <c r="D362" s="23" t="s">
         <v>1356</v>
       </c>
       <c r="E362" s="1" t="str">
@@ -14004,7 +14564,7 @@
       <c r="C363" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="D363" s="27" t="s">
+      <c r="D363" s="23" t="s">
         <v>1357</v>
       </c>
       <c r="E363" s="1" t="str">
@@ -14022,7 +14582,7 @@
       <c r="C364" s="12" t="s">
         <v>311</v>
       </c>
-      <c r="D364" s="27" t="s">
+      <c r="D364" s="23" t="s">
         <v>1358</v>
       </c>
       <c r="E364" s="1" t="str">
@@ -14040,7 +14600,7 @@
       <c r="C365" s="12" t="s">
         <v>312</v>
       </c>
-      <c r="D365" s="27" t="s">
+      <c r="D365" s="23" t="s">
         <v>1359</v>
       </c>
       <c r="E365" s="1" t="str">
@@ -14058,7 +14618,7 @@
       <c r="C366" s="12" t="s">
         <v>309</v>
       </c>
-      <c r="D366" s="27" t="s">
+      <c r="D366" s="23" t="s">
         <v>1360</v>
       </c>
       <c r="E366" s="1" t="str">
@@ -14076,7 +14636,7 @@
       <c r="C367" s="12" t="s">
         <v>313</v>
       </c>
-      <c r="D367" s="27" t="s">
+      <c r="D367" s="23" t="s">
         <v>1361</v>
       </c>
       <c r="E367" s="1" t="str">
@@ -14094,7 +14654,7 @@
       <c r="C368" s="12" t="s">
         <v>314</v>
       </c>
-      <c r="D368" s="27" t="s">
+      <c r="D368" s="23" t="s">
         <v>1362</v>
       </c>
       <c r="E368" s="1" t="str">
@@ -14112,7 +14672,7 @@
       <c r="C369" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="D369" s="27" t="s">
+      <c r="D369" s="23" t="s">
         <v>1363</v>
       </c>
       <c r="E369" s="1" t="str">
@@ -14130,7 +14690,7 @@
       <c r="C370" s="12" t="s">
         <v>506</v>
       </c>
-      <c r="D370" s="27" t="s">
+      <c r="D370" s="23" t="s">
         <v>1364</v>
       </c>
       <c r="E370" s="1" t="str">
@@ -14148,7 +14708,7 @@
       <c r="C371" s="12" t="s">
         <v>507</v>
       </c>
-      <c r="D371" s="27" t="s">
+      <c r="D371" s="23" t="s">
         <v>1365</v>
       </c>
       <c r="E371" s="1" t="str">
@@ -14166,7 +14726,7 @@
       <c r="C372" s="12" t="s">
         <v>508</v>
       </c>
-      <c r="D372" s="27" t="s">
+      <c r="D372" s="23" t="s">
         <v>1366</v>
       </c>
       <c r="E372" s="1" t="str">
@@ -14184,7 +14744,7 @@
       <c r="C373" s="12" t="s">
         <v>509</v>
       </c>
-      <c r="D373" s="27" t="s">
+      <c r="D373" s="23" t="s">
         <v>1367</v>
       </c>
       <c r="E373" s="1" t="str">
@@ -14202,7 +14762,7 @@
       <c r="C374" s="12" t="s">
         <v>510</v>
       </c>
-      <c r="D374" s="27" t="s">
+      <c r="D374" s="23" t="s">
         <v>1368</v>
       </c>
       <c r="E374" s="1" t="str">
@@ -14220,7 +14780,7 @@
       <c r="C375" s="12" t="s">
         <v>511</v>
       </c>
-      <c r="D375" s="27" t="s">
+      <c r="D375" s="23" t="s">
         <v>1369</v>
       </c>
       <c r="E375" s="1" t="str">
@@ -14238,7 +14798,7 @@
       <c r="C376" s="12" t="s">
         <v>512</v>
       </c>
-      <c r="D376" s="27" t="s">
+      <c r="D376" s="23" t="s">
         <v>1370</v>
       </c>
       <c r="E376" s="1" t="str">
@@ -14256,7 +14816,7 @@
       <c r="C377" s="12" t="s">
         <v>513</v>
       </c>
-      <c r="D377" s="27" t="s">
+      <c r="D377" s="23" t="s">
         <v>1371</v>
       </c>
       <c r="E377" s="1" t="str">
@@ -14274,7 +14834,7 @@
       <c r="C378" s="12" t="s">
         <v>514</v>
       </c>
-      <c r="D378" s="27" t="s">
+      <c r="D378" s="23" t="s">
         <v>1372</v>
       </c>
       <c r="E378" s="1" t="str">
@@ -14292,7 +14852,7 @@
       <c r="C379" s="12" t="s">
         <v>515</v>
       </c>
-      <c r="D379" s="27" t="s">
+      <c r="D379" s="23" t="s">
         <v>1373</v>
       </c>
       <c r="E379" s="1" t="str">
@@ -14310,7 +14870,7 @@
       <c r="C380" s="12" t="s">
         <v>516</v>
       </c>
-      <c r="D380" s="27" t="s">
+      <c r="D380" s="23" t="s">
         <v>1374</v>
       </c>
       <c r="E380" s="1" t="str">
@@ -14328,7 +14888,7 @@
       <c r="C381" s="12" t="s">
         <v>517</v>
       </c>
-      <c r="D381" s="27" t="s">
+      <c r="D381" s="23" t="s">
         <v>1375</v>
       </c>
       <c r="E381" s="1" t="str">
@@ -14346,7 +14906,7 @@
       <c r="C382" s="11" t="s">
         <v>504</v>
       </c>
-      <c r="D382" s="27" t="s">
+      <c r="D382" s="23" t="s">
         <v>1376</v>
       </c>
       <c r="E382" s="1" t="str">
@@ -14364,7 +14924,7 @@
       <c r="C383" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D383" s="27" t="s">
+      <c r="D383" s="23" t="s">
         <v>1377</v>
       </c>
       <c r="E383" s="1" t="str">
@@ -14382,7 +14942,7 @@
       <c r="C384" s="11" t="s">
         <v>505</v>
       </c>
-      <c r="D384" s="27" t="s">
+      <c r="D384" s="23" t="s">
         <v>1378</v>
       </c>
       <c r="E384" s="1" t="str">
@@ -14400,7 +14960,7 @@
       <c r="C385" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D385" s="27" t="s">
+      <c r="D385" s="23" t="s">
         <v>1379</v>
       </c>
       <c r="E385" s="1" t="str">
@@ -14418,7 +14978,7 @@
       <c r="C386" s="11" t="s">
         <v>451</v>
       </c>
-      <c r="D386" s="27" t="s">
+      <c r="D386" s="23" t="s">
         <v>1380</v>
       </c>
       <c r="E386" s="1" t="str">
@@ -14436,7 +14996,7 @@
       <c r="C387" s="11" t="s">
         <v>452</v>
       </c>
-      <c r="D387" s="27" t="s">
+      <c r="D387" s="23" t="s">
         <v>1381</v>
       </c>
       <c r="E387" s="1" t="str">
@@ -14454,7 +15014,7 @@
       <c r="C388" s="11" t="s">
         <v>792</v>
       </c>
-      <c r="D388" s="27" t="s">
+      <c r="D388" s="23" t="s">
         <v>1382</v>
       </c>
       <c r="E388" s="1" t="str">
@@ -14472,7 +15032,7 @@
       <c r="C389" s="11" t="s">
         <v>793</v>
       </c>
-      <c r="D389" s="27" t="s">
+      <c r="D389" s="23" t="s">
         <v>1383</v>
       </c>
       <c r="E389" s="1" t="str">
@@ -14490,7 +15050,7 @@
       <c r="C390" s="11" t="s">
         <v>767</v>
       </c>
-      <c r="D390" s="27" t="s">
+      <c r="D390" s="23" t="s">
         <v>1384</v>
       </c>
       <c r="E390" s="1" t="str">
@@ -14508,7 +15068,7 @@
       <c r="C391" s="11" t="s">
         <v>768</v>
       </c>
-      <c r="D391" s="27" t="s">
+      <c r="D391" s="23" t="s">
         <v>1385</v>
       </c>
       <c r="E391" s="1" t="str">
@@ -14526,7 +15086,7 @@
       <c r="C392" s="11" t="s">
         <v>794</v>
       </c>
-      <c r="D392" s="27" t="s">
+      <c r="D392" s="23" t="s">
         <v>1386</v>
       </c>
       <c r="E392" s="1" t="str">
@@ -14544,7 +15104,7 @@
       <c r="C393" s="11" t="s">
         <v>795</v>
       </c>
-      <c r="D393" s="27" t="s">
+      <c r="D393" s="23" t="s">
         <v>1387</v>
       </c>
       <c r="E393" s="1" t="str">
@@ -14562,7 +15122,7 @@
       <c r="C394" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="D394" s="27" t="s">
+      <c r="D394" s="23" t="s">
         <v>1388</v>
       </c>
       <c r="E394" s="1" t="str">
@@ -14580,7 +15140,7 @@
       <c r="C395" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="D395" s="27" t="s">
+      <c r="D395" s="23" t="s">
         <v>1389</v>
       </c>
       <c r="E395" s="1" t="str">
@@ -14598,7 +15158,7 @@
       <c r="C396" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="D396" s="27" t="s">
+      <c r="D396" s="23" t="s">
         <v>1390</v>
       </c>
       <c r="E396" s="1" t="str">
@@ -14616,7 +15176,7 @@
       <c r="C397" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="D397" s="27" t="s">
+      <c r="D397" s="23" t="s">
         <v>1391</v>
       </c>
       <c r="E397" s="1" t="str">
@@ -14634,7 +15194,7 @@
       <c r="C398" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="D398" s="27" t="s">
+      <c r="D398" s="23" t="s">
         <v>1392</v>
       </c>
       <c r="E398" s="1" t="str">
@@ -14652,7 +15212,7 @@
       <c r="C399" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="D399" s="27" t="s">
+      <c r="D399" s="23" t="s">
         <v>1393</v>
       </c>
       <c r="E399" s="1" t="str">
@@ -14670,7 +15230,7 @@
       <c r="C400" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="D400" s="27" t="s">
+      <c r="D400" s="23" t="s">
         <v>1394</v>
       </c>
       <c r="E400" s="1" t="str">
@@ -14688,7 +15248,7 @@
       <c r="C401" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="D401" s="27" t="s">
+      <c r="D401" s="23" t="s">
         <v>1395</v>
       </c>
       <c r="E401" s="1" t="str">
@@ -14706,7 +15266,7 @@
       <c r="C402" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="D402" s="27" t="s">
+      <c r="D402" s="23" t="s">
         <v>1396</v>
       </c>
       <c r="E402" s="1" t="str">
@@ -14724,7 +15284,7 @@
       <c r="C403" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="D403" s="27" t="s">
+      <c r="D403" s="23" t="s">
         <v>1397</v>
       </c>
       <c r="E403" s="1" t="str">
@@ -14742,7 +15302,7 @@
       <c r="C404" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="D404" s="27" t="s">
+      <c r="D404" s="23" t="s">
         <v>1398</v>
       </c>
       <c r="E404" s="1" t="str">
@@ -14760,7 +15320,7 @@
       <c r="C405" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="D405" s="27" t="s">
+      <c r="D405" s="23" t="s">
         <v>1399</v>
       </c>
       <c r="E405" s="1" t="str">
@@ -14778,7 +15338,7 @@
       <c r="C406" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="D406" s="27" t="s">
+      <c r="D406" s="23" t="s">
         <v>1400</v>
       </c>
       <c r="E406" s="1" t="str">
@@ -14796,7 +15356,7 @@
       <c r="C407" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="D407" s="27" t="s">
+      <c r="D407" s="23" t="s">
         <v>1401</v>
       </c>
       <c r="E407" s="1" t="str">
@@ -14814,7 +15374,7 @@
       <c r="C408" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D408" s="27" t="s">
+      <c r="D408" s="23" t="s">
         <v>1402</v>
       </c>
       <c r="E408" s="1" t="str">
@@ -14832,7 +15392,7 @@
       <c r="C409" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D409" s="27" t="s">
+      <c r="D409" s="23" t="s">
         <v>1403</v>
       </c>
       <c r="E409" s="1" t="str">
@@ -14850,7 +15410,7 @@
       <c r="C410" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D410" s="27" t="s">
+      <c r="D410" s="23" t="s">
         <v>1404</v>
       </c>
       <c r="E410" s="1" t="str">
@@ -14868,7 +15428,7 @@
       <c r="C411" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D411" s="27" t="s">
+      <c r="D411" s="23" t="s">
         <v>1405</v>
       </c>
       <c r="E411" s="1" t="str">
@@ -14886,7 +15446,7 @@
       <c r="C412" s="10" t="s">
         <v>594</v>
       </c>
-      <c r="D412" s="27" t="s">
+      <c r="D412" s="23" t="s">
         <v>1406</v>
       </c>
       <c r="E412" s="1" t="str">
@@ -14904,7 +15464,7 @@
       <c r="C413" s="10" t="s">
         <v>595</v>
       </c>
-      <c r="D413" s="27" t="s">
+      <c r="D413" s="23" t="s">
         <v>1407</v>
       </c>
       <c r="E413" s="1" t="str">
@@ -14922,7 +15482,7 @@
       <c r="C414" s="10" t="s">
         <v>596</v>
       </c>
-      <c r="D414" s="27" t="s">
+      <c r="D414" s="23" t="s">
         <v>1408</v>
       </c>
       <c r="E414" s="1" t="str">
@@ -14940,7 +15500,7 @@
       <c r="C415" s="10" t="s">
         <v>597</v>
       </c>
-      <c r="D415" s="27" t="s">
+      <c r="D415" s="23" t="s">
         <v>1409</v>
       </c>
       <c r="E415" s="1" t="str">
@@ -14958,7 +15518,7 @@
       <c r="C416" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="D416" s="27" t="s">
+      <c r="D416" s="23" t="s">
         <v>1410</v>
       </c>
       <c r="E416" s="1" t="str">
@@ -14976,7 +15536,7 @@
       <c r="C417" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="D417" s="27" t="s">
+      <c r="D417" s="23" t="s">
         <v>1411</v>
       </c>
       <c r="E417" s="1" t="str">
@@ -14994,7 +15554,7 @@
       <c r="C418" s="10" t="s">
         <v>590</v>
       </c>
-      <c r="D418" s="27" t="s">
+      <c r="D418" s="23" t="s">
         <v>1412</v>
       </c>
       <c r="E418" s="1" t="str">
@@ -15012,7 +15572,7 @@
       <c r="C419" s="10" t="s">
         <v>591</v>
       </c>
-      <c r="D419" s="27" t="s">
+      <c r="D419" s="23" t="s">
         <v>1413</v>
       </c>
       <c r="E419" s="1" t="str">
@@ -15030,7 +15590,7 @@
       <c r="C420" s="10" t="s">
         <v>592</v>
       </c>
-      <c r="D420" s="27" t="s">
+      <c r="D420" s="23" t="s">
         <v>1414</v>
       </c>
       <c r="E420" s="1" t="str">
@@ -15048,7 +15608,7 @@
       <c r="C421" s="10" t="s">
         <v>593</v>
       </c>
-      <c r="D421" s="27" t="s">
+      <c r="D421" s="23" t="s">
         <v>1415</v>
       </c>
       <c r="E421" s="1" t="str">
@@ -15066,7 +15626,7 @@
       <c r="C422" s="22" t="s">
         <v>803</v>
       </c>
-      <c r="D422" s="27" t="s">
+      <c r="D422" s="23" t="s">
         <v>1416</v>
       </c>
       <c r="E422" s="1" t="str">
@@ -15084,7 +15644,7 @@
       <c r="C423" s="22" t="s">
         <v>805</v>
       </c>
-      <c r="D423" s="27" t="s">
+      <c r="D423" s="23" t="s">
         <v>1417</v>
       </c>
       <c r="E423" s="1" t="str">
@@ -15102,7 +15662,7 @@
       <c r="C424" s="22" t="s">
         <v>807</v>
       </c>
-      <c r="D424" s="27" t="s">
+      <c r="D424" s="23" t="s">
         <v>1418</v>
       </c>
       <c r="E424" s="1" t="str">
@@ -15120,7 +15680,7 @@
       <c r="C425" s="22" t="s">
         <v>809</v>
       </c>
-      <c r="D425" s="27" t="s">
+      <c r="D425" s="23" t="s">
         <v>1419</v>
       </c>
       <c r="E425" s="1" t="str">
@@ -15138,7 +15698,7 @@
       <c r="C426" s="22" t="s">
         <v>811</v>
       </c>
-      <c r="D426" s="27" t="s">
+      <c r="D426" s="23" t="s">
         <v>1420</v>
       </c>
       <c r="E426" s="1" t="str">
@@ -15156,7 +15716,7 @@
       <c r="C427" s="22" t="s">
         <v>813</v>
       </c>
-      <c r="D427" s="27" t="s">
+      <c r="D427" s="23" t="s">
         <v>1421</v>
       </c>
       <c r="E427" s="1" t="str">
@@ -15174,7 +15734,7 @@
       <c r="C428" s="22" t="s">
         <v>815</v>
       </c>
-      <c r="D428" s="27" t="s">
+      <c r="D428" s="23" t="s">
         <v>1422</v>
       </c>
       <c r="E428" s="1" t="str">
@@ -15192,7 +15752,7 @@
       <c r="C429" s="22" t="s">
         <v>817</v>
       </c>
-      <c r="D429" s="27" t="s">
+      <c r="D429" s="23" t="s">
         <v>1423</v>
       </c>
       <c r="E429" s="1" t="str">
@@ -15210,7 +15770,7 @@
       <c r="C430" s="22" t="s">
         <v>819</v>
       </c>
-      <c r="D430" s="27" t="s">
+      <c r="D430" s="23" t="s">
         <v>1424</v>
       </c>
       <c r="E430" s="1" t="str">
@@ -15228,7 +15788,7 @@
       <c r="C431" s="22" t="s">
         <v>821</v>
       </c>
-      <c r="D431" s="27" t="s">
+      <c r="D431" s="23" t="s">
         <v>1425</v>
       </c>
       <c r="E431" s="1" t="str">
@@ -15246,7 +15806,7 @@
       <c r="C432" s="22" t="s">
         <v>823</v>
       </c>
-      <c r="D432" s="27" t="s">
+      <c r="D432" s="23" t="s">
         <v>1426</v>
       </c>
       <c r="E432" s="1" t="str">
@@ -15264,7 +15824,7 @@
       <c r="C433" s="22" t="s">
         <v>825</v>
       </c>
-      <c r="D433" s="27" t="s">
+      <c r="D433" s="23" t="s">
         <v>1427</v>
       </c>
       <c r="E433" s="1" t="str">
@@ -15282,7 +15842,7 @@
       <c r="C434" s="22" t="s">
         <v>827</v>
       </c>
-      <c r="D434" s="27" t="s">
+      <c r="D434" s="23" t="s">
         <v>1428</v>
       </c>
       <c r="E434" s="1" t="str">
@@ -15300,7 +15860,7 @@
       <c r="C435" s="22" t="s">
         <v>829</v>
       </c>
-      <c r="D435" s="27" t="s">
+      <c r="D435" s="23" t="s">
         <v>1429</v>
       </c>
       <c r="E435" s="1" t="str">
@@ -15318,7 +15878,7 @@
       <c r="C436" s="22" t="s">
         <v>831</v>
       </c>
-      <c r="D436" s="27" t="s">
+      <c r="D436" s="23" t="s">
         <v>1430</v>
       </c>
       <c r="E436" s="1" t="str">
@@ -15336,7 +15896,7 @@
       <c r="C437" s="22" t="s">
         <v>833</v>
       </c>
-      <c r="D437" s="27" t="s">
+      <c r="D437" s="23" t="s">
         <v>1431</v>
       </c>
       <c r="E437" s="1" t="str">
@@ -15354,7 +15914,7 @@
       <c r="C438" s="22" t="s">
         <v>835</v>
       </c>
-      <c r="D438" s="27" t="s">
+      <c r="D438" s="23" t="s">
         <v>1432</v>
       </c>
       <c r="E438" s="1" t="str">
@@ -15372,7 +15932,7 @@
       <c r="C439" s="22" t="s">
         <v>837</v>
       </c>
-      <c r="D439" s="27" t="s">
+      <c r="D439" s="23" t="s">
         <v>1433</v>
       </c>
       <c r="E439" s="1" t="str">
@@ -15390,7 +15950,7 @@
       <c r="C440" s="22" t="s">
         <v>839</v>
       </c>
-      <c r="D440" s="27" t="s">
+      <c r="D440" s="23" t="s">
         <v>1434</v>
       </c>
       <c r="E440" s="1" t="str">
@@ -15408,7 +15968,7 @@
       <c r="C441" s="22" t="s">
         <v>841</v>
       </c>
-      <c r="D441" s="27" t="s">
+      <c r="D441" s="23" t="s">
         <v>1435</v>
       </c>
       <c r="E441" s="1" t="str">
@@ -15426,7 +15986,7 @@
       <c r="C442" s="22" t="s">
         <v>843</v>
       </c>
-      <c r="D442" s="27" t="s">
+      <c r="D442" s="23" t="s">
         <v>1436</v>
       </c>
       <c r="E442" s="1" t="str">
@@ -15444,7 +16004,7 @@
       <c r="C443" s="22" t="s">
         <v>845</v>
       </c>
-      <c r="D443" s="27" t="s">
+      <c r="D443" s="23" t="s">
         <v>1437</v>
       </c>
       <c r="E443" s="1" t="str">
@@ -15462,7 +16022,7 @@
       <c r="C444" s="22" t="s">
         <v>847</v>
       </c>
-      <c r="D444" s="27" t="s">
+      <c r="D444" s="23" t="s">
         <v>1438</v>
       </c>
       <c r="E444" s="1" t="str">
@@ -15480,7 +16040,7 @@
       <c r="C445" s="22" t="s">
         <v>849</v>
       </c>
-      <c r="D445" s="27" t="s">
+      <c r="D445" s="23" t="s">
         <v>1439</v>
       </c>
       <c r="E445" s="1" t="str">
@@ -15498,7 +16058,7 @@
       <c r="C446" s="22" t="s">
         <v>851</v>
       </c>
-      <c r="D446" s="27" t="s">
+      <c r="D446" s="23" t="s">
         <v>1440</v>
       </c>
       <c r="E446" s="1" t="str">
@@ -15516,7 +16076,7 @@
       <c r="C447" s="22" t="s">
         <v>853</v>
       </c>
-      <c r="D447" s="27" t="s">
+      <c r="D447" s="23" t="s">
         <v>1441</v>
       </c>
       <c r="E447" s="1" t="str">
@@ -15534,7 +16094,7 @@
       <c r="C448" s="22" t="s">
         <v>855</v>
       </c>
-      <c r="D448" s="27" t="s">
+      <c r="D448" s="23" t="s">
         <v>1442</v>
       </c>
       <c r="E448" s="1" t="str">
@@ -15552,7 +16112,7 @@
       <c r="C449" s="22" t="s">
         <v>857</v>
       </c>
-      <c r="D449" s="27" t="s">
+      <c r="D449" s="23" t="s">
         <v>1443</v>
       </c>
       <c r="E449" s="1" t="str">
@@ -15570,7 +16130,7 @@
       <c r="C450" s="22" t="s">
         <v>859</v>
       </c>
-      <c r="D450" s="27" t="s">
+      <c r="D450" s="23" t="s">
         <v>1444</v>
       </c>
       <c r="E450" s="1" t="str">
@@ -15588,7 +16148,7 @@
       <c r="C451" s="22" t="s">
         <v>861</v>
       </c>
-      <c r="D451" s="27" t="s">
+      <c r="D451" s="23" t="s">
         <v>1445</v>
       </c>
       <c r="E451" s="1" t="str">
@@ -15606,7 +16166,7 @@
       <c r="C452" s="22" t="s">
         <v>863</v>
       </c>
-      <c r="D452" s="27" t="s">
+      <c r="D452" s="23" t="s">
         <v>1446</v>
       </c>
       <c r="E452" s="1" t="str">
@@ -15624,7 +16184,7 @@
       <c r="C453" s="22" t="s">
         <v>865</v>
       </c>
-      <c r="D453" s="27" t="s">
+      <c r="D453" s="23" t="s">
         <v>1447</v>
       </c>
       <c r="E453" s="1" t="str">
@@ -15642,7 +16202,7 @@
       <c r="C454" s="22" t="s">
         <v>867</v>
       </c>
-      <c r="D454" s="27" t="s">
+      <c r="D454" s="23" t="s">
         <v>1448</v>
       </c>
       <c r="E454" s="1" t="str">
@@ -15660,7 +16220,7 @@
       <c r="C455" s="22" t="s">
         <v>869</v>
       </c>
-      <c r="D455" s="27" t="s">
+      <c r="D455" s="23" t="s">
         <v>1449</v>
       </c>
       <c r="E455" s="1" t="str">
@@ -15678,7 +16238,7 @@
       <c r="C456" s="22" t="s">
         <v>871</v>
       </c>
-      <c r="D456" s="27" t="s">
+      <c r="D456" s="23" t="s">
         <v>1450</v>
       </c>
       <c r="E456" s="1" t="str">
@@ -15696,7 +16256,7 @@
       <c r="C457" s="22" t="s">
         <v>873</v>
       </c>
-      <c r="D457" s="27" t="s">
+      <c r="D457" s="23" t="s">
         <v>1451</v>
       </c>
       <c r="E457" s="1" t="str">
@@ -15714,7 +16274,7 @@
       <c r="C458" s="22" t="s">
         <v>875</v>
       </c>
-      <c r="D458" s="27" t="s">
+      <c r="D458" s="23" t="s">
         <v>1452</v>
       </c>
       <c r="E458" s="1" t="str">
@@ -15732,7 +16292,7 @@
       <c r="C459" s="22" t="s">
         <v>877</v>
       </c>
-      <c r="D459" s="27" t="s">
+      <c r="D459" s="23" t="s">
         <v>1453</v>
       </c>
       <c r="E459" s="1" t="str">
@@ -15750,7 +16310,7 @@
       <c r="C460" s="22" t="s">
         <v>879</v>
       </c>
-      <c r="D460" s="27" t="s">
+      <c r="D460" s="23" t="s">
         <v>1454</v>
       </c>
       <c r="E460" s="1" t="str">
@@ -15768,7 +16328,7 @@
       <c r="C461" s="22" t="s">
         <v>881</v>
       </c>
-      <c r="D461" s="27" t="s">
+      <c r="D461" s="23" t="s">
         <v>1455</v>
       </c>
       <c r="E461" s="1" t="str">
@@ -15786,7 +16346,7 @@
       <c r="C462" s="22" t="s">
         <v>883</v>
       </c>
-      <c r="D462" s="27" t="s">
+      <c r="D462" s="23" t="s">
         <v>1456</v>
       </c>
       <c r="E462" s="1" t="str">
@@ -15804,7 +16364,7 @@
       <c r="C463" s="22" t="s">
         <v>885</v>
       </c>
-      <c r="D463" s="27" t="s">
+      <c r="D463" s="23" t="s">
         <v>1457</v>
       </c>
       <c r="E463" s="1" t="str">
@@ -15822,7 +16382,7 @@
       <c r="C464" s="22" t="s">
         <v>887</v>
       </c>
-      <c r="D464" s="27" t="s">
+      <c r="D464" s="23" t="s">
         <v>1458</v>
       </c>
       <c r="E464" s="1" t="str">
@@ -15840,7 +16400,7 @@
       <c r="C465" s="22" t="s">
         <v>889</v>
       </c>
-      <c r="D465" s="27" t="s">
+      <c r="D465" s="23" t="s">
         <v>1459</v>
       </c>
       <c r="E465" s="1" t="str">
@@ -15858,7 +16418,7 @@
       <c r="C466" s="22" t="s">
         <v>891</v>
       </c>
-      <c r="D466" s="27" t="s">
+      <c r="D466" s="23" t="s">
         <v>1460</v>
       </c>
       <c r="E466" s="1" t="str">
@@ -15876,7 +16436,7 @@
       <c r="C467" s="22" t="s">
         <v>893</v>
       </c>
-      <c r="D467" s="27" t="s">
+      <c r="D467" s="23" t="s">
         <v>1461</v>
       </c>
       <c r="E467" s="1" t="str">
@@ -15894,7 +16454,7 @@
       <c r="C468" s="22" t="s">
         <v>895</v>
       </c>
-      <c r="D468" s="27" t="s">
+      <c r="D468" s="23" t="s">
         <v>1462</v>
       </c>
       <c r="E468" s="1" t="str">
@@ -15912,7 +16472,7 @@
       <c r="C469" s="22" t="s">
         <v>897</v>
       </c>
-      <c r="D469" s="27" t="s">
+      <c r="D469" s="23" t="s">
         <v>1463</v>
       </c>
       <c r="E469" s="1" t="str">
@@ -15930,7 +16490,7 @@
       <c r="C470" s="22" t="s">
         <v>899</v>
       </c>
-      <c r="D470" s="27" t="s">
+      <c r="D470" s="23" t="s">
         <v>1464</v>
       </c>
       <c r="E470" s="1" t="str">
@@ -15948,7 +16508,7 @@
       <c r="C471" s="22" t="s">
         <v>901</v>
       </c>
-      <c r="D471" s="27" t="s">
+      <c r="D471" s="23" t="s">
         <v>1465</v>
       </c>
       <c r="E471" s="1" t="str">
@@ -15966,7 +16526,7 @@
       <c r="C472" s="22" t="s">
         <v>903</v>
       </c>
-      <c r="D472" s="27" t="s">
+      <c r="D472" s="23" t="s">
         <v>1466</v>
       </c>
       <c r="E472" s="1" t="str">
@@ -15984,7 +16544,7 @@
       <c r="C473" s="22" t="s">
         <v>905</v>
       </c>
-      <c r="D473" s="27" t="s">
+      <c r="D473" s="23" t="s">
         <v>1467</v>
       </c>
       <c r="E473" s="1" t="str">
@@ -16002,7 +16562,7 @@
       <c r="C474" s="22" t="s">
         <v>907</v>
       </c>
-      <c r="D474" s="27" t="s">
+      <c r="D474" s="23" t="s">
         <v>1468</v>
       </c>
       <c r="E474" s="1" t="str">
@@ -16020,7 +16580,7 @@
       <c r="C475" s="22" t="s">
         <v>909</v>
       </c>
-      <c r="D475" s="27" t="s">
+      <c r="D475" s="23" t="s">
         <v>1469</v>
       </c>
       <c r="E475" s="1" t="str">
@@ -16038,7 +16598,7 @@
       <c r="C476" s="22" t="s">
         <v>911</v>
       </c>
-      <c r="D476" s="27" t="s">
+      <c r="D476" s="23" t="s">
         <v>1470</v>
       </c>
       <c r="E476" s="1" t="str">
@@ -16056,7 +16616,7 @@
       <c r="C477" s="22" t="s">
         <v>913</v>
       </c>
-      <c r="D477" s="27" t="s">
+      <c r="D477" s="23" t="s">
         <v>1471</v>
       </c>
       <c r="E477" s="1" t="str">
@@ -16074,7 +16634,7 @@
       <c r="C478" s="22" t="s">
         <v>915</v>
       </c>
-      <c r="D478" s="27" t="s">
+      <c r="D478" s="23" t="s">
         <v>1472</v>
       </c>
       <c r="E478" s="1" t="str">
@@ -16092,7 +16652,7 @@
       <c r="C479" s="22" t="s">
         <v>917</v>
       </c>
-      <c r="D479" s="27" t="s">
+      <c r="D479" s="23" t="s">
         <v>1473</v>
       </c>
       <c r="E479" s="1" t="str">
@@ -16110,7 +16670,7 @@
       <c r="C480" s="22" t="s">
         <v>919</v>
       </c>
-      <c r="D480" s="27" t="s">
+      <c r="D480" s="23" t="s">
         <v>1474</v>
       </c>
       <c r="E480" s="1" t="str">
@@ -16128,7 +16688,7 @@
       <c r="C481" s="22" t="s">
         <v>921</v>
       </c>
-      <c r="D481" s="27" t="s">
+      <c r="D481" s="23" t="s">
         <v>1475</v>
       </c>
       <c r="E481" s="1" t="str">
@@ -16146,7 +16706,7 @@
       <c r="C482" s="22" t="s">
         <v>923</v>
       </c>
-      <c r="D482" s="27" t="s">
+      <c r="D482" s="23" t="s">
         <v>1476</v>
       </c>
       <c r="E482" s="1" t="str">
@@ -16164,7 +16724,7 @@
       <c r="C483" s="22" t="s">
         <v>925</v>
       </c>
-      <c r="D483" s="27" t="s">
+      <c r="D483" s="23" t="s">
         <v>1477</v>
       </c>
       <c r="E483" s="1" t="str">
@@ -16182,7 +16742,7 @@
       <c r="C484" s="22" t="s">
         <v>927</v>
       </c>
-      <c r="D484" s="27" t="s">
+      <c r="D484" s="23" t="s">
         <v>1478</v>
       </c>
       <c r="E484" s="1" t="str">
@@ -16200,7 +16760,7 @@
       <c r="C485" s="22" t="s">
         <v>929</v>
       </c>
-      <c r="D485" s="27" t="s">
+      <c r="D485" s="23" t="s">
         <v>1479</v>
       </c>
       <c r="E485" s="1" t="str">
@@ -16218,7 +16778,7 @@
       <c r="C486" s="22" t="s">
         <v>931</v>
       </c>
-      <c r="D486" s="27" t="s">
+      <c r="D486" s="23" t="s">
         <v>1480</v>
       </c>
       <c r="E486" s="1" t="str">
@@ -16236,7 +16796,7 @@
       <c r="C487" s="22" t="s">
         <v>933</v>
       </c>
-      <c r="D487" s="27" t="s">
+      <c r="D487" s="23" t="s">
         <v>1481</v>
       </c>
       <c r="E487" s="1" t="str">
